--- a/QuantLibXL/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18585" yWindow="-15" windowWidth="18645" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="18585" yWindow="-15" windowWidth="18645" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -1686,22 +1686,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1774,6 +1758,22 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -1840,7 +1840,7 @@
       <sheetData sheetId="1">
         <row r="7">
           <cell r="E7" t="str">
-            <v>EURSTD#0000</v>
+            <v>EURSTD#0002</v>
           </cell>
         </row>
       </sheetData>
@@ -2168,7 +2168,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2188,23 +2188,23 @@
     <row r="1" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="103" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  8 2015 13:08:40</v>
+        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Sep  9 2015 17:33:21</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="227" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
-      <c r="H2" s="199" t="s">
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="229"/>
+      <c r="H2" s="227" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="202"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="33"/>
@@ -2314,12 +2314,12 @@
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
-      <c r="H9" s="199" t="s">
+      <c r="H9" s="227" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="202"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="230"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D14" s="50" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYCSTD#0007</v>
+        <v>_EURYCSTD#0001</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -2519,24 +2519,24 @@
       <c r="B23" s="33"/>
       <c r="C23" s="37">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42138</v>
+        <v>42256</v>
       </c>
       <c r="D23" s="36">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.4645780221631493E-2</v>
+        <v>1.6401876682149468E-2</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="31"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="33"/>
-      <c r="C24" s="35">
-        <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>64059</v>
+      <c r="C24" s="35" t="e">
+        <f ca="1">MAX(_xll.ohPack(Selected!I2:I126))</f>
+        <v>#NAME?</v>
       </c>
       <c r="D24" s="34">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>-1.084870120100389E-3</v>
+        <v>-1.4679033525965117E-3</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="31"/>
@@ -2557,7 +2557,7 @@
       <c r="B26" s="33"/>
       <c r="C26" s="108" t="str">
         <f>[1]Euribor!$E$7</f>
-        <v>EURSTD#0000</v>
+        <v>EURSTD#0002</v>
       </c>
       <c r="D26" s="107" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
@@ -2666,7 +2666,7 @@
     <row r="2" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="110" t="str">
         <f>Deposits!E3</f>
-        <v>obj_0085f#0007</v>
+        <v>obj_00560#0001</v>
       </c>
       <c r="C2" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="D2" s="112">
         <f>_xll.qlRateHelperQuoteValue($B2,Trigger)</f>
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E2" s="112"/>
       <c r="F2" s="113" t="b">
@@ -2688,11 +2688,11 @@
       </c>
       <c r="I2" s="114">
         <f>_xll.qlRateHelperEarliestDate($B2,Trigger)</f>
-        <v>42138</v>
-      </c>
-      <c r="J2" s="115">
-        <f>_xll.qlRateHelperLatestDate($B2,Trigger)</f>
-        <v>42139</v>
+        <v>42256</v>
+      </c>
+      <c r="J2" s="115" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B2,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="62"/>
       <c r="L2" s="62"/>
@@ -2700,7 +2700,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="116" t="str">
         <f>Deposits!E4</f>
-        <v>obj_0082f#0007</v>
+        <v>obj_00825#0001</v>
       </c>
       <c r="C3" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D3" s="118">
         <f>_xll.qlRateHelperQuoteValue($B3,Trigger)</f>
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E3" s="118"/>
       <c r="F3" s="119" t="b">
@@ -2722,11 +2722,11 @@
       </c>
       <c r="I3" s="120">
         <f>_xll.qlRateHelperEarliestDate($B3,Trigger)</f>
-        <v>42139</v>
-      </c>
-      <c r="J3" s="121">
-        <f>_xll.qlRateHelperLatestDate($B3,Trigger)</f>
-        <v>42142</v>
+        <v>42257</v>
+      </c>
+      <c r="J3" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B3,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
@@ -2734,7 +2734,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="116" t="str">
         <f>Deposits!E5</f>
-        <v>obj_0083b#0007</v>
+        <v>obj_00826#0001</v>
       </c>
       <c r="C4" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="D4" s="118">
         <f>_xll.qlRateHelperQuoteValue($B4,Trigger)</f>
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E4" s="118"/>
       <c r="F4" s="119" t="b">
@@ -2756,11 +2756,11 @@
       </c>
       <c r="I4" s="120">
         <f>_xll.qlRateHelperEarliestDate($B4,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J4" s="121">
-        <f>_xll.qlRateHelperLatestDate($B4,Trigger)</f>
-        <v>42143</v>
+        <v>42258</v>
+      </c>
+      <c r="J4" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B4,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -2768,7 +2768,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="116" t="str">
         <f>Deposits!E6</f>
-        <v>obj_0083e#0007</v>
+        <v>obj_00558#0001</v>
       </c>
       <c r="C5" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="D5" s="118">
         <f>_xll.qlRateHelperQuoteValue($B5,Trigger)</f>
-        <v>-1.1100000000000001E-3</v>
+        <v>-1.49E-3</v>
       </c>
       <c r="E5" s="118"/>
       <c r="F5" s="119" t="b">
@@ -2790,11 +2790,11 @@
       </c>
       <c r="I5" s="120">
         <f>_xll.qlRateHelperEarliestDate($B5,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J5" s="121">
-        <f>_xll.qlRateHelperLatestDate($B5,Trigger)</f>
-        <v>42149</v>
+        <v>42258</v>
+      </c>
+      <c r="J5" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B5,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -2802,7 +2802,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="116" t="str">
         <f>Deposits!E7</f>
-        <v>obj_00823#0007</v>
+        <v>obj_00557#0001</v>
       </c>
       <c r="C6" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="D6" s="118">
         <f>_xll.qlRateHelperQuoteValue($B6,Trigger)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>-1.0400000000000001E-3</v>
       </c>
       <c r="E6" s="118"/>
       <c r="F6" s="119" t="b">
@@ -2824,11 +2824,11 @@
       </c>
       <c r="I6" s="120">
         <f>_xll.qlRateHelperEarliestDate($B6,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J6" s="121">
-        <f>_xll.qlRateHelperLatestDate($B6,Trigger)</f>
-        <v>42173</v>
+        <v>42258</v>
+      </c>
+      <c r="J6" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B6,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
@@ -2836,7 +2836,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="116" t="str">
         <f>Deposits!E8</f>
-        <v>obj_00835#0007</v>
+        <v>obj_00556#0001</v>
       </c>
       <c r="C7" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="D7" s="118">
         <f>_xll.qlRateHelperQuoteValue($B7,Trigger)</f>
-        <v>-2.7999999999999998E-4</v>
+        <v>-6.3000000000000003E-4</v>
       </c>
       <c r="E7" s="118"/>
       <c r="F7" s="119" t="b">
@@ -2858,11 +2858,11 @@
       </c>
       <c r="I7" s="120">
         <f>_xll.qlRateHelperEarliestDate($B7,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J7" s="121">
-        <f>_xll.qlRateHelperLatestDate($B7,Trigger)</f>
-        <v>42205</v>
+        <v>42258</v>
+      </c>
+      <c r="J7" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B7,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -2870,7 +2870,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="116" t="str">
         <f>Deposits!E9</f>
-        <v>obj_00838#0007</v>
+        <v>obj_0055c#0001</v>
       </c>
       <c r="C8" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D8" s="118">
         <f>_xll.qlRateHelperQuoteValue($B8,Trigger)</f>
-        <v>-8.9999999999999992E-5</v>
+        <v>-3.4999999999999994E-4</v>
       </c>
       <c r="E8" s="118"/>
       <c r="F8" s="119" t="b">
@@ -2892,18 +2892,18 @@
       </c>
       <c r="I8" s="120">
         <f>_xll.qlRateHelperEarliestDate($B8,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J8" s="121">
-        <f>_xll.qlRateHelperLatestDate($B8,Trigger)</f>
-        <v>42234</v>
+        <v>42258</v>
+      </c>
+      <c r="J8" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B8,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="116" t="str">
         <f>Deposits!E10</f>
-        <v>obj_00858#0007</v>
+        <v>obj_0055f#0001</v>
       </c>
       <c r="C9" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2925,11 +2925,11 @@
       </c>
       <c r="I9" s="120">
         <f>_xll.qlRateHelperEarliestDate($B9,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J9" s="121">
-        <f>_xll.qlRateHelperLatestDate($B9,Trigger)</f>
-        <v>42265</v>
+        <v>42258</v>
+      </c>
+      <c r="J9" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B9,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M9" s="8"/>
       <c r="O9" s="9"/>
@@ -2937,7 +2937,7 @@
     <row r="10" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="116" t="str">
         <f>Deposits!E11</f>
-        <v>obj_0085c#0007</v>
+        <v>obj_0055e#0001</v>
       </c>
       <c r="C10" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2959,11 +2959,11 @@
       </c>
       <c r="I10" s="120">
         <f>_xll.qlRateHelperEarliestDate($B10,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J10" s="121">
-        <f>_xll.qlRateHelperLatestDate($B10,Trigger)</f>
-        <v>42296</v>
+        <v>42258</v>
+      </c>
+      <c r="J10" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B10,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M10" s="8"/>
       <c r="O10" s="9"/>
@@ -2971,7 +2971,7 @@
     <row r="11" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="116" t="str">
         <f>Deposits!E12</f>
-        <v>obj_00825#0007</v>
+        <v>obj_00559#0001</v>
       </c>
       <c r="C11" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="D11" s="118">
         <f>_xll.qlRateHelperQuoteValue($B11,Trigger)</f>
-        <v>5.9999999999999995E-4</v>
+        <v>3.7999999999999997E-4</v>
       </c>
       <c r="E11" s="118"/>
       <c r="F11" s="119" t="b">
@@ -2993,11 +2993,11 @@
       </c>
       <c r="I11" s="120">
         <f>_xll.qlRateHelperEarliestDate($B11,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J11" s="121">
-        <f>_xll.qlRateHelperLatestDate($B11,Trigger)</f>
-        <v>42326</v>
+        <v>42258</v>
+      </c>
+      <c r="J11" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B11,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M11" s="8"/>
       <c r="O11" s="9"/>
@@ -3006,15 +3006,15 @@
       <c r="A12" s="6"/>
       <c r="B12" s="110" t="str">
         <f>Futures!J3</f>
-        <v>obj_0087f#0003</v>
+        <v>obj_00565#0001</v>
       </c>
       <c r="C12" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
-        <v>EURFUT3MK5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="D12" s="128">
         <f>_xll.qlRateHelperQuoteValue($B12,Trigger)</f>
-        <v>100.0125</v>
+        <v>100.03749999999999</v>
       </c>
       <c r="E12" s="112">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B12,Trigger)</f>
@@ -3031,26 +3031,26 @@
       </c>
       <c r="I12" s="114">
         <f>_xll.qlRateHelperEarliestDate($B12,Trigger)</f>
-        <v>42144</v>
-      </c>
-      <c r="J12" s="115">
-        <f>_xll.qlRateHelperLatestDate($B12,Trigger)</f>
-        <v>42236</v>
+        <v>42263</v>
+      </c>
+      <c r="J12" s="115" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B12,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="116" t="str">
         <f>Futures!J4</f>
-        <v>obj_00885#0003</v>
+        <v>obj_0056c#0001</v>
       </c>
       <c r="C13" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MV5_Quote</v>
       </c>
       <c r="D13" s="129">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
-        <v>100.00749999999999</v>
+        <v>100.03749999999999</v>
       </c>
       <c r="E13" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B13,Trigger)</f>
@@ -3067,22 +3067,22 @@
       </c>
       <c r="I13" s="120">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
-        <v>42172</v>
-      </c>
-      <c r="J13" s="121">
-        <f>_xll.qlRateHelperLatestDate($B13,Trigger)</f>
-        <v>42264</v>
+        <v>42298</v>
+      </c>
+      <c r="J13" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B13,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="116" t="str">
         <f>Futures!J5</f>
-        <v>obj_0087e#0003</v>
+        <v>obj_00582#0001</v>
       </c>
       <c r="C14" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MX5_Quote</v>
       </c>
       <c r="D14" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B14,Trigger)</f>
@@ -3103,30 +3103,30 @@
       </c>
       <c r="I14" s="120">
         <f>_xll.qlRateHelperEarliestDate($B14,Trigger)</f>
-        <v>42200</v>
-      </c>
-      <c r="J14" s="121">
-        <f>_xll.qlRateHelperLatestDate($B14,Trigger)</f>
-        <v>42292</v>
+        <v>42326</v>
+      </c>
+      <c r="J14" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B14,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="116" t="str">
         <f>Futures!J6</f>
-        <v>obj_00872#0003</v>
+        <v>obj_00569#0001</v>
       </c>
       <c r="C15" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
-        <v>EURFUT3MQ5_Quote</v>
-      </c>
-      <c r="D15" s="129" t="e">
+        <v>EURFUT3MZ5_Quote</v>
+      </c>
+      <c r="D15" s="129">
         <f>_xll.qlRateHelperQuoteValue($B15,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" s="118" t="e">
+        <v>100.03749999999999</v>
+      </c>
+      <c r="E15" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B15,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F15" s="119" t="b">
         <v>0</v>
@@ -3139,30 +3139,30 @@
       </c>
       <c r="I15" s="120">
         <f>_xll.qlRateHelperEarliestDate($B15,Trigger)</f>
-        <v>42235</v>
-      </c>
-      <c r="J15" s="121">
-        <f>_xll.qlRateHelperLatestDate($B15,Trigger)</f>
-        <v>42327</v>
+        <v>42354</v>
+      </c>
+      <c r="J15" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B15,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="116" t="str">
         <f>Futures!J7</f>
-        <v>obj_00862#0003</v>
+        <v>obj_00586#0001</v>
       </c>
       <c r="C16" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
-        <v>EURFUT3MU5_Quote</v>
-      </c>
-      <c r="D16" s="129">
+        <v>EURFUT3MF6_Quote</v>
+      </c>
+      <c r="D16" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B16,Trigger)</f>
-        <v>100.0025</v>
-      </c>
-      <c r="E16" s="118">
+        <v>#NUM!</v>
+      </c>
+      <c r="E16" s="118" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B16,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F16" s="119" t="b">
         <v>0</v>
@@ -3175,22 +3175,22 @@
       </c>
       <c r="I16" s="120">
         <f>_xll.qlRateHelperEarliestDate($B16,Trigger)</f>
-        <v>42263</v>
-      </c>
-      <c r="J16" s="121">
-        <f>_xll.qlRateHelperLatestDate($B16,Trigger)</f>
-        <v>42354</v>
+        <v>42389</v>
+      </c>
+      <c r="J16" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B16,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="116" t="str">
         <f>Futures!J8</f>
-        <v>obj_00889#0003</v>
+        <v>obj_0057b#0001</v>
       </c>
       <c r="C17" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
-        <v>EURFUT3MV5_Quote</v>
+        <v>EURFUT3MG6_Quote</v>
       </c>
       <c r="D17" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B17,Trigger)</f>
@@ -3211,30 +3211,30 @@
       </c>
       <c r="I17" s="120">
         <f>_xll.qlRateHelperEarliestDate($B17,Trigger)</f>
-        <v>42298</v>
-      </c>
-      <c r="J17" s="121">
-        <f>_xll.qlRateHelperLatestDate($B17,Trigger)</f>
-        <v>42390</v>
+        <v>42417</v>
+      </c>
+      <c r="J17" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B17,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="116" t="str">
         <f>Futures!J9</f>
-        <v>obj_00870#0003</v>
+        <v>obj_00581#0001</v>
       </c>
       <c r="C18" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
-        <v>EURFUT3MX5_Quote</v>
-      </c>
-      <c r="D18" s="129" t="e">
+        <v>EURFUT3MH6_Quote</v>
+      </c>
+      <c r="D18" s="129">
         <f>_xll.qlRateHelperQuoteValue($B18,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E18" s="118" t="e">
+        <v>100.03749999999999</v>
+      </c>
+      <c r="E18" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B18,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F18" s="119" t="b">
         <v>0</v>
@@ -3247,30 +3247,30 @@
       </c>
       <c r="I18" s="120">
         <f>_xll.qlRateHelperEarliestDate($B18,Trigger)</f>
-        <v>42326</v>
-      </c>
-      <c r="J18" s="121">
-        <f>_xll.qlRateHelperLatestDate($B18,Trigger)</f>
-        <v>42418</v>
+        <v>42445</v>
+      </c>
+      <c r="J18" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B18,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="116" t="str">
         <f>Futures!J10</f>
-        <v>obj_00877#0003</v>
+        <v>obj_0058a#0001</v>
       </c>
       <c r="C19" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
-        <v>EURFUT3MZ5_Quote</v>
-      </c>
-      <c r="D19" s="129">
+        <v>EURFUT3MJ6_Quote</v>
+      </c>
+      <c r="D19" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
-        <v>99.992500000000007</v>
-      </c>
-      <c r="E19" s="118">
+        <v>#NUM!</v>
+      </c>
+      <c r="E19" s="118" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B19,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F19" s="119" t="b">
         <v>0</v>
@@ -3283,22 +3283,22 @@
       </c>
       <c r="I19" s="120">
         <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
-        <v>42354</v>
-      </c>
-      <c r="J19" s="121">
-        <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
-        <v>42445</v>
+        <v>42480</v>
+      </c>
+      <c r="J19" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B19,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="116" t="str">
         <f>Futures!J11</f>
-        <v>obj_0086f#0003</v>
+        <v>obj_00587#0001</v>
       </c>
       <c r="C20" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
-        <v>EURFUT3MF6_Quote</v>
+        <v>EURFUT3MK6_Quote</v>
       </c>
       <c r="D20" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B20,Trigger)</f>
@@ -3319,30 +3319,30 @@
       </c>
       <c r="I20" s="120">
         <f>_xll.qlRateHelperEarliestDate($B20,Trigger)</f>
-        <v>42389</v>
-      </c>
-      <c r="J20" s="121">
-        <f>_xll.qlRateHelperLatestDate($B20,Trigger)</f>
-        <v>42480</v>
+        <v>42508</v>
+      </c>
+      <c r="J20" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B20,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="116" t="str">
         <f>Futures!J12</f>
-        <v>obj_00866#0003</v>
+        <v>obj_00579#0001</v>
       </c>
       <c r="C21" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
-        <v>EURFUT3MG6_Quote</v>
-      </c>
-      <c r="D21" s="129" t="e">
+        <v>EURFUT3MM6_Quote</v>
+      </c>
+      <c r="D21" s="129">
         <f>_xll.qlRateHelperQuoteValue($B21,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E21" s="118" t="e">
+        <v>100.0325</v>
+      </c>
+      <c r="E21" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B21,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F21" s="119" t="b">
         <v>0</v>
@@ -3355,30 +3355,30 @@
       </c>
       <c r="I21" s="120">
         <f>_xll.qlRateHelperEarliestDate($B21,Trigger)</f>
-        <v>42417</v>
-      </c>
-      <c r="J21" s="121">
-        <f>_xll.qlRateHelperLatestDate($B21,Trigger)</f>
-        <v>42507</v>
+        <v>42536</v>
+      </c>
+      <c r="J21" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B21,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="116" t="str">
         <f>Futures!J13</f>
-        <v>obj_00884#0003</v>
+        <v>obj_00566#0001</v>
       </c>
       <c r="C22" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
-        <v>EURFUT3MH6_Quote</v>
-      </c>
-      <c r="D22" s="129">
+        <v>EURFUT3MN6_Quote</v>
+      </c>
+      <c r="D22" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B22,Trigger)</f>
-        <v>99.977499999999992</v>
-      </c>
-      <c r="E22" s="118">
+        <v>#NUM!</v>
+      </c>
+      <c r="E22" s="118" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B22,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F22" s="119" t="b">
         <v>0</v>
@@ -3391,22 +3391,22 @@
       </c>
       <c r="I22" s="120">
         <f>_xll.qlRateHelperEarliestDate($B22,Trigger)</f>
-        <v>42445</v>
-      </c>
-      <c r="J22" s="121">
-        <f>_xll.qlRateHelperLatestDate($B22,Trigger)</f>
-        <v>42537</v>
+        <v>42571</v>
+      </c>
+      <c r="J22" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B22,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="116" t="str">
         <f>Futures!J14</f>
-        <v>obj_00861#0003</v>
+        <v>obj_00578#0001</v>
       </c>
       <c r="C23" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
-        <v>EURFUT3MJ6_Quote</v>
+        <v>EURFUT3MQ6_Quote</v>
       </c>
       <c r="D23" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B23,Trigger)</f>
@@ -3427,26 +3427,26 @@
       </c>
       <c r="I23" s="120">
         <f>_xll.qlRateHelperEarliestDate($B23,Trigger)</f>
-        <v>42480</v>
-      </c>
-      <c r="J23" s="121">
-        <f>_xll.qlRateHelperLatestDate($B23,Trigger)</f>
-        <v>42571</v>
+        <v>42599</v>
+      </c>
+      <c r="J23" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B23,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="116" t="str">
         <f>Futures!J15</f>
-        <v>obj_0086c#0003</v>
+        <v>obj_00571#0001</v>
       </c>
       <c r="C24" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="D24" s="129">
         <f>_xll.qlRateHelperQuoteValue($B24,Trigger)</f>
-        <v>99.962500000000006</v>
+        <v>100.0175</v>
       </c>
       <c r="E24" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B24,Trigger)</f>
@@ -3463,26 +3463,26 @@
       </c>
       <c r="I24" s="120">
         <f>_xll.qlRateHelperEarliestDate($B24,Trigger)</f>
-        <v>42536</v>
-      </c>
-      <c r="J24" s="121">
-        <f>_xll.qlRateHelperLatestDate($B24,Trigger)</f>
-        <v>42628</v>
+        <v>42634</v>
+      </c>
+      <c r="J24" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B24,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="116" t="str">
         <f>Futures!J16</f>
-        <v>obj_0086d#0003</v>
+        <v>obj_00583#0001</v>
       </c>
       <c r="C25" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="D25" s="129">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>99.932500000000005</v>
+        <v>99.997500000000002</v>
       </c>
       <c r="E25" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
@@ -3499,26 +3499,26 @@
       </c>
       <c r="I25" s="120">
         <f>_xll.qlRateHelperEarliestDate($B25,Trigger)</f>
-        <v>42634</v>
-      </c>
-      <c r="J25" s="121">
-        <f>_xll.qlRateHelperLatestDate($B25,Trigger)</f>
         <v>42725</v>
+      </c>
+      <c r="J25" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B25,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="116" t="str">
         <f>Futures!J17</f>
-        <v>obj_00874#0003</v>
+        <v>obj_00572#0001</v>
       </c>
       <c r="C26" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="D26" s="129">
         <f>_xll.qlRateHelperQuoteValue($B26,Trigger)</f>
-        <v>99.892499999999998</v>
+        <v>99.967500000000001</v>
       </c>
       <c r="E26" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B26,Trigger)</f>
@@ -3535,26 +3535,26 @@
       </c>
       <c r="I26" s="120">
         <f>_xll.qlRateHelperEarliestDate($B26,Trigger)</f>
-        <v>42725</v>
-      </c>
-      <c r="J26" s="121">
-        <f>_xll.qlRateHelperLatestDate($B26,Trigger)</f>
-        <v>42815</v>
+        <v>42809</v>
+      </c>
+      <c r="J26" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B26,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="116" t="str">
         <f>Futures!J18</f>
-        <v>obj_00867#0003</v>
+        <v>obj_0057c#0001</v>
       </c>
       <c r="C27" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="D27" s="129">
         <f>_xll.qlRateHelperQuoteValue($B27,Trigger)</f>
-        <v>99.847499999999997</v>
+        <v>99.927500000000009</v>
       </c>
       <c r="E27" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B27,Trigger)</f>
@@ -3571,26 +3571,26 @@
       </c>
       <c r="I27" s="120">
         <f>_xll.qlRateHelperEarliestDate($B27,Trigger)</f>
-        <v>42809</v>
-      </c>
-      <c r="J27" s="121">
-        <f>_xll.qlRateHelperLatestDate($B27,Trigger)</f>
-        <v>42901</v>
+        <v>42907</v>
+      </c>
+      <c r="J27" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B27,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="116" t="str">
         <f>Futures!J19</f>
-        <v>obj_0086e#0003</v>
+        <v>obj_00584#0001</v>
       </c>
       <c r="C28" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="D28" s="129">
         <f>_xll.qlRateHelperQuoteValue($B28,Trigger)</f>
-        <v>99.797499999999999</v>
+        <v>99.887500000000003</v>
       </c>
       <c r="E28" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
@@ -3607,26 +3607,26 @@
       </c>
       <c r="I28" s="120">
         <f>_xll.qlRateHelperEarliestDate($B28,Trigger)</f>
-        <v>42907</v>
-      </c>
-      <c r="J28" s="121">
-        <f>_xll.qlRateHelperLatestDate($B28,Trigger)</f>
-        <v>42999</v>
+        <v>42998</v>
+      </c>
+      <c r="J28" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B28,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="116" t="str">
         <f>Futures!J20</f>
-        <v>obj_0088a#0003</v>
+        <v>obj_0057f#0001</v>
       </c>
       <c r="C29" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="D29" s="129">
         <f>_xll.qlRateHelperQuoteValue($B29,Trigger)</f>
-        <v>99.742500000000007</v>
+        <v>99.842500000000001</v>
       </c>
       <c r="E29" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B29,Trigger)</f>
@@ -3643,26 +3643,26 @@
       </c>
       <c r="I29" s="120">
         <f>_xll.qlRateHelperEarliestDate($B29,Trigger)</f>
-        <v>42998</v>
-      </c>
-      <c r="J29" s="121">
-        <f>_xll.qlRateHelperLatestDate($B29,Trigger)</f>
         <v>43089</v>
+      </c>
+      <c r="J29" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B29,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="116" t="str">
         <f>Futures!J21</f>
-        <v>obj_0086a#0003</v>
+        <v>obj_00568#0001</v>
       </c>
       <c r="C30" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="D30" s="129">
         <f>_xll.qlRateHelperQuoteValue($B30,Trigger)</f>
-        <v>99.682500000000005</v>
+        <v>99.782499999999999</v>
       </c>
       <c r="E30" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B30,Trigger)</f>
@@ -3679,26 +3679,26 @@
       </c>
       <c r="I30" s="120">
         <f>_xll.qlRateHelperEarliestDate($B30,Trigger)</f>
-        <v>43089</v>
-      </c>
-      <c r="J30" s="121">
-        <f>_xll.qlRateHelperLatestDate($B30,Trigger)</f>
-        <v>43179</v>
+        <v>43180</v>
+      </c>
+      <c r="J30" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B30,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="116" t="str">
         <f>Futures!J22</f>
-        <v>obj_00879#0003</v>
+        <v>obj_0056a#0001</v>
       </c>
       <c r="C31" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
-        <v>EURFUT3MH8_Quote</v>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="D31" s="129">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>99.617500000000007</v>
+        <v>99.717500000000001</v>
       </c>
       <c r="E31" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
@@ -3715,26 +3715,26 @@
       </c>
       <c r="I31" s="120">
         <f>_xll.qlRateHelperEarliestDate($B31,Trigger)</f>
-        <v>43180</v>
-      </c>
-      <c r="J31" s="121">
-        <f>_xll.qlRateHelperLatestDate($B31,Trigger)</f>
-        <v>43272</v>
+        <v>43271</v>
+      </c>
+      <c r="J31" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B31,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="116" t="str">
         <f>Futures!J23</f>
-        <v>obj_00871#0003</v>
+        <v>obj_00563#0001</v>
       </c>
       <c r="C32" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
-        <v>EURFUT3MM8_Quote</v>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="D32" s="129">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>99.547499999999999</v>
+        <v>99.64500000000001</v>
       </c>
       <c r="E32" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
@@ -3751,26 +3751,26 @@
       </c>
       <c r="I32" s="120">
         <f>_xll.qlRateHelperEarliestDate($B32,Trigger)</f>
-        <v>43271</v>
-      </c>
-      <c r="J32" s="121">
-        <f>_xll.qlRateHelperLatestDate($B32,Trigger)</f>
-        <v>43363</v>
+        <v>43362</v>
+      </c>
+      <c r="J32" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B32,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="116" t="str">
         <f>Futures!J24</f>
-        <v>obj_00869#0003</v>
+        <v>obj_00562#0001</v>
       </c>
       <c r="C33" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
-        <v>EURFUT3MU8_Quote</v>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="D33" s="129">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>99.477499999999992</v>
+        <v>99.567499999999995</v>
       </c>
       <c r="E33" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
@@ -3787,26 +3787,26 @@
       </c>
       <c r="I33" s="120">
         <f>_xll.qlRateHelperEarliestDate($B33,Trigger)</f>
-        <v>43362</v>
-      </c>
-      <c r="J33" s="121">
-        <f>_xll.qlRateHelperLatestDate($B33,Trigger)</f>
         <v>43453</v>
+      </c>
+      <c r="J33" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B33,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="116" t="str">
         <f>Futures!J25</f>
-        <v>obj_00881#0003</v>
+        <v>obj_0056f#0001</v>
       </c>
       <c r="C34" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
-        <v>EURFUT3MZ8_Quote</v>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="D34" s="129">
         <f>_xll.qlRateHelperQuoteValue($B34,Trigger)</f>
-        <v>99.405000000000001</v>
+        <v>99.487499999999997</v>
       </c>
       <c r="E34" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B34,Trigger)</f>
@@ -3823,26 +3823,26 @@
       </c>
       <c r="I34" s="120">
         <f>_xll.qlRateHelperEarliestDate($B34,Trigger)</f>
-        <v>43453</v>
-      </c>
-      <c r="J34" s="121">
-        <f>_xll.qlRateHelperLatestDate($B34,Trigger)</f>
-        <v>43543</v>
+        <v>43544</v>
+      </c>
+      <c r="J34" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B34,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="116" t="str">
         <f>Futures!J26</f>
-        <v>obj_00878#0003</v>
+        <v>obj_00564#0001</v>
       </c>
       <c r="C35" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
-        <v>EURFUT3MH9_Quote</v>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="D35" s="129">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>99.335000000000008</v>
+        <v>99.405000000000001</v>
       </c>
       <c r="E35" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
@@ -3859,26 +3859,26 @@
       </c>
       <c r="I35" s="120">
         <f>_xll.qlRateHelperEarliestDate($B35,Trigger)</f>
-        <v>43544</v>
-      </c>
-      <c r="J35" s="121">
-        <f>_xll.qlRateHelperLatestDate($B35,Trigger)</f>
-        <v>43636</v>
+        <v>43635</v>
+      </c>
+      <c r="J35" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B35,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="116" t="str">
         <f>Futures!J27</f>
-        <v>obj_00880#0003</v>
+        <v>obj_0056b#0001</v>
       </c>
       <c r="C36" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
-        <v>EURFUT3MM9_Quote</v>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="D36" s="129">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>99.259999999999991</v>
+        <v>99.322499999999991</v>
       </c>
       <c r="E36" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
@@ -3895,26 +3895,26 @@
       </c>
       <c r="I36" s="120">
         <f>_xll.qlRateHelperEarliestDate($B36,Trigger)</f>
-        <v>43635</v>
-      </c>
-      <c r="J36" s="121">
-        <f>_xll.qlRateHelperLatestDate($B36,Trigger)</f>
-        <v>43727</v>
+        <v>43726</v>
+      </c>
+      <c r="J36" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B36,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="116" t="str">
         <f>Futures!J28</f>
-        <v>obj_00868#0003</v>
+        <v>obj_00589#0001</v>
       </c>
       <c r="C37" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
-        <v>EURFUT3MU9_Quote</v>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="D37" s="129">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>99.1875</v>
+        <v>99.240000000000009</v>
       </c>
       <c r="E37" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
@@ -3931,26 +3931,26 @@
       </c>
       <c r="I37" s="120">
         <f>_xll.qlRateHelperEarliestDate($B37,Trigger)</f>
-        <v>43726</v>
-      </c>
-      <c r="J37" s="121">
-        <f>_xll.qlRateHelperLatestDate($B37,Trigger)</f>
         <v>43817</v>
+      </c>
+      <c r="J37" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B37,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="116" t="str">
         <f>Futures!J29</f>
-        <v>obj_00886#0003</v>
+        <v>obj_00570#0001</v>
       </c>
       <c r="C38" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
-        <v>EURFUT3MZ9_Quote</v>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="D38" s="129">
         <f>_xll.qlRateHelperQuoteValue($B38,Trigger)</f>
-        <v>99.11</v>
+        <v>99.162499999999994</v>
       </c>
       <c r="E38" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
@@ -3967,26 +3967,26 @@
       </c>
       <c r="I38" s="120">
         <f>_xll.qlRateHelperEarliestDate($B38,Trigger)</f>
-        <v>43817</v>
-      </c>
-      <c r="J38" s="121">
-        <f>_xll.qlRateHelperLatestDate($B38,Trigger)</f>
         <v>43908</v>
+      </c>
+      <c r="J38" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B38,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="116" t="str">
         <f>Futures!J30</f>
-        <v>obj_0087d#0003</v>
+        <v>obj_00588#0001</v>
       </c>
       <c r="C39" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
-        <v>EURFUT3MH0_Quote</v>
+        <v>EURFUT3MM0_Quote</v>
       </c>
       <c r="D39" s="129">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>99.034999999999997</v>
+        <v>99.087500000000006</v>
       </c>
       <c r="E39" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
@@ -4003,26 +4003,26 @@
       </c>
       <c r="I39" s="120">
         <f>_xll.qlRateHelperEarliestDate($B39,Trigger)</f>
-        <v>43908</v>
-      </c>
-      <c r="J39" s="121">
-        <f>_xll.qlRateHelperLatestDate($B39,Trigger)</f>
-        <v>44000</v>
+        <v>43999</v>
+      </c>
+      <c r="J39" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B39,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="116" t="str">
         <f>Futures!J31</f>
-        <v>obj_0086b#0003</v>
+        <v>obj_0056d#0001</v>
       </c>
       <c r="C40" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
-        <v>EURFUT3MM0_Quote</v>
+        <v>EURFUT3MU0_Quote</v>
       </c>
       <c r="D40" s="129">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>98.962500000000006</v>
+        <v>99.017500000000013</v>
       </c>
       <c r="E40" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
@@ -4039,26 +4039,26 @@
       </c>
       <c r="I40" s="120">
         <f>_xll.qlRateHelperEarliestDate($B40,Trigger)</f>
-        <v>43999</v>
-      </c>
-      <c r="J40" s="121">
-        <f>_xll.qlRateHelperLatestDate($B40,Trigger)</f>
-        <v>44091</v>
+        <v>44090</v>
+      </c>
+      <c r="J40" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B40,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="116" t="str">
         <f>Futures!J32</f>
-        <v>obj_00863#0003</v>
+        <v>obj_00580#0001</v>
       </c>
       <c r="C41" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
-        <v>EURFUT3MU0_Quote</v>
+        <v>EURFUT3MZ0_Quote</v>
       </c>
       <c r="D41" s="129">
         <f>_xll.qlRateHelperQuoteValue($B41,Trigger)</f>
-        <v>98.887500000000003</v>
+        <v>98.947499999999991</v>
       </c>
       <c r="E41" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
@@ -4075,26 +4075,26 @@
       </c>
       <c r="I41" s="120">
         <f>_xll.qlRateHelperEarliestDate($B41,Trigger)</f>
-        <v>44090</v>
-      </c>
-      <c r="J41" s="121">
-        <f>_xll.qlRateHelperLatestDate($B41,Trigger)</f>
         <v>44181</v>
+      </c>
+      <c r="J41" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B41,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="116" t="str">
         <f>Futures!J33</f>
-        <v>obj_00888#0003</v>
+        <v>obj_00577#0001</v>
       </c>
       <c r="C42" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
-        <v>EURFUT3MZ0_Quote</v>
+        <v>EURFUT3MH1_Quote</v>
       </c>
       <c r="D42" s="129">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>98.817499999999995</v>
+        <v>98.88</v>
       </c>
       <c r="E42" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
@@ -4111,26 +4111,26 @@
       </c>
       <c r="I42" s="120">
         <f>_xll.qlRateHelperEarliestDate($B42,Trigger)</f>
-        <v>44181</v>
-      </c>
-      <c r="J42" s="121">
-        <f>_xll.qlRateHelperLatestDate($B42,Trigger)</f>
-        <v>44271</v>
+        <v>44272</v>
+      </c>
+      <c r="J42" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B42,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="116" t="str">
         <f>Futures!J34</f>
-        <v>obj_00882#0003</v>
+        <v>obj_00576#0001</v>
       </c>
       <c r="C43" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
-        <v>EURFUT3MH1_Quote</v>
+        <v>EURFUT3MM1_Quote</v>
       </c>
       <c r="D43" s="129">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>98.75</v>
+        <v>98.81</v>
       </c>
       <c r="E43" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
@@ -4147,22 +4147,22 @@
       </c>
       <c r="I43" s="120">
         <f>_xll.qlRateHelperEarliestDate($B43,Trigger)</f>
-        <v>44272</v>
-      </c>
-      <c r="J43" s="121">
-        <f>_xll.qlRateHelperLatestDate($B43,Trigger)</f>
-        <v>44364</v>
+        <v>44363</v>
+      </c>
+      <c r="J43" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B43,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="116" t="str">
         <f>Futures!J35</f>
-        <v>obj_00873#0003</v>
+        <v>obj_0056e#0001</v>
       </c>
       <c r="C44" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
-        <v>EURFUT3MM1_Quote</v>
+        <v>EURFUT3MU1_Quote</v>
       </c>
       <c r="D44" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
@@ -4183,22 +4183,22 @@
       </c>
       <c r="I44" s="120">
         <f>_xll.qlRateHelperEarliestDate($B44,Trigger)</f>
-        <v>44363</v>
-      </c>
-      <c r="J44" s="121">
-        <f>_xll.qlRateHelperLatestDate($B44,Trigger)</f>
-        <v>44455</v>
+        <v>44454</v>
+      </c>
+      <c r="J44" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B44,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="116" t="str">
         <f>Futures!J36</f>
-        <v>obj_00875#0003</v>
+        <v>obj_0057a#0001</v>
       </c>
       <c r="C45" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
-        <v>EURFUT3MU1_Quote</v>
+        <v>EURFUT3MZ1_Quote</v>
       </c>
       <c r="D45" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
@@ -4219,22 +4219,22 @@
       </c>
       <c r="I45" s="120">
         <f>_xll.qlRateHelperEarliestDate($B45,Trigger)</f>
-        <v>44454</v>
-      </c>
-      <c r="J45" s="121">
-        <f>_xll.qlRateHelperLatestDate($B45,Trigger)</f>
         <v>44545</v>
+      </c>
+      <c r="J45" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B45,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="116" t="str">
         <f>Futures!J37</f>
-        <v>obj_0087a#0003</v>
+        <v>obj_00573#0001</v>
       </c>
       <c r="C46" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
-        <v>EURFUT3MZ1_Quote</v>
+        <v>EURFUT3MH2_Quote</v>
       </c>
       <c r="D46" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
@@ -4255,22 +4255,22 @@
       </c>
       <c r="I46" s="120">
         <f>_xll.qlRateHelperEarliestDate($B46,Trigger)</f>
-        <v>44545</v>
-      </c>
-      <c r="J46" s="121">
-        <f>_xll.qlRateHelperLatestDate($B46,Trigger)</f>
-        <v>44635</v>
+        <v>44636</v>
+      </c>
+      <c r="J46" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B46,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="116" t="str">
         <f>Futures!J38</f>
-        <v>obj_00865#0003</v>
+        <v>obj_00567#0001</v>
       </c>
       <c r="C47" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
-        <v>EURFUT3MH2_Quote</v>
+        <v>EURFUT3MM2_Quote</v>
       </c>
       <c r="D47" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
@@ -4291,22 +4291,22 @@
       </c>
       <c r="I47" s="120">
         <f>_xll.qlRateHelperEarliestDate($B47,Trigger)</f>
-        <v>44636</v>
-      </c>
-      <c r="J47" s="121">
-        <f>_xll.qlRateHelperLatestDate($B47,Trigger)</f>
-        <v>44728</v>
+        <v>44727</v>
+      </c>
+      <c r="J47" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B47,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="116" t="str">
         <f>Futures!J39</f>
-        <v>obj_00883#0003</v>
+        <v>obj_0057e#0001</v>
       </c>
       <c r="C48" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
-        <v>EURFUT3MM2_Quote</v>
+        <v>EURFUT3MU2_Quote</v>
       </c>
       <c r="D48" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
@@ -4327,22 +4327,22 @@
       </c>
       <c r="I48" s="120">
         <f>_xll.qlRateHelperEarliestDate($B48,Trigger)</f>
-        <v>44727</v>
-      </c>
-      <c r="J48" s="121">
-        <f>_xll.qlRateHelperLatestDate($B48,Trigger)</f>
-        <v>44819</v>
+        <v>44825</v>
+      </c>
+      <c r="J48" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B48,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="116" t="str">
         <f>Futures!J40</f>
-        <v>obj_0087c#0003</v>
+        <v>obj_00585#0001</v>
       </c>
       <c r="C49" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
-        <v>EURFUT3MU2_Quote</v>
+        <v>EURFUT3MZ2_Quote</v>
       </c>
       <c r="D49" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
@@ -4363,22 +4363,22 @@
       </c>
       <c r="I49" s="120">
         <f>_xll.qlRateHelperEarliestDate($B49,Trigger)</f>
-        <v>44825</v>
-      </c>
-      <c r="J49" s="121">
-        <f>_xll.qlRateHelperLatestDate($B49,Trigger)</f>
         <v>44916</v>
+      </c>
+      <c r="J49" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B49,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="116" t="str">
         <f>Futures!J41</f>
-        <v>obj_0087b#0003</v>
+        <v>obj_00575#0001</v>
       </c>
       <c r="C50" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
-        <v>EURFUT3MZ2_Quote</v>
+        <v>EURFUT3MH3_Quote</v>
       </c>
       <c r="D50" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B50,Trigger)</f>
@@ -4399,22 +4399,22 @@
       </c>
       <c r="I50" s="120">
         <f>_xll.qlRateHelperEarliestDate($B50,Trigger)</f>
-        <v>44916</v>
-      </c>
-      <c r="J50" s="121">
-        <f>_xll.qlRateHelperLatestDate($B50,Trigger)</f>
-        <v>45006</v>
+        <v>45000</v>
+      </c>
+      <c r="J50" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B50,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="116" t="str">
         <f>Futures!J42</f>
-        <v>obj_00876#0003</v>
+        <v>obj_0057d#0001</v>
       </c>
       <c r="C51" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
-        <v>EURFUT3MH3_Quote</v>
+        <v>EURFUT3MM3_Quote</v>
       </c>
       <c r="D51" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B51,Trigger)</f>
@@ -4435,22 +4435,22 @@
       </c>
       <c r="I51" s="120">
         <f>_xll.qlRateHelperEarliestDate($B51,Trigger)</f>
-        <v>45000</v>
-      </c>
-      <c r="J51" s="121">
-        <f>_xll.qlRateHelperLatestDate($B51,Trigger)</f>
-        <v>45092</v>
+        <v>45098</v>
+      </c>
+      <c r="J51" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B51,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="116" t="str">
         <f>Futures!J43</f>
-        <v>obj_00864#0003</v>
+        <v>obj_00561#0001</v>
       </c>
       <c r="C52" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
-        <v>EURFUT3MM3_Quote</v>
+        <v>EURFUT3MU3_Quote</v>
       </c>
       <c r="D52" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B52,Trigger)</f>
@@ -4471,22 +4471,22 @@
       </c>
       <c r="I52" s="120">
         <f>_xll.qlRateHelperEarliestDate($B52,Trigger)</f>
-        <v>45098</v>
-      </c>
-      <c r="J52" s="121">
-        <f>_xll.qlRateHelperLatestDate($B52,Trigger)</f>
-        <v>45190</v>
+        <v>45189</v>
+      </c>
+      <c r="J52" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B52,Trigger)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="116" t="str">
         <f>Futures!J44</f>
-        <v>obj_00887#0003</v>
+        <v>obj_00574#0001</v>
       </c>
       <c r="C53" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
-        <v>EURFUT3MU3_Quote</v>
+        <v>EURFUT3MZ3_Quote</v>
       </c>
       <c r="D53" s="129" t="e">
         <f>_xll.qlRateHelperQuoteValue($B53,Trigger)</f>
@@ -4507,11 +4507,11 @@
       </c>
       <c r="I53" s="120">
         <f>_xll.qlRateHelperEarliestDate($B53,Trigger)</f>
-        <v>45189</v>
-      </c>
-      <c r="J53" s="121">
-        <f>_xll.qlRateHelperLatestDate($B53,Trigger)</f>
         <v>45280</v>
+      </c>
+      <c r="J53" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B53,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K53" s="7"/>
     </row>
@@ -4519,7 +4519,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="110" t="str">
         <f>FRAs!H3</f>
-        <v>obj_00896#0003</v>
+        <v>obj_00813#0001</v>
       </c>
       <c r="C54" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="D54" s="135">
         <f>_xll.qlRateHelperQuoteValue($B54,Trigger)</f>
-        <v>6.4000000000000005E-4</v>
+        <v>3.5999999999999997E-4</v>
       </c>
       <c r="E54" s="112"/>
       <c r="F54" s="113" t="b">
@@ -4541,11 +4541,11 @@
       </c>
       <c r="I54" s="114">
         <f>_xll.qlRateHelperEarliestDate($B54,Trigger)</f>
-        <v>42173</v>
-      </c>
-      <c r="J54" s="115">
-        <f>_xll.qlRateHelperLatestDate($B54,Trigger)</f>
-        <v>42356</v>
+        <v>42289</v>
+      </c>
+      <c r="J54" s="115" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B54,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K54" s="7"/>
     </row>
@@ -4553,7 +4553,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="116" t="str">
         <f>FRAs!H4</f>
-        <v>obj_00890#0003</v>
+        <v>obj_00816#0001</v>
       </c>
       <c r="C55" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="D55" s="130">
         <f>_xll.qlRateHelperQuoteValue($B55,Trigger)</f>
-        <v>6.7000000000000002E-4</v>
+        <v>3.5999999999999997E-4</v>
       </c>
       <c r="E55" s="118"/>
       <c r="F55" s="119" t="b">
@@ -4575,11 +4575,11 @@
       </c>
       <c r="I55" s="120">
         <f>_xll.qlRateHelperEarliestDate($B55,Trigger)</f>
-        <v>42205</v>
-      </c>
-      <c r="J55" s="121">
-        <f>_xll.qlRateHelperLatestDate($B55,Trigger)</f>
-        <v>42389</v>
+        <v>42319</v>
+      </c>
+      <c r="J55" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B55,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K55" s="7"/>
     </row>
@@ -4587,7 +4587,7 @@
       <c r="A56" s="4"/>
       <c r="B56" s="116" t="str">
         <f>FRAs!H5</f>
-        <v>obj_0089d#0003</v>
+        <v>obj_00824#0001</v>
       </c>
       <c r="C56" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="D56" s="130">
         <f>_xll.qlRateHelperQuoteValue($B56,Trigger)</f>
-        <v>7.000000000000001E-4</v>
+        <v>3.7999999999999997E-4</v>
       </c>
       <c r="E56" s="118"/>
       <c r="F56" s="119" t="b">
@@ -4609,11 +4609,11 @@
       </c>
       <c r="I56" s="120">
         <f>_xll.qlRateHelperEarliestDate($B56,Trigger)</f>
-        <v>42234</v>
-      </c>
-      <c r="J56" s="121">
-        <f>_xll.qlRateHelperLatestDate($B56,Trigger)</f>
-        <v>42418</v>
+        <v>42349</v>
+      </c>
+      <c r="J56" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B56,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K56" s="7"/>
     </row>
@@ -4621,7 +4621,7 @@
       <c r="A57" s="4"/>
       <c r="B57" s="116" t="str">
         <f>FRAs!H6</f>
-        <v>obj_0089b#0003</v>
+        <v>obj_00822#0001</v>
       </c>
       <c r="C57" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="D57" s="130">
         <f>_xll.qlRateHelperQuoteValue($B57,Trigger)</f>
-        <v>7.400000000000001E-4</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="E57" s="118"/>
       <c r="F57" s="119" t="b">
@@ -4643,11 +4643,11 @@
       </c>
       <c r="I57" s="120">
         <f>_xll.qlRateHelperEarliestDate($B57,Trigger)</f>
-        <v>42265</v>
-      </c>
-      <c r="J57" s="121">
-        <f>_xll.qlRateHelperLatestDate($B57,Trigger)</f>
-        <v>42447</v>
+        <v>42380</v>
+      </c>
+      <c r="J57" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B57,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K57" s="7"/>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="116" t="str">
         <f>FRAs!H7</f>
-        <v>obj_00894#0003</v>
+        <v>obj_00820#0001</v>
       </c>
       <c r="C58" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="D58" s="130">
         <f>_xll.qlRateHelperQuoteValue($B58,Trigger)</f>
-        <v>7.8000000000000009E-4</v>
+        <v>4.0999999999999994E-4</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="119" t="b">
@@ -4677,11 +4677,11 @@
       </c>
       <c r="I58" s="120">
         <f>_xll.qlRateHelperEarliestDate($B58,Trigger)</f>
-        <v>42296</v>
-      </c>
-      <c r="J58" s="121">
-        <f>_xll.qlRateHelperLatestDate($B58,Trigger)</f>
-        <v>42479</v>
+        <v>42411</v>
+      </c>
+      <c r="J58" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B58,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K58" s="7"/>
     </row>
@@ -4689,7 +4689,7 @@
       <c r="A59" s="4"/>
       <c r="B59" s="116" t="str">
         <f>FRAs!H8</f>
-        <v>obj_0088d#0003</v>
+        <v>obj_0081e#0001</v>
       </c>
       <c r="C59" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D59" s="130">
         <f>_xll.qlRateHelperQuoteValue($B59,Trigger)</f>
-        <v>8.1000000000000006E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="E59" s="118"/>
       <c r="F59" s="119" t="b">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="I59" s="120">
         <f>_xll.qlRateHelperEarliestDate($B59,Trigger)</f>
-        <v>42326</v>
-      </c>
-      <c r="J59" s="121">
-        <f>_xll.qlRateHelperLatestDate($B59,Trigger)</f>
-        <v>42508</v>
+        <v>42440</v>
+      </c>
+      <c r="J59" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B59,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K59" s="7"/>
     </row>
@@ -4723,7 +4723,7 @@
       <c r="A60" s="4"/>
       <c r="B60" s="116" t="str">
         <f>FRAs!H9</f>
-        <v>obj_00897#0003</v>
+        <v>obj_0081c#0001</v>
       </c>
       <c r="C60" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="D60" s="130">
         <f>_xll.qlRateHelperQuoteValue($B60,Trigger)</f>
-        <v>8.6000000000000009E-4</v>
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="E60" s="118"/>
       <c r="F60" s="119" t="b">
@@ -4745,11 +4745,11 @@
       </c>
       <c r="I60" s="120">
         <f>_xll.qlRateHelperEarliestDate($B60,Trigger)</f>
-        <v>42356</v>
-      </c>
-      <c r="J60" s="121">
-        <f>_xll.qlRateHelperLatestDate($B60,Trigger)</f>
-        <v>42541</v>
+        <v>42471</v>
+      </c>
+      <c r="J60" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B60,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K60" s="7"/>
     </row>
@@ -4757,7 +4757,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="116" t="str">
         <f>FRAs!H10</f>
-        <v>obj_00899#0003</v>
+        <v>obj_0081a#0001</v>
       </c>
       <c r="C61" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="D61" s="130">
         <f>_xll.qlRateHelperQuoteValue($B61,Trigger)</f>
-        <v>9.1E-4</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="E61" s="118"/>
       <c r="F61" s="119" t="b">
@@ -4779,11 +4779,11 @@
       </c>
       <c r="I61" s="120">
         <f>_xll.qlRateHelperEarliestDate($B61,Trigger)</f>
-        <v>42387</v>
-      </c>
-      <c r="J61" s="121">
-        <f>_xll.qlRateHelperLatestDate($B61,Trigger)</f>
-        <v>42569</v>
+        <v>42501</v>
+      </c>
+      <c r="J61" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B61,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K61" s="7"/>
     </row>
@@ -4791,7 +4791,7 @@
       <c r="A62" s="4"/>
       <c r="B62" s="116" t="str">
         <f>FRAs!H11</f>
-        <v>obj_00892#0003</v>
+        <v>obj_00818#0001</v>
       </c>
       <c r="C62" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="D62" s="130">
         <f>_xll.qlRateHelperQuoteValue($B62,Trigger)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="E62" s="118"/>
       <c r="F62" s="119" t="b">
@@ -4813,11 +4813,11 @@
       </c>
       <c r="I62" s="120">
         <f>_xll.qlRateHelperEarliestDate($B62,Trigger)</f>
-        <v>42418</v>
-      </c>
-      <c r="J62" s="121">
-        <f>_xll.qlRateHelperLatestDate($B62,Trigger)</f>
-        <v>42600</v>
+        <v>42534</v>
+      </c>
+      <c r="J62" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B62,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K62" s="7"/>
     </row>
@@ -4825,7 +4825,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="116" t="str">
         <f>FRAs!H12</f>
-        <v>obj_0089c#0003</v>
+        <v>obj_00815#0001</v>
       </c>
       <c r="C63" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="D63" s="130">
         <f>_xll.qlRateHelperQuoteValue($B63,Trigger)</f>
-        <v>1.0400000000000001E-3</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="E63" s="118"/>
       <c r="F63" s="119" t="b">
@@ -4847,11 +4847,11 @@
       </c>
       <c r="I63" s="120">
         <f>_xll.qlRateHelperEarliestDate($B63,Trigger)</f>
-        <v>42447</v>
-      </c>
-      <c r="J63" s="121">
-        <f>_xll.qlRateHelperLatestDate($B63,Trigger)</f>
-        <v>42632</v>
+        <v>42562</v>
+      </c>
+      <c r="J63" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B63,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K63" s="7"/>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="116" t="str">
         <f>FRAs!H13</f>
-        <v>obj_00895#0003</v>
+        <v>obj_00823#0001</v>
       </c>
       <c r="C64" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D64" s="130">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>1.1099999999999999E-3</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="E64" s="118"/>
       <c r="F64" s="119" t="b">
@@ -4881,11 +4881,11 @@
       </c>
       <c r="I64" s="120">
         <f>_xll.qlRateHelperEarliestDate($B64,Trigger)</f>
-        <v>42478</v>
-      </c>
-      <c r="J64" s="121">
-        <f>_xll.qlRateHelperLatestDate($B64,Trigger)</f>
-        <v>42661</v>
+        <v>42593</v>
+      </c>
+      <c r="J64" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B64,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K64" s="7"/>
     </row>
@@ -4893,7 +4893,7 @@
       <c r="A65" s="4"/>
       <c r="B65" s="116" t="str">
         <f>FRAs!H14</f>
-        <v>obj_00891#0003</v>
+        <v>obj_00821#0001</v>
       </c>
       <c r="C65" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="D65" s="130">
         <f>_xll.qlRateHelperQuoteValue($B65,Trigger)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>7.8000000000000009E-4</v>
       </c>
       <c r="E65" s="118"/>
       <c r="F65" s="119" t="b">
@@ -4915,11 +4915,11 @@
       </c>
       <c r="I65" s="120">
         <f>_xll.qlRateHelperEarliestDate($B65,Trigger)</f>
-        <v>42508</v>
-      </c>
-      <c r="J65" s="121">
-        <f>_xll.qlRateHelperLatestDate($B65,Trigger)</f>
-        <v>42692</v>
+        <v>42625</v>
+      </c>
+      <c r="J65" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B65,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K65" s="7"/>
     </row>
@@ -4927,7 +4927,7 @@
       <c r="A66" s="4"/>
       <c r="B66" s="116" t="str">
         <f>FRAs!H15</f>
-        <v>obj_0088f#0003</v>
+        <v>obj_0081f#0001</v>
       </c>
       <c r="C66" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="D66" s="130">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>8.7999999999999992E-4</v>
       </c>
       <c r="E66" s="118"/>
       <c r="F66" s="119" t="b">
@@ -4949,11 +4949,11 @@
       </c>
       <c r="I66" s="120">
         <f>_xll.qlRateHelperEarliestDate($B66,Trigger)</f>
-        <v>42541</v>
-      </c>
-      <c r="J66" s="121">
-        <f>_xll.qlRateHelperLatestDate($B66,Trigger)</f>
-        <v>42724</v>
+        <v>42654</v>
+      </c>
+      <c r="J66" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B66,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K66" s="7"/>
     </row>
@@ -4961,7 +4961,7 @@
       <c r="A67" s="4"/>
       <c r="B67" s="116" t="str">
         <f>FRAs!H16</f>
-        <v>obj_0089a#0003</v>
+        <v>obj_0081d#0001</v>
       </c>
       <c r="C67" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="D67" s="130">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>1.3999999999999998E-3</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="E67" s="118"/>
       <c r="F67" s="119" t="b">
@@ -4983,11 +4983,11 @@
       </c>
       <c r="I67" s="120">
         <f>_xll.qlRateHelperEarliestDate($B67,Trigger)</f>
-        <v>42569</v>
-      </c>
-      <c r="J67" s="121">
-        <f>_xll.qlRateHelperLatestDate($B67,Trigger)</f>
-        <v>42753</v>
+        <v>42685</v>
+      </c>
+      <c r="J67" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B67,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K67" s="7"/>
     </row>
@@ -4995,7 +4995,7 @@
       <c r="A68" s="4"/>
       <c r="B68" s="116" t="str">
         <f>FRAs!H17</f>
-        <v>obj_00893#0003</v>
+        <v>obj_0081b#0001</v>
       </c>
       <c r="C68" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="D68" s="130">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>1.5199999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E68" s="118"/>
       <c r="F68" s="119" t="b">
@@ -5017,11 +5017,11 @@
       </c>
       <c r="I68" s="120">
         <f>_xll.qlRateHelperEarliestDate($B68,Trigger)</f>
-        <v>42600</v>
-      </c>
-      <c r="J68" s="121">
-        <f>_xll.qlRateHelperLatestDate($B68,Trigger)</f>
-        <v>42786</v>
+        <v>42716</v>
+      </c>
+      <c r="J68" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B68,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K68" s="7"/>
     </row>
@@ -5029,7 +5029,7 @@
       <c r="A69" s="4"/>
       <c r="B69" s="116" t="str">
         <f>FRAs!H18</f>
-        <v>obj_0088e#0003</v>
+        <v>obj_00819#0001</v>
       </c>
       <c r="C69" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="D69" s="130">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>1.6299999999999997E-3</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="E69" s="118"/>
       <c r="F69" s="119" t="b">
@@ -5051,11 +5051,11 @@
       </c>
       <c r="I69" s="120">
         <f>_xll.qlRateHelperEarliestDate($B69,Trigger)</f>
-        <v>42632</v>
-      </c>
-      <c r="J69" s="121">
-        <f>_xll.qlRateHelperLatestDate($B69,Trigger)</f>
-        <v>42814</v>
+        <v>42746</v>
+      </c>
+      <c r="J69" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B69,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K69" s="7"/>
     </row>
@@ -5063,7 +5063,7 @@
       <c r="A70" s="4"/>
       <c r="B70" s="116" t="str">
         <f>FRAs!H19</f>
-        <v>obj_0088c#0003</v>
+        <v>obj_00817#0001</v>
       </c>
       <c r="C70" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D70" s="130">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>1.7699999999999999E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="E70" s="118"/>
       <c r="F70" s="119" t="b">
@@ -5085,11 +5085,11 @@
       </c>
       <c r="I70" s="120">
         <f>_xll.qlRateHelperEarliestDate($B70,Trigger)</f>
-        <v>42661</v>
-      </c>
-      <c r="J70" s="121">
-        <f>_xll.qlRateHelperLatestDate($B70,Trigger)</f>
-        <v>42843</v>
+        <v>42779</v>
+      </c>
+      <c r="J70" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B70,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K70" s="7"/>
     </row>
@@ -5097,7 +5097,7 @@
       <c r="A71" s="4"/>
       <c r="B71" s="122" t="str">
         <f>FRAs!H20</f>
-        <v>obj_00898#0003</v>
+        <v>obj_00814#0001</v>
       </c>
       <c r="C71" s="123" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="D71" s="131">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>1.92E-3</v>
+        <v>1.47E-3</v>
       </c>
       <c r="E71" s="124"/>
       <c r="F71" s="125" t="b">
@@ -5119,18 +5119,18 @@
       </c>
       <c r="I71" s="126">
         <f>_xll.qlRateHelperEarliestDate($B71,Trigger)</f>
-        <v>42692</v>
-      </c>
-      <c r="J71" s="127">
-        <f>_xll.qlRateHelperLatestDate($B71,Trigger)</f>
-        <v>42873</v>
+        <v>42807</v>
+      </c>
+      <c r="J71" s="127" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B71,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K71" s="7"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B72" s="116" t="str">
         <f>Swaps!L5</f>
-        <v>obj_00856#0003</v>
+        <v>obj_00827#0001</v>
       </c>
       <c r="C72" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="D72" s="130">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>7.2000000000000005E-4</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="E72" s="118">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5155,18 +5155,18 @@
       </c>
       <c r="I72" s="120">
         <f>_xll.qlRateHelperEarliestDate($B72,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J72" s="121">
-        <f>_xll.qlRateHelperLatestDate($B72,Trigger)</f>
-        <v>42508</v>
+        <v>42258</v>
+      </c>
+      <c r="J72" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B72,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B73" s="116" t="str">
         <f>Swaps!L6</f>
-        <v>obj_0084f#0003</v>
+        <v>obj_0083b#0001</v>
       </c>
       <c r="C73" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="D73" s="130">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>6.6E-4</v>
+        <v>3.0999999999999995E-4</v>
       </c>
       <c r="E73" s="118">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5191,18 +5191,18 @@
       </c>
       <c r="I73" s="120">
         <f>_xll.qlRateHelperEarliestDate($B73,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J73" s="121">
-        <f>_xll.qlRateHelperLatestDate($B73,Trigger)</f>
-        <v>42600</v>
+        <v>42258</v>
+      </c>
+      <c r="J73" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B73,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B74" s="116" t="str">
         <f>Swaps!L7</f>
-        <v>obj_00844#0003</v>
+        <v>obj_00836#0001</v>
       </c>
       <c r="C74" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="D74" s="130">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>8.8999999999999995E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="E74" s="118">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5227,18 +5227,18 @@
       </c>
       <c r="I74" s="120">
         <f>_xll.qlRateHelperEarliestDate($B74,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J74" s="121">
-        <f>_xll.qlRateHelperLatestDate($B74,Trigger)</f>
-        <v>42692</v>
+        <v>42258</v>
+      </c>
+      <c r="J74" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B74,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B75" s="116" t="str">
         <f>Swaps!L8</f>
-        <v>obj_0082d#0003</v>
+        <v>obj_00831#0001</v>
       </c>
       <c r="C75" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="D75" s="130">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>9.2000000000000003E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="E75" s="118">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5263,18 +5263,18 @@
       </c>
       <c r="I75" s="120">
         <f>_xll.qlRateHelperEarliestDate($B75,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J75" s="121">
-        <f>_xll.qlRateHelperLatestDate($B75,Trigger)</f>
-        <v>42786</v>
+        <v>42258</v>
+      </c>
+      <c r="J75" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B75,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B76" s="116" t="str">
         <f>Swaps!L9</f>
-        <v>obj_00852#0003</v>
+        <v>obj_0082c#0001</v>
       </c>
       <c r="C76" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="D76" s="130">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>1.15E-3</v>
+        <v>7.9000000000000012E-4</v>
       </c>
       <c r="E76" s="118">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
@@ -5299,18 +5299,18 @@
       </c>
       <c r="I76" s="120">
         <f>_xll.qlRateHelperEarliestDate($B76,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J76" s="121">
-        <f>_xll.qlRateHelperLatestDate($B76,Trigger)</f>
-        <v>42873</v>
+        <v>42258</v>
+      </c>
+      <c r="J76" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B76,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B77" s="116" t="str">
         <f>Swaps!L10</f>
-        <v>obj_00851#0003</v>
+        <v>obj_0084b#0001</v>
       </c>
       <c r="C77" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="D77" s="130">
         <f>_xll.qlRateHelperQuoteValue($B77,Trigger)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>1.5399999999999997E-3</v>
       </c>
       <c r="E77" s="118">
         <f>_xll.qlSwapRateHelperSpread($B77,Trigger)</f>
@@ -5335,18 +5335,18 @@
       </c>
       <c r="I77" s="120">
         <f>_xll.qlRateHelperEarliestDate($B77,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J77" s="121">
-        <f>_xll.qlRateHelperLatestDate($B77,Trigger)</f>
-        <v>43238</v>
+        <v>42258</v>
+      </c>
+      <c r="J77" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B77,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L77" s="5"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B78" s="116" t="str">
         <f>Swaps!L11</f>
-        <v>obj_00836#0003</v>
+        <v>obj_00845#0001</v>
       </c>
       <c r="C78" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="D78" s="130">
         <f>_xll.qlRateHelperQuoteValue($B78,Trigger)</f>
-        <v>2.9800000000000004E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="E78" s="118">
         <f>_xll.qlSwapRateHelperSpread($B78,Trigger)</f>
@@ -5371,18 +5371,18 @@
       </c>
       <c r="I78" s="120">
         <f>_xll.qlRateHelperEarliestDate($B78,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J78" s="121">
-        <f>_xll.qlRateHelperLatestDate($B78,Trigger)</f>
-        <v>43605</v>
+        <v>42258</v>
+      </c>
+      <c r="J78" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B78,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B79" s="116" t="str">
         <f>Swaps!L12</f>
-        <v>obj_00850#0003</v>
+        <v>obj_00842#0001</v>
       </c>
       <c r="C79" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="D79" s="130">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>4.1700000000000001E-3</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="E79" s="118">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
@@ -5407,18 +5407,18 @@
       </c>
       <c r="I79" s="120">
         <f>_xll.qlRateHelperEarliestDate($B79,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J79" s="121">
-        <f>_xll.qlRateHelperLatestDate($B79,Trigger)</f>
-        <v>43969</v>
+        <v>42258</v>
+      </c>
+      <c r="J79" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B79,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B80" s="116" t="str">
         <f>Swaps!L13</f>
-        <v>obj_00840#0003</v>
+        <v>obj_0083f#0001</v>
       </c>
       <c r="C80" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="D80" s="130">
         <f>_xll.qlRateHelperQuoteValue($B80,Trigger)</f>
-        <v>5.45E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="E80" s="118">
         <f>_xll.qlSwapRateHelperSpread($B80,Trigger)</f>
@@ -5443,18 +5443,18 @@
       </c>
       <c r="I80" s="120">
         <f>_xll.qlRateHelperEarliestDate($B80,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J80" s="121">
-        <f>_xll.qlRateHelperLatestDate($B80,Trigger)</f>
-        <v>44334</v>
+        <v>42258</v>
+      </c>
+      <c r="J80" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B80,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="116" t="str">
         <f>Swaps!L14</f>
-        <v>obj_0084a#0003</v>
+        <v>obj_0083a#0001</v>
       </c>
       <c r="C81" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="D81" s="130">
         <f>_xll.qlRateHelperQuoteValue($B81,Trigger)</f>
-        <v>6.7300000000000007E-3</v>
+        <v>6.6500000000000005E-3</v>
       </c>
       <c r="E81" s="118">
         <f>_xll.qlSwapRateHelperSpread($B81,Trigger)</f>
@@ -5479,18 +5479,18 @@
       </c>
       <c r="I81" s="120">
         <f>_xll.qlRateHelperEarliestDate($B81,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J81" s="121">
-        <f>_xll.qlRateHelperLatestDate($B81,Trigger)</f>
-        <v>44699</v>
+        <v>42258</v>
+      </c>
+      <c r="J81" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B81,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="116" t="str">
         <f>Swaps!L15</f>
-        <v>obj_00847#0003</v>
+        <v>obj_00835#0001</v>
       </c>
       <c r="C82" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="D82" s="130">
         <f>_xll.qlRateHelperQuoteValue($B82,Trigger)</f>
-        <v>7.9099999999999986E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E82" s="118">
         <f>_xll.qlSwapRateHelperSpread($B82,Trigger)</f>
@@ -5515,18 +5515,18 @@
       </c>
       <c r="I82" s="120">
         <f>_xll.qlRateHelperEarliestDate($B82,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J82" s="121">
-        <f>_xll.qlRateHelperLatestDate($B82,Trigger)</f>
-        <v>45064</v>
+        <v>42258</v>
+      </c>
+      <c r="J82" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B82,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="116" t="str">
         <f>Swaps!L16</f>
-        <v>obj_00834#0003</v>
+        <v>obj_00830#0001</v>
       </c>
       <c r="C83" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="D83" s="130">
         <f>_xll.qlRateHelperQuoteValue($B83,Trigger)</f>
-        <v>8.9499999999999996E-3</v>
+        <v>9.2500000000000013E-3</v>
       </c>
       <c r="E83" s="118">
         <f>_xll.qlSwapRateHelperSpread($B83,Trigger)</f>
@@ -5551,18 +5551,18 @@
       </c>
       <c r="I83" s="120">
         <f>_xll.qlRateHelperEarliestDate($B83,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J83" s="121">
-        <f>_xll.qlRateHelperLatestDate($B83,Trigger)</f>
-        <v>45432</v>
+        <v>42258</v>
+      </c>
+      <c r="J83" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B83,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="116" t="str">
         <f>Swaps!L17</f>
-        <v>obj_0084d#0003</v>
+        <v>obj_0082b#0001</v>
       </c>
       <c r="C84" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="D84" s="130">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>9.8200000000000006E-3</v>
+        <v>1.034E-2</v>
       </c>
       <c r="E84" s="118">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
@@ -5587,18 +5587,18 @@
       </c>
       <c r="I84" s="120">
         <f>_xll.qlRateHelperEarliestDate($B84,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J84" s="121">
-        <f>_xll.qlRateHelperLatestDate($B84,Trigger)</f>
-        <v>45796</v>
+        <v>42258</v>
+      </c>
+      <c r="J84" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B84,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L84" s="5"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="116" t="str">
         <f>Swaps!L18</f>
-        <v>obj_0084c#0003</v>
+        <v>obj_00847#0001</v>
       </c>
       <c r="C85" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="D85" s="130">
         <f>_xll.qlRateHelperQuoteValue($B85,Trigger)</f>
-        <v>1.057E-2</v>
+        <v>1.1310000000000001E-2</v>
       </c>
       <c r="E85" s="118">
         <f>_xll.qlSwapRateHelperSpread($B85,Trigger)</f>
@@ -5623,18 +5623,18 @@
       </c>
       <c r="I85" s="120">
         <f>_xll.qlRateHelperEarliestDate($B85,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J85" s="121">
-        <f>_xll.qlRateHelperLatestDate($B85,Trigger)</f>
-        <v>46160</v>
+        <v>42258</v>
+      </c>
+      <c r="J85" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B85,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L85" s="5"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="116" t="str">
         <f>Swaps!L19</f>
-        <v>obj_00843#0003</v>
+        <v>obj_00849#0001</v>
       </c>
       <c r="C86" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="D86" s="130">
         <f>_xll.qlRateHelperQuoteValue($B86,Trigger)</f>
-        <v>1.1240000000000002E-2</v>
+        <v>1.2159999999999999E-2</v>
       </c>
       <c r="E86" s="118">
         <f>_xll.qlSwapRateHelperSpread($B86,Trigger)</f>
@@ -5659,18 +5659,18 @@
       </c>
       <c r="I86" s="120">
         <f>_xll.qlRateHelperEarliestDate($B86,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J86" s="121">
-        <f>_xll.qlRateHelperLatestDate($B86,Trigger)</f>
-        <v>46525</v>
+        <v>42258</v>
+      </c>
+      <c r="J86" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B86,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="116" t="str">
         <f>Swaps!L20</f>
-        <v>obj_0084b#0003</v>
+        <v>obj_00841#0001</v>
       </c>
       <c r="C87" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="D87" s="130">
         <f>_xll.qlRateHelperQuoteValue($B87,Trigger)</f>
-        <v>1.1779999999999999E-2</v>
+        <v>1.2880000000000001E-2</v>
       </c>
       <c r="E87" s="118">
         <f>_xll.qlSwapRateHelperSpread($B87,Trigger)</f>
@@ -5695,18 +5695,18 @@
       </c>
       <c r="I87" s="120">
         <f>_xll.qlRateHelperEarliestDate($B87,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J87" s="121">
-        <f>_xll.qlRateHelperLatestDate($B87,Trigger)</f>
-        <v>46891</v>
+        <v>42258</v>
+      </c>
+      <c r="J87" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B87,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="116" t="str">
         <f>Swaps!L21</f>
-        <v>obj_00839#0003</v>
+        <v>obj_0083e#0001</v>
       </c>
       <c r="C88" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="D88" s="130">
         <f>_xll.qlRateHelperQuoteValue($B88,Trigger)</f>
-        <v>1.225E-2</v>
+        <v>1.3500000000000002E-2</v>
       </c>
       <c r="E88" s="118">
         <f>_xll.qlSwapRateHelperSpread($B88,Trigger)</f>
@@ -5731,18 +5731,18 @@
       </c>
       <c r="I88" s="120">
         <f>_xll.qlRateHelperEarliestDate($B88,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J88" s="121">
-        <f>_xll.qlRateHelperLatestDate($B88,Trigger)</f>
-        <v>47256</v>
+        <v>42258</v>
+      </c>
+      <c r="J88" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B88,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="116" t="str">
         <f>Swaps!L22</f>
-        <v>obj_0082c#0003</v>
+        <v>obj_00839#0001</v>
       </c>
       <c r="C89" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="D89" s="130">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>1.2659999999999999E-2</v>
+        <v>1.4020000000000001E-2</v>
       </c>
       <c r="E89" s="118">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
@@ -5767,18 +5767,18 @@
       </c>
       <c r="I89" s="120">
         <f>_xll.qlRateHelperEarliestDate($B89,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J89" s="121">
-        <f>_xll.qlRateHelperLatestDate($B89,Trigger)</f>
-        <v>47623</v>
+        <v>42258</v>
+      </c>
+      <c r="J89" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B89,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="116" t="str">
         <f>Swaps!L23</f>
-        <v>obj_00853#0003</v>
+        <v>obj_00834#0001</v>
       </c>
       <c r="C90" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="D90" s="130">
         <f>_xll.qlRateHelperQuoteValue($B90,Trigger)</f>
-        <v>1.299E-2</v>
+        <v>1.4459999999999999E-2</v>
       </c>
       <c r="E90" s="118">
         <f>_xll.qlSwapRateHelperSpread($B90,Trigger)</f>
@@ -5803,18 +5803,18 @@
       </c>
       <c r="I90" s="120">
         <f>_xll.qlRateHelperEarliestDate($B90,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J90" s="121">
-        <f>_xll.qlRateHelperLatestDate($B90,Trigger)</f>
-        <v>47987</v>
+        <v>42258</v>
+      </c>
+      <c r="J90" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B90,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L90" s="5"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="116" t="str">
         <f>Swaps!L24</f>
-        <v>obj_00841#0003</v>
+        <v>obj_0082f#0001</v>
       </c>
       <c r="C91" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="D91" s="130">
         <f>_xll.qlRateHelperQuoteValue($B91,Trigger)</f>
-        <v>1.3269999999999999E-2</v>
+        <v>1.482E-2</v>
       </c>
       <c r="E91" s="118">
         <f>_xll.qlSwapRateHelperSpread($B91,Trigger)</f>
@@ -5839,18 +5839,18 @@
       </c>
       <c r="I91" s="120">
         <f>_xll.qlRateHelperEarliestDate($B91,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J91" s="121">
-        <f>_xll.qlRateHelperLatestDate($B91,Trigger)</f>
-        <v>48352</v>
+        <v>42258</v>
+      </c>
+      <c r="J91" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B91,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L91" s="5"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="116" t="str">
         <f>Swaps!L25</f>
-        <v>obj_00848#0003</v>
+        <v>obj_0082a#0001</v>
       </c>
       <c r="C92" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="D92" s="130">
         <f>_xll.qlRateHelperQuoteValue($B92,Trigger)</f>
-        <v>1.349E-2</v>
+        <v>1.5110000000000002E-2</v>
       </c>
       <c r="E92" s="118">
         <f>_xll.qlSwapRateHelperSpread($B92,Trigger)</f>
@@ -5875,18 +5875,18 @@
       </c>
       <c r="I92" s="120">
         <f>_xll.qlRateHelperEarliestDate($B92,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J92" s="121">
-        <f>_xll.qlRateHelperLatestDate($B92,Trigger)</f>
-        <v>48717</v>
+        <v>42258</v>
+      </c>
+      <c r="J92" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B92,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L92" s="5"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="116" t="str">
         <f>Swaps!L26</f>
-        <v>obj_0082a#0003</v>
+        <v>obj_0084a#0001</v>
       </c>
       <c r="C93" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="D93" s="130">
         <f>_xll.qlRateHelperQuoteValue($B93,Trigger)</f>
-        <v>1.367E-2</v>
+        <v>1.533E-2</v>
       </c>
       <c r="E93" s="118">
         <f>_xll.qlSwapRateHelperSpread($B93,Trigger)</f>
@@ -5911,18 +5911,18 @@
       </c>
       <c r="I93" s="120">
         <f>_xll.qlRateHelperEarliestDate($B93,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J93" s="121">
-        <f>_xll.qlRateHelperLatestDate($B93,Trigger)</f>
-        <v>49082</v>
+        <v>42258</v>
+      </c>
+      <c r="J93" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B93,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L93" s="5"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="116" t="str">
         <f>Swaps!L27</f>
-        <v>obj_00846#0003</v>
+        <v>obj_00844#0001</v>
       </c>
       <c r="C94" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="D94" s="130">
         <f>_xll.qlRateHelperQuoteValue($B94,Trigger)</f>
-        <v>1.3809999999999999E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="E94" s="118">
         <f>_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
@@ -5947,18 +5947,18 @@
       </c>
       <c r="I94" s="120">
         <f>_xll.qlRateHelperEarliestDate($B94,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J94" s="121">
-        <f>_xll.qlRateHelperLatestDate($B94,Trigger)</f>
-        <v>49447</v>
+        <v>42258</v>
+      </c>
+      <c r="J94" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B94,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="116" t="str">
         <f>Swaps!L28</f>
-        <v>obj_0082b#0003</v>
+        <v>obj_00840#0001</v>
       </c>
       <c r="C95" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="D95" s="130">
         <f>_xll.qlRateHelperQuoteValue($B95,Trigger)</f>
-        <v>1.3919999999999998E-2</v>
+        <v>1.5640000000000001E-2</v>
       </c>
       <c r="E95" s="118">
         <f>_xll.qlSwapRateHelperSpread($B95,Trigger)</f>
@@ -5983,18 +5983,18 @@
       </c>
       <c r="I95" s="120">
         <f>_xll.qlRateHelperEarliestDate($B95,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J95" s="121">
-        <f>_xll.qlRateHelperLatestDate($B95,Trigger)</f>
-        <v>49814</v>
+        <v>42258</v>
+      </c>
+      <c r="J95" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B95,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L95" s="5"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="116" t="str">
         <f>Swaps!L29</f>
-        <v>obj_0083c#0003</v>
+        <v>obj_0083d#0001</v>
       </c>
       <c r="C96" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="D96" s="130">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>1.3990000000000001E-2</v>
+        <v>1.5730000000000001E-2</v>
       </c>
       <c r="E96" s="118">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -6019,18 +6019,18 @@
       </c>
       <c r="I96" s="120">
         <f>_xll.qlRateHelperEarliestDate($B96,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J96" s="121">
-        <f>_xll.qlRateHelperLatestDate($B96,Trigger)</f>
-        <v>50178</v>
+        <v>42258</v>
+      </c>
+      <c r="J96" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B96,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="116" t="str">
         <f>Swaps!L30</f>
-        <v>obj_00833#0003</v>
+        <v>obj_00838#0001</v>
       </c>
       <c r="C97" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="D97" s="130">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>1.405E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="E97" s="118">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
@@ -6055,18 +6055,18 @@
       </c>
       <c r="I97" s="120">
         <f>_xll.qlRateHelperEarliestDate($B97,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J97" s="121">
-        <f>_xll.qlRateHelperLatestDate($B97,Trigger)</f>
-        <v>50543</v>
+        <v>42258</v>
+      </c>
+      <c r="J97" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B97,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L97" s="5"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="116" t="str">
         <f>Swaps!L31</f>
-        <v>obj_0084e#0003</v>
+        <v>obj_00833#0001</v>
       </c>
       <c r="C98" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B98)</f>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="D98" s="130">
         <f>_xll.qlRateHelperQuoteValue($B98,Trigger)</f>
-        <v>1.4100000000000001E-2</v>
+        <v>1.584E-2</v>
       </c>
       <c r="E98" s="118">
         <f>_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
@@ -6091,18 +6091,18 @@
       </c>
       <c r="I98" s="120">
         <f>_xll.qlRateHelperEarliestDate($B98,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J98" s="121">
-        <f>_xll.qlRateHelperLatestDate($B98,Trigger)</f>
-        <v>50908</v>
+        <v>42258</v>
+      </c>
+      <c r="J98" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B98,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L98" s="5"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="116" t="str">
         <f>Swaps!L32</f>
-        <v>obj_0083a#0003</v>
+        <v>obj_0082e#0001</v>
       </c>
       <c r="C99" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B99)</f>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="D99" s="130">
         <f>_xll.qlRateHelperQuoteValue($B99,Trigger)</f>
-        <v>1.4140000000000002E-2</v>
+        <v>1.5869999999999999E-2</v>
       </c>
       <c r="E99" s="118">
         <f>_xll.qlSwapRateHelperSpread($B99,Trigger)</f>
@@ -6127,18 +6127,18 @@
       </c>
       <c r="I99" s="120">
         <f>_xll.qlRateHelperEarliestDate($B99,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J99" s="121">
-        <f>_xll.qlRateHelperLatestDate($B99,Trigger)</f>
-        <v>51274</v>
+        <v>42258</v>
+      </c>
+      <c r="J99" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B99,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L99" s="5"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="116" t="str">
         <f>Swaps!L33</f>
-        <v>obj_0082e#0003</v>
+        <v>obj_00829#0001</v>
       </c>
       <c r="C100" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B100)</f>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="D100" s="130">
         <f>_xll.qlRateHelperQuoteValue($B100,Trigger)</f>
-        <v>1.4180000000000002E-2</v>
+        <v>1.5890000000000001E-2</v>
       </c>
       <c r="E100" s="118">
         <f>_xll.qlSwapRateHelperSpread($B100,Trigger)</f>
@@ -6163,18 +6163,18 @@
       </c>
       <c r="I100" s="120">
         <f>_xll.qlRateHelperEarliestDate($B100,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J100" s="121">
-        <f>_xll.qlRateHelperLatestDate($B100,Trigger)</f>
-        <v>51641</v>
+        <v>42258</v>
+      </c>
+      <c r="J100" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B100,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L100" s="5"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="116" t="str">
         <f>Swaps!L34</f>
-        <v>obj_00831#0003</v>
+        <v>obj_00846#0001</v>
       </c>
       <c r="C101" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B101)</f>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="D101" s="130">
         <f>_xll.qlRateHelperQuoteValue($B101,Trigger)</f>
-        <v>1.423E-2</v>
+        <v>1.592E-2</v>
       </c>
       <c r="E101" s="118">
         <f>_xll.qlSwapRateHelperSpread($B101,Trigger)</f>
@@ -6199,18 +6199,18 @@
       </c>
       <c r="I101" s="120">
         <f>_xll.qlRateHelperEarliestDate($B101,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J101" s="121">
-        <f>_xll.qlRateHelperLatestDate($B101,Trigger)</f>
-        <v>52005</v>
+        <v>42258</v>
+      </c>
+      <c r="J101" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B101,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L101" s="5"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="116" t="str">
         <f>Swaps!L35</f>
-        <v>obj_00855#0003</v>
+        <v>obj_00843#0001</v>
       </c>
       <c r="C102" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B102)</f>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="D102" s="130">
         <f>_xll.qlRateHelperQuoteValue($B102,Trigger)</f>
-        <v>1.427E-2</v>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="E102" s="118">
         <f>_xll.qlSwapRateHelperSpread($B102,Trigger)</f>
@@ -6235,18 +6235,18 @@
       </c>
       <c r="I102" s="120">
         <f>_xll.qlRateHelperEarliestDate($B102,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J102" s="121">
-        <f>_xll.qlRateHelperLatestDate($B102,Trigger)</f>
-        <v>52369</v>
+        <v>42258</v>
+      </c>
+      <c r="J102" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B102,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="116" t="str">
         <f>Swaps!L36</f>
-        <v>obj_00832#0003</v>
+        <v>obj_00848#0001</v>
       </c>
       <c r="C103" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B103)</f>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="D103" s="130">
         <f>_xll.qlRateHelperQuoteValue($B103,Trigger)</f>
-        <v>1.431E-2</v>
+        <v>1.5960000000000002E-2</v>
       </c>
       <c r="E103" s="118">
         <f>_xll.qlSwapRateHelperSpread($B103,Trigger)</f>
@@ -6271,18 +6271,18 @@
       </c>
       <c r="I103" s="120">
         <f>_xll.qlRateHelperEarliestDate($B103,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J103" s="121">
-        <f>_xll.qlRateHelperLatestDate($B103,Trigger)</f>
-        <v>52735</v>
+        <v>42258</v>
+      </c>
+      <c r="J103" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B103,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L103" s="5"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="116" t="str">
         <f>Swaps!L37</f>
-        <v>obj_00854#0003</v>
+        <v>obj_0083c#0001</v>
       </c>
       <c r="C104" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B104)</f>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="D104" s="130">
         <f>_xll.qlRateHelperQuoteValue($B104,Trigger)</f>
-        <v>1.4339999999999999E-2</v>
+        <v>1.5979999999999998E-2</v>
       </c>
       <c r="E104" s="118">
         <f>_xll.qlSwapRateHelperSpread($B104,Trigger)</f>
@@ -6307,18 +6307,18 @@
       </c>
       <c r="I104" s="120">
         <f>_xll.qlRateHelperEarliestDate($B104,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J104" s="121">
-        <f>_xll.qlRateHelperLatestDate($B104,Trigger)</f>
-        <v>53100</v>
+        <v>42258</v>
+      </c>
+      <c r="J104" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B104,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L104" s="5"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="116" t="str">
         <f>Swaps!L38</f>
-        <v>obj_00837#0003</v>
+        <v>obj_00837#0001</v>
       </c>
       <c r="C105" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B105)</f>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="D105" s="130">
         <f>_xll.qlRateHelperQuoteValue($B105,Trigger)</f>
-        <v>1.4419999999999999E-2</v>
+        <v>1.609E-2</v>
       </c>
       <c r="E105" s="118">
         <f>_xll.qlSwapRateHelperSpread($B105,Trigger)</f>
@@ -6343,18 +6343,18 @@
       </c>
       <c r="I105" s="120">
         <f>_xll.qlRateHelperEarliestDate($B105,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J105" s="121">
-        <f>_xll.qlRateHelperLatestDate($B105,Trigger)</f>
-        <v>54926</v>
+        <v>42258</v>
+      </c>
+      <c r="J105" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B105,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L105" s="5"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="116" t="str">
         <f>Swaps!L39</f>
-        <v>obj_00849#0003</v>
+        <v>obj_00832#0001</v>
       </c>
       <c r="C106" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B106)</f>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="D106" s="130">
         <f>_xll.qlRateHelperQuoteValue($B106,Trigger)</f>
-        <v>1.439E-2</v>
+        <v>1.6120000000000002E-2</v>
       </c>
       <c r="E106" s="118">
         <f>_xll.qlSwapRateHelperSpread($B106,Trigger)</f>
@@ -6379,18 +6379,18 @@
       </c>
       <c r="I106" s="120">
         <f>_xll.qlRateHelperEarliestDate($B106,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J106" s="121">
-        <f>_xll.qlRateHelperLatestDate($B106,Trigger)</f>
-        <v>56752</v>
+        <v>42258</v>
+      </c>
+      <c r="J106" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B106,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L106" s="5"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" s="116" t="str">
         <f>Swaps!L40</f>
-        <v>obj_0083d#0003</v>
+        <v>obj_0082d#0001</v>
       </c>
       <c r="C107" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(B107)</f>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="D107" s="130">
         <f>_xll.qlRateHelperQuoteValue($B107,Trigger)</f>
-        <v>1.391E-2</v>
+        <v>1.575E-2</v>
       </c>
       <c r="E107" s="118">
         <f>_xll.qlSwapRateHelperSpread($B107,Trigger)</f>
@@ -6415,18 +6415,18 @@
       </c>
       <c r="I107" s="120">
         <f>_xll.qlRateHelperEarliestDate($B107,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J107" s="121">
-        <f>_xll.qlRateHelperLatestDate($B107,Trigger)</f>
-        <v>60405</v>
+        <v>42258</v>
+      </c>
+      <c r="J107" s="121" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B107,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L107" s="5"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="122" t="str">
         <f>Swaps!L41</f>
-        <v>obj_0083f#0003</v>
+        <v>obj_00828#0001</v>
       </c>
       <c r="C108" s="123" t="str">
         <f>_xll.qlRateHelperQuoteName(B108)</f>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="D108" s="131">
         <f>_xll.qlRateHelperQuoteValue($B108,Trigger)</f>
-        <v>1.376E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="E108" s="124">
         <f>_xll.qlSwapRateHelperSpread($B108,Trigger)</f>
@@ -6451,11 +6451,11 @@
       </c>
       <c r="I108" s="126">
         <f>_xll.qlRateHelperEarliestDate($B108,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="J108" s="127">
-        <f>_xll.qlRateHelperLatestDate($B108,Trigger)</f>
-        <v>64059</v>
+        <v>42258</v>
+      </c>
+      <c r="J108" s="127" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($B108,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L108" s="5"/>
     </row>
@@ -6472,7 +6472,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -6495,10 +6495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="231" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="232"/>
       <c r="D1" s="109" t="s">
         <v>50</v>
       </c>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="J1" s="5">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>-1.0138902970521684E-3</v>
+        <v>-1.318057935357494E-3</v>
       </c>
       <c r="L1" s="61"/>
       <c r="M1" s="62"/>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D2" s="18" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0085f</v>
+        <v>obj_00560</v>
       </c>
       <c r="E2" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="F2" s="17">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="G2" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -6557,14 +6557,14 @@
       </c>
       <c r="H2" s="16">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42138</v>
-      </c>
-      <c r="I2" s="15">
-        <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42139</v>
+        <v>42256</v>
+      </c>
+      <c r="I2" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="5">
-        <v>-1.0138902970521684E-3</v>
+        <v>-1.318057935357494E-3</v>
       </c>
       <c r="L2" s="61"/>
       <c r="M2" s="62"/>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="18" t="str">
-        <v>obj_0082f</v>
+        <v>obj_00825</v>
       </c>
       <c r="E3" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="F3" s="17">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="G3" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6603,14 +6603,14 @@
       </c>
       <c r="H3" s="16">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>42139</v>
-      </c>
-      <c r="I3" s="15">
-        <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42142</v>
+        <v>42257</v>
+      </c>
+      <c r="I3" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J3" s="5">
-        <v>-1.0138924093492942E-3</v>
+        <v>-1.3180579353314684E-3</v>
       </c>
       <c r="L3" s="61"/>
       <c r="M3" s="62"/>
@@ -6633,7 +6633,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="18" t="str">
-        <v>obj_0083b</v>
+        <v>obj_00826</v>
       </c>
       <c r="E4" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="F4" s="17">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="G4" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -6649,14 +6649,14 @@
       </c>
       <c r="H4" s="16">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>42142</v>
-      </c>
-      <c r="I4" s="15">
-        <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42143</v>
+        <v>42258</v>
+      </c>
+      <c r="I4" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J4" s="5">
-        <v>-1.0138919868919369E-3</v>
+        <v>-1.318060791188344E-3</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="62"/>
@@ -6679,7 +6679,7 @@
         <v>123</v>
       </c>
       <c r="D5" s="18" t="str">
-        <v>obj_0083e</v>
+        <v>obj_00558</v>
       </c>
       <c r="E5" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="F5" s="17">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>-1.1100000000000001E-3</v>
+        <v>-1.49E-3</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6695,14 +6695,14 @@
       </c>
       <c r="H5" s="16">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>42142</v>
-      </c>
-      <c r="I5" s="15">
-        <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42149</v>
+        <v>42258</v>
+      </c>
+      <c r="I5" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J5" s="5">
-        <v>-1.084870120100389E-3</v>
+        <v>-1.4679033525965117E-3</v>
       </c>
       <c r="L5" s="61"/>
       <c r="M5" s="62"/>
@@ -6726,7 +6726,7 @@
         <v/>
       </c>
       <c r="D6" s="18" t="str">
-        <v>obj_00823</v>
+        <v>obj_00557</v>
       </c>
       <c r="E6" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="F6" s="17">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>-1.0400000000000001E-3</v>
       </c>
       <c r="G6" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6742,14 +6742,14 @@
       </c>
       <c r="H6" s="16">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>42142</v>
-      </c>
-      <c r="I6" s="15">
-        <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42173</v>
+        <v>42258</v>
+      </c>
+      <c r="I6" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J6" s="5">
-        <v>-5.4692994582133437E-4</v>
+        <v>-1.0704653764230438E-3</v>
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="62"/>
@@ -6768,7 +6768,7 @@
       <c r="A7" s="62"/>
       <c r="B7" s="62"/>
       <c r="D7" s="18" t="str">
-        <v>obj_00835</v>
+        <v>obj_00556</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="F7" s="17">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>-2.7999999999999998E-4</v>
+        <v>-6.3000000000000003E-4</v>
       </c>
       <c r="G7" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6784,14 +6784,14 @@
       </c>
       <c r="H7" s="16">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42142</v>
-      </c>
-      <c r="I7" s="15">
-        <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42205</v>
+        <v>42258</v>
+      </c>
+      <c r="I7" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J7" s="5">
-        <v>-3.274777288688185E-4</v>
+        <v>-6.6034834458440523E-4</v>
       </c>
       <c r="L7" s="61"/>
       <c r="M7" s="62"/>
@@ -6810,7 +6810,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="62"/>
       <c r="D8" s="18" t="str">
-        <v>obj_00838</v>
+        <v>obj_0055c</v>
       </c>
       <c r="E8" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="F8" s="17">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>-8.9999999999999992E-5</v>
+        <v>-3.4999999999999994E-4</v>
       </c>
       <c r="G8" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6826,14 +6826,14 @@
       </c>
       <c r="H8" s="16">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42142</v>
-      </c>
-      <c r="I8" s="15">
-        <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42234</v>
+        <v>42258</v>
+      </c>
+      <c r="I8" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J8" s="5">
-        <v>-1.2969443941065537E-4</v>
+        <v>-3.7559038230673632E-4</v>
       </c>
       <c r="L8" s="61"/>
       <c r="M8" s="62"/>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D9" s="18" t="str">
-        <v>obj_00858</v>
+        <v>obj_0055f</v>
       </c>
       <c r="E9" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6866,14 +6866,14 @@
       </c>
       <c r="H9" s="16">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42142</v>
-      </c>
-      <c r="I9" s="15">
-        <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42265</v>
+        <v>42258</v>
+      </c>
+      <c r="I9" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J9" s="5">
-        <v>-3.1933619191908576E-5</v>
+        <v>-2.1258998957100371E-5</v>
       </c>
       <c r="L9" s="61"/>
       <c r="M9" s="62"/>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D10" s="18" t="str">
-        <v>obj_0085c</v>
+        <v>obj_0055e</v>
       </c>
       <c r="E10" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6906,14 +6906,14 @@
       </c>
       <c r="H10" s="16">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42142</v>
-      </c>
-      <c r="I10" s="15">
-        <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42296</v>
+        <v>42258</v>
+      </c>
+      <c r="I10" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J10" s="5">
-        <v>-2.5668162262044223E-5</v>
+        <v>-1.7007199165546734E-5</v>
       </c>
       <c r="L10" s="61"/>
       <c r="M10" s="62"/>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D11" s="18" t="str">
-        <v>obj_00825</v>
+        <v>obj_00559</v>
       </c>
       <c r="E11" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="F11" s="17">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.9999999999999995E-4</v>
+        <v>3.7999999999999997E-4</v>
       </c>
       <c r="G11" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6946,14 +6946,14 @@
       </c>
       <c r="H11" s="16">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42142</v>
-      </c>
-      <c r="I11" s="15">
-        <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42326</v>
+        <v>42258</v>
+      </c>
+      <c r="I11" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J11" s="5">
-        <v>5.737266172847462E-4</v>
+        <v>3.6672665798021155E-4</v>
       </c>
       <c r="L11" s="61"/>
       <c r="M11" s="62"/>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D12" s="18" t="str">
-        <v>obj_0088d</v>
+        <v>obj_0081e</v>
       </c>
       <c r="E12" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="F12" s="17">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>8.1000000000000006E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="G12" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6986,14 +6986,14 @@
       </c>
       <c r="H12" s="16">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42326</v>
-      </c>
-      <c r="I12" s="15">
-        <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42508</v>
+        <v>42440</v>
+      </c>
+      <c r="I12" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J12" s="5">
-        <v>6.953986727865415E-4</v>
+        <v>4.0141912262894668E-4</v>
       </c>
       <c r="L12" s="61"/>
       <c r="M12" s="62"/>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D13" s="18" t="str">
-        <v>obj_00897</v>
+        <v>obj_0081c</v>
       </c>
       <c r="E13" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="F13" s="17">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>8.6000000000000009E-4</v>
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="G13" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -7026,14 +7026,14 @@
       </c>
       <c r="H13" s="16">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42356</v>
-      </c>
-      <c r="I13" s="15">
-        <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42541</v>
+        <v>42471</v>
+      </c>
+      <c r="I13" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J13" s="5">
-        <v>7.2138625802934178E-4</v>
+        <v>4.1566655102813065E-4</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="62"/>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D14" s="18" t="str">
-        <v>obj_00899</v>
+        <v>obj_0081a</v>
       </c>
       <c r="E14" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="F14" s="17">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>9.1E-4</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="G14" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -7066,14 +7066,14 @@
       </c>
       <c r="H14" s="16">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42387</v>
-      </c>
-      <c r="I14" s="15">
-        <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42569</v>
+        <v>42501</v>
+      </c>
+      <c r="I14" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J14" s="5">
-        <v>7.4453331668790216E-4</v>
+        <v>4.3771924221042445E-4</v>
       </c>
       <c r="L14" s="61"/>
       <c r="M14" s="62"/>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D15" s="18" t="str">
-        <v>obj_00892</v>
+        <v>obj_00818</v>
       </c>
       <c r="E15" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="F15" s="17">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="G15" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -7106,14 +7106,14 @@
       </c>
       <c r="H15" s="16">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42418</v>
-      </c>
-      <c r="I15" s="15">
-        <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42600</v>
+        <v>42534</v>
+      </c>
+      <c r="I15" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J15" s="5">
-        <v>7.7232207650342771E-4</v>
+        <v>4.5207598575509937E-4</v>
       </c>
       <c r="L15" s="61"/>
       <c r="M15" s="62"/>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="18" t="str">
-        <v>obj_0089c</v>
+        <v>obj_00815</v>
       </c>
       <c r="E16" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="F16" s="17">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.0400000000000001E-3</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="G16" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -7146,14 +7146,14 @@
       </c>
       <c r="H16" s="16">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42447</v>
-      </c>
-      <c r="I16" s="15">
-        <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42632</v>
+        <v>42562</v>
+      </c>
+      <c r="I16" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J16" s="5">
-        <v>8.0424539062395601E-4</v>
+        <v>4.8312283859592767E-4</v>
       </c>
       <c r="L16" s="61"/>
       <c r="M16" s="62"/>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="17" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D17" s="18" t="str">
-        <v>obj_00895</v>
+        <v>obj_00823</v>
       </c>
       <c r="E17" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="F17" s="17">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.1099999999999999E-3</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="G17" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -7186,14 +7186,14 @@
       </c>
       <c r="H17" s="16">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42478</v>
-      </c>
-      <c r="I17" s="15">
-        <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42661</v>
+        <v>42593</v>
+      </c>
+      <c r="I17" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J17" s="5">
-        <v>8.3271459502455309E-4</v>
+        <v>5.0715185947934518E-4</v>
       </c>
       <c r="L17" s="132"/>
       <c r="M17" s="62"/>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="18" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D18" s="18" t="str">
-        <v>obj_00891</v>
+        <v>obj_00821</v>
       </c>
       <c r="E18" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="F18" s="17">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>7.8000000000000009E-4</v>
       </c>
       <c r="G18" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -7226,14 +7226,14 @@
       </c>
       <c r="H18" s="16">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42508</v>
-      </c>
-      <c r="I18" s="15">
-        <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42692</v>
+        <v>42625</v>
+      </c>
+      <c r="I18" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D18)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J18" s="5">
-        <v>8.6840352204252944E-4</v>
+        <v>5.2999446796365382E-4</v>
       </c>
       <c r="L18" s="132"/>
       <c r="M18" s="62"/>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D19" s="18" t="str">
-        <v>obj_00893</v>
+        <v>obj_0081b</v>
       </c>
       <c r="E19" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="F19" s="17">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.5199999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="G19" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -7266,14 +7266,14 @@
       </c>
       <c r="H19" s="16">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42600</v>
-      </c>
-      <c r="I19" s="15">
-        <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42786</v>
+        <v>42716</v>
+      </c>
+      <c r="I19" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D19)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J19" s="5">
-        <v>9.9281939554692077E-4</v>
+        <v>6.3999858262828136E-4</v>
       </c>
       <c r="L19" s="132"/>
       <c r="M19" s="62"/>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="20" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D20" s="18" t="str">
-        <v>obj_00852</v>
+        <v>obj_0082c</v>
       </c>
       <c r="E20" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="F20" s="17">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.15E-3</v>
+        <v>7.9000000000000012E-4</v>
       </c>
       <c r="G20" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -7306,14 +7306,14 @@
       </c>
       <c r="H20" s="16">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42142</v>
-      </c>
-      <c r="I20" s="15">
-        <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42873</v>
+        <v>42258</v>
+      </c>
+      <c r="I20" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D20)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J20" s="5">
-        <v>1.1362503487600908E-3</v>
+        <v>7.8300923409404003E-4</v>
       </c>
       <c r="L20" s="61"/>
       <c r="M20" s="62"/>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="21" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D21" s="18" t="str">
-        <v>obj_00851</v>
+        <v>obj_0084b</v>
       </c>
       <c r="E21" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="F21" s="17">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>1.5399999999999997E-3</v>
       </c>
       <c r="G21" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -7346,14 +7346,14 @@
       </c>
       <c r="H21" s="16">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42142</v>
-      </c>
-      <c r="I21" s="15">
-        <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43238</v>
+        <v>42258</v>
+      </c>
+      <c r="I21" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D21)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J21" s="5">
-        <v>1.9373927588527307E-3</v>
+        <v>1.5335567883830979E-3</v>
       </c>
       <c r="L21" s="61"/>
       <c r="M21" s="62"/>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="22" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D22" s="18" t="str">
-        <v>obj_00836</v>
+        <v>obj_00845</v>
       </c>
       <c r="E22" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="F22" s="17">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.9800000000000004E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="G22" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -7386,14 +7386,14 @@
       </c>
       <c r="H22" s="16">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42142</v>
-      </c>
-      <c r="I22" s="15">
-        <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43605</v>
+        <v>42258</v>
+      </c>
+      <c r="I22" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D22)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J22" s="5">
-        <v>2.9694055109226961E-3</v>
+        <v>2.6053556658438546E-3</v>
       </c>
       <c r="L22" s="61"/>
       <c r="M22" s="62"/>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="23" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D23" s="18" t="str">
-        <v>obj_00850</v>
+        <v>obj_00842</v>
       </c>
       <c r="E23" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="F23" s="17">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>4.1700000000000001E-3</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="G23" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7426,14 +7426,14 @@
       </c>
       <c r="H23" s="16">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42142</v>
-      </c>
-      <c r="I23" s="15">
-        <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43969</v>
+        <v>42258</v>
+      </c>
+      <c r="I23" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D23)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J23" s="5">
-        <v>4.1629617051313194E-3</v>
+        <v>3.8593737623441307E-3</v>
       </c>
       <c r="L23" s="61"/>
       <c r="M23" s="62"/>
@@ -7450,7 +7450,7 @@
     </row>
     <row r="24" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D24" s="18" t="str">
-        <v>obj_00840</v>
+        <v>obj_0083f</v>
       </c>
       <c r="E24" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="F24" s="17">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>5.45E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="G24" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7466,14 +7466,14 @@
       </c>
       <c r="H24" s="16">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42142</v>
-      </c>
-      <c r="I24" s="15">
-        <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44334</v>
+        <v>42258</v>
+      </c>
+      <c r="I24" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D24)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J24" s="5">
-        <v>5.4551583587167454E-3</v>
+        <v>5.262886726134325E-3</v>
       </c>
       <c r="L24" s="61"/>
       <c r="M24" s="62"/>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="25" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D25" s="18" t="str">
-        <v>obj_0084a</v>
+        <v>obj_0083a</v>
       </c>
       <c r="E25" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="F25" s="17">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>6.7300000000000007E-3</v>
+        <v>6.6500000000000005E-3</v>
       </c>
       <c r="G25" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7506,14 +7506,14 @@
       </c>
       <c r="H25" s="16">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>42142</v>
-      </c>
-      <c r="I25" s="15">
-        <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44699</v>
+        <v>42258</v>
+      </c>
+      <c r="I25" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J25" s="5">
-        <v>6.755262456456166E-3</v>
+        <v>6.6856700887252714E-3</v>
       </c>
       <c r="L25" s="61"/>
       <c r="M25" s="62"/>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="26" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D26" s="18" t="str">
-        <v>obj_00847</v>
+        <v>obj_00835</v>
       </c>
       <c r="E26" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="F26" s="17">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>7.9099999999999986E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G26" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7546,14 +7546,14 @@
       </c>
       <c r="H26" s="16">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>42142</v>
-      </c>
-      <c r="I26" s="15">
-        <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>45064</v>
+        <v>42258</v>
+      </c>
+      <c r="I26" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J26" s="5">
-        <v>7.961867326575783E-3</v>
+        <v>8.0680416708188984E-3</v>
       </c>
       <c r="L26" s="61"/>
       <c r="M26" s="62"/>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="27" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D27" s="18" t="str">
-        <v>obj_00834</v>
+        <v>obj_00830</v>
       </c>
       <c r="E27" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -7578,7 +7578,7 @@
       </c>
       <c r="F27" s="17">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>8.9499999999999996E-3</v>
+        <v>9.2500000000000013E-3</v>
       </c>
       <c r="G27" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7586,14 +7586,14 @@
       </c>
       <c r="H27" s="16">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>42142</v>
-      </c>
-      <c r="I27" s="15">
-        <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>45432</v>
+        <v>42258</v>
+      </c>
+      <c r="I27" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J27" s="5">
-        <v>9.0297029876446767E-3</v>
+        <v>9.3556066047648968E-3</v>
       </c>
       <c r="L27" s="61"/>
       <c r="M27" s="62"/>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="28" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D28" s="18" t="str">
-        <v>obj_0084d</v>
+        <v>obj_0082b</v>
       </c>
       <c r="E28" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="F28" s="17">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>9.8200000000000006E-3</v>
+        <v>1.034E-2</v>
       </c>
       <c r="G28" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7626,14 +7626,14 @@
       </c>
       <c r="H28" s="16">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>42142</v>
-      </c>
-      <c r="I28" s="15">
-        <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>45796</v>
+        <v>42258</v>
+      </c>
+      <c r="I28" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J28" s="5">
-        <v>9.9305908292690176E-3</v>
+        <v>1.0489501686173951E-2</v>
       </c>
       <c r="L28" s="61"/>
       <c r="M28" s="62"/>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="29" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D29" s="18" t="str">
-        <v>obj_0084c</v>
+        <v>obj_00847</v>
       </c>
       <c r="E29" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="F29" s="17">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>1.057E-2</v>
+        <v>1.1310000000000001E-2</v>
       </c>
       <c r="G29" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7666,14 +7666,14 @@
       </c>
       <c r="H29" s="16">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>42142</v>
-      </c>
-      <c r="I29" s="15">
-        <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>46160</v>
+        <v>42258</v>
+      </c>
+      <c r="I29" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J29" s="5">
-        <v>1.0711714503322227E-2</v>
+        <v>1.150659644361713E-2</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="62"/>
@@ -7690,7 +7690,7 @@
     </row>
     <row r="30" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D30" s="18" t="str">
-        <v>obj_00843</v>
+        <v>obj_00849</v>
       </c>
       <c r="E30" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="F30" s="17">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>1.1240000000000002E-2</v>
+        <v>1.2159999999999999E-2</v>
       </c>
       <c r="G30" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7706,14 +7706,14 @@
       </c>
       <c r="H30" s="16">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>42142</v>
-      </c>
-      <c r="I30" s="15">
-        <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>46525</v>
+        <v>42258</v>
+      </c>
+      <c r="I30" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J30" s="5">
-        <v>1.1413873349063139E-2</v>
+        <v>1.2404369431427977E-2</v>
       </c>
       <c r="L30" s="61"/>
       <c r="M30" s="62"/>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="31" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D31" s="18" t="str">
-        <v>obj_0084b</v>
+        <v>obj_00841</v>
       </c>
       <c r="E31" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="F31" s="17">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>1.1779999999999999E-2</v>
+        <v>1.2880000000000001E-2</v>
       </c>
       <c r="G31" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7746,14 +7746,14 @@
       </c>
       <c r="H31" s="16">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>42142</v>
-      </c>
-      <c r="I31" s="15">
-        <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>46891</v>
+        <v>42258</v>
+      </c>
+      <c r="I31" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J31" s="5">
-        <v>1.1978762043775803E-2</v>
+        <v>1.3166680022740837E-2</v>
       </c>
       <c r="L31" s="61"/>
       <c r="M31" s="62"/>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="32" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D32" s="18" t="str">
-        <v>obj_00839</v>
+        <v>obj_0083e</v>
       </c>
       <c r="E32" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="F32" s="17">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>1.225E-2</v>
+        <v>1.3500000000000002E-2</v>
       </c>
       <c r="G32" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7786,14 +7786,14 @@
       </c>
       <c r="H32" s="16">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>42142</v>
-      </c>
-      <c r="I32" s="15">
-        <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>47256</v>
+        <v>42258</v>
+      </c>
+      <c r="I32" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J32" s="5">
-        <v>1.2474795335339375E-2</v>
+        <v>1.382898037614581E-2</v>
       </c>
       <c r="L32" s="61"/>
       <c r="M32" s="62"/>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="33" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D33" s="18" t="str">
-        <v>obj_0082c</v>
+        <v>obj_00839</v>
       </c>
       <c r="E33" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="F33" s="17">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>1.2659999999999999E-2</v>
+        <v>1.4020000000000001E-2</v>
       </c>
       <c r="G33" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7826,14 +7826,14 @@
       </c>
       <c r="H33" s="16">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>42142</v>
-      </c>
-      <c r="I33" s="15">
-        <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>47623</v>
+        <v>42258</v>
+      </c>
+      <c r="I33" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J33" s="5">
-        <v>1.2909039452210816E-2</v>
+        <v>1.4386168484043975E-2</v>
       </c>
       <c r="L33" s="61"/>
       <c r="M33" s="62"/>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="34" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D34" s="18" t="str">
-        <v>obj_00853</v>
+        <v>obj_00834</v>
       </c>
       <c r="E34" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="F34" s="17">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>1.299E-2</v>
+        <v>1.4459999999999999E-2</v>
       </c>
       <c r="G34" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7866,14 +7866,14 @@
       </c>
       <c r="H34" s="16">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>42142</v>
-      </c>
-      <c r="I34" s="15">
-        <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>47987</v>
+        <v>42258</v>
+      </c>
+      <c r="I34" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J34" s="5">
-        <v>1.3258089728691885E-2</v>
+        <v>1.4858631283735822E-2</v>
       </c>
       <c r="L34" s="61"/>
       <c r="M34" s="62"/>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="35" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D35" s="18" t="str">
-        <v>obj_00841</v>
+        <v>obj_0082f</v>
       </c>
       <c r="E35" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="F35" s="17">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>1.3269999999999999E-2</v>
+        <v>1.482E-2</v>
       </c>
       <c r="G35" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7906,14 +7906,14 @@
       </c>
       <c r="H35" s="16">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>42142</v>
-      </c>
-      <c r="I35" s="15">
-        <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>48352</v>
+        <v>42258</v>
+      </c>
+      <c r="I35" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J35" s="5">
-        <v>1.3552013706039262E-2</v>
+        <v>1.5241818363866174E-2</v>
       </c>
       <c r="L35" s="61"/>
       <c r="M35" s="62"/>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="36" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D36" s="18" t="str">
-        <v>obj_00848</v>
+        <v>obj_0082a</v>
       </c>
       <c r="E36" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="F36" s="17">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>1.349E-2</v>
+        <v>1.5110000000000002E-2</v>
       </c>
       <c r="G36" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -7946,14 +7946,14 @@
       </c>
       <c r="H36" s="16">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>42142</v>
-      </c>
-      <c r="I36" s="15">
-        <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>48717</v>
+        <v>42258</v>
+      </c>
+      <c r="I36" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J36" s="5">
-        <v>1.378278540020062E-2</v>
+        <v>1.5550885203753665E-2</v>
       </c>
       <c r="L36" s="61"/>
       <c r="M36" s="62"/>
@@ -7970,7 +7970,7 @@
     </row>
     <row r="37" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D37" s="18" t="str">
-        <v>obj_0082a</v>
+        <v>obj_0084a</v>
       </c>
       <c r="E37" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D37)</f>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="F37" s="17">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>1.367E-2</v>
+        <v>1.533E-2</v>
       </c>
       <c r="G37" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -7986,14 +7986,14 @@
       </c>
       <c r="H37" s="16">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>42142</v>
-      </c>
-      <c r="I37" s="15">
-        <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>49082</v>
+        <v>42258</v>
+      </c>
+      <c r="I37" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J37" s="5">
-        <v>1.3970165714217258E-2</v>
+        <v>1.5781410938060327E-2</v>
       </c>
       <c r="L37" s="61"/>
       <c r="M37" s="62"/>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="38" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D38" s="18" t="str">
-        <v>obj_00846</v>
+        <v>obj_00844</v>
       </c>
       <c r="E38" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D38)</f>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="F38" s="17">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>1.3809999999999999E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="G38" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -8026,14 +8026,14 @@
       </c>
       <c r="H38" s="16">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>42142</v>
-      </c>
-      <c r="I38" s="15">
-        <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>49447</v>
+        <v>42258</v>
+      </c>
+      <c r="I38" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J38" s="5">
-        <v>1.4113404558292766E-2</v>
+        <v>1.5967653560690739E-2</v>
       </c>
       <c r="L38" s="61"/>
       <c r="M38" s="62"/>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="39" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D39" s="18" t="str">
-        <v>obj_0082b</v>
+        <v>obj_00840</v>
       </c>
       <c r="E39" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D39)</f>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="F39" s="17">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>1.3919999999999998E-2</v>
+        <v>1.5640000000000001E-2</v>
       </c>
       <c r="G39" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -8066,14 +8066,14 @@
       </c>
       <c r="H39" s="16">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>42142</v>
-      </c>
-      <c r="I39" s="15">
-        <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>49814</v>
+        <v>42258</v>
+      </c>
+      <c r="I39" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J39" s="5">
-        <v>1.4221645662135513E-2</v>
+        <v>1.6094648085277097E-2</v>
       </c>
       <c r="L39" s="61"/>
       <c r="M39" s="62"/>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="40" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D40" s="18" t="str">
-        <v>obj_0083c</v>
+        <v>obj_0083d</v>
       </c>
       <c r="E40" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D40)</f>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="F40" s="17">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>1.3990000000000001E-2</v>
+        <v>1.5730000000000001E-2</v>
       </c>
       <c r="G40" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -8106,14 +8106,14 @@
       </c>
       <c r="H40" s="16">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>42142</v>
-      </c>
-      <c r="I40" s="15">
-        <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>50178</v>
+        <v>42258</v>
+      </c>
+      <c r="I40" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D40)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J40" s="5">
-        <v>1.4286418451672681E-2</v>
+        <v>1.6177861488520528E-2</v>
       </c>
       <c r="L40" s="61"/>
       <c r="M40" s="62"/>
@@ -8130,7 +8130,7 @@
     </row>
     <row r="41" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D41" s="18" t="str">
-        <v>obj_00833</v>
+        <v>obj_00838</v>
       </c>
       <c r="E41" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D41)</f>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="F41" s="17">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>1.405E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="G41" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -8146,14 +8146,14 @@
       </c>
       <c r="H41" s="16">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>42142</v>
-      </c>
-      <c r="I41" s="15">
-        <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>50543</v>
+        <v>42258</v>
+      </c>
+      <c r="I41" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D41)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J41" s="5">
-        <v>1.4340843775248288E-2</v>
+        <v>1.6238781838039767E-2</v>
       </c>
       <c r="L41" s="61"/>
       <c r="M41" s="62"/>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="42" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D42" s="18" t="str">
-        <v>obj_0084e</v>
+        <v>obj_00833</v>
       </c>
       <c r="E42" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D42)</f>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="F42" s="17">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>1.4100000000000001E-2</v>
+        <v>1.584E-2</v>
       </c>
       <c r="G42" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -8186,14 +8186,14 @@
       </c>
       <c r="H42" s="16">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>42142</v>
-      </c>
-      <c r="I42" s="15">
-        <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>50908</v>
+        <v>42258</v>
+      </c>
+      <c r="I42" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D42)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J42" s="5">
-        <v>1.4384718568778475E-2</v>
+        <v>1.6264875806158638E-2</v>
       </c>
       <c r="L42" s="61"/>
       <c r="M42" s="62"/>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="43" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D43" s="18" t="str">
-        <v>obj_0083a</v>
+        <v>obj_0082e</v>
       </c>
       <c r="E43" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D43)</f>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="F43" s="17">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>1.4140000000000002E-2</v>
+        <v>1.5869999999999999E-2</v>
       </c>
       <c r="G43" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -8226,14 +8226,14 @@
       </c>
       <c r="H43" s="16">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>42142</v>
-      </c>
-      <c r="I43" s="15">
-        <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>51274</v>
+        <v>42258</v>
+      </c>
+      <c r="I43" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D43)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J43" s="5">
-        <v>1.441623435571961E-2</v>
+        <v>1.6278583938873294E-2</v>
       </c>
       <c r="L43" s="61"/>
       <c r="M43" s="62"/>
@@ -8250,7 +8250,7 @@
     </row>
     <row r="44" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D44" s="18" t="str">
-        <v>obj_0082e</v>
+        <v>obj_00829</v>
       </c>
       <c r="E44" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D44)</f>
@@ -8258,7 +8258,7 @@
       </c>
       <c r="F44" s="17">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>1.4180000000000002E-2</v>
+        <v>1.5890000000000001E-2</v>
       </c>
       <c r="G44" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -8266,14 +8266,14 @@
       </c>
       <c r="H44" s="16">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>42142</v>
-      </c>
-      <c r="I44" s="15">
-        <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>51641</v>
+        <v>42258</v>
+      </c>
+      <c r="I44" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D44)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J44" s="5">
-        <v>1.4450529138927833E-2</v>
+        <v>1.6283211192699553E-2</v>
       </c>
       <c r="L44" s="61"/>
       <c r="M44" s="62"/>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="45" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D45" s="18" t="str">
-        <v>obj_00831</v>
+        <v>obj_00846</v>
       </c>
       <c r="E45" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D45)</f>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="F45" s="17">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>1.423E-2</v>
+        <v>1.592E-2</v>
       </c>
       <c r="G45" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -8306,14 +8306,14 @@
       </c>
       <c r="H45" s="16">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>42142</v>
-      </c>
-      <c r="I45" s="15">
-        <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>52005</v>
+        <v>42258</v>
+      </c>
+      <c r="I45" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D45)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J45" s="5">
-        <v>1.4498315222998373E-2</v>
+        <v>1.6302016387244947E-2</v>
       </c>
       <c r="L45" s="61"/>
       <c r="M45" s="62"/>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="46" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D46" s="18" t="str">
-        <v>obj_00855</v>
+        <v>obj_00843</v>
       </c>
       <c r="E46" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D46)</f>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="F46" s="17">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>1.427E-2</v>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="G46" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -8346,14 +8346,14 @@
       </c>
       <c r="H46" s="16">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>42142</v>
-      </c>
-      <c r="I46" s="15">
-        <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>52369</v>
+        <v>42258</v>
+      </c>
+      <c r="I46" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D46)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J46" s="5">
-        <v>1.4534748279641581E-2</v>
+        <v>1.6309437473572729E-2</v>
       </c>
       <c r="L46" s="61"/>
       <c r="M46" s="62"/>
@@ -8370,7 +8370,7 @@
     </row>
     <row r="47" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D47" s="18" t="str">
-        <v>obj_00832</v>
+        <v>obj_00848</v>
       </c>
       <c r="E47" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D47)</f>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="F47" s="17">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>1.431E-2</v>
+        <v>1.5960000000000002E-2</v>
       </c>
       <c r="G47" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -8386,14 +8386,14 @@
       </c>
       <c r="H47" s="16">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>42142</v>
-      </c>
-      <c r="I47" s="15">
-        <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>52735</v>
+        <v>42258</v>
+      </c>
+      <c r="I47" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D47)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J47" s="5">
-        <v>1.4570734437566651E-2</v>
+        <v>1.6316537241296031E-2</v>
       </c>
       <c r="L47" s="61"/>
       <c r="M47" s="62"/>
@@ -8410,7 +8410,7 @@
     </row>
     <row r="48" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D48" s="18" t="str">
-        <v>obj_00854</v>
+        <v>obj_0083c</v>
       </c>
       <c r="E48" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D48)</f>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="F48" s="17">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>1.4339999999999999E-2</v>
+        <v>1.5979999999999998E-2</v>
       </c>
       <c r="G48" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -8426,14 +8426,14 @@
       </c>
       <c r="H48" s="16">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>42142</v>
-      </c>
-      <c r="I48" s="15">
-        <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>53100</v>
+        <v>42258</v>
+      </c>
+      <c r="I48" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D48)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J48" s="5">
-        <v>1.4596439874330123E-2</v>
+        <v>1.6326451111778058E-2</v>
       </c>
       <c r="L48" s="61"/>
       <c r="M48" s="62"/>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="F49" s="17">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>1.4419999999999999E-2</v>
+        <v>1.609E-2</v>
       </c>
       <c r="G49" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -8466,14 +8466,14 @@
       </c>
       <c r="H49" s="16">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>42142</v>
-      </c>
-      <c r="I49" s="15">
-        <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>54926</v>
+        <v>42258</v>
+      </c>
+      <c r="I49" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D49)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J49" s="5">
-        <v>1.4645780221631493E-2</v>
+        <v>1.6401876682149468E-2</v>
       </c>
       <c r="L49" s="61"/>
       <c r="M49" s="62"/>
@@ -8490,7 +8490,7 @@
     </row>
     <row r="50" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D50" s="18" t="str">
-        <v>obj_00849</v>
+        <v>obj_00832</v>
       </c>
       <c r="E50" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D50)</f>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="F50" s="17">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>1.439E-2</v>
+        <v>1.6120000000000002E-2</v>
       </c>
       <c r="G50" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -8506,14 +8506,14 @@
       </c>
       <c r="H50" s="16">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>42142</v>
-      </c>
-      <c r="I50" s="15">
-        <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>56752</v>
+        <v>42258</v>
+      </c>
+      <c r="I50" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D50)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J50" s="5">
-        <v>1.456408093726248E-2</v>
+        <v>1.638678734281903E-2</v>
       </c>
       <c r="L50" s="61"/>
       <c r="M50" s="62"/>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="51" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D51" s="18" t="str">
-        <v>obj_0083d</v>
+        <v>obj_0082d</v>
       </c>
       <c r="E51" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D51)</f>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="F51" s="17">
         <f>_xll.qlRateHelperRate($D51)</f>
-        <v>1.391E-2</v>
+        <v>1.575E-2</v>
       </c>
       <c r="G51" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -8546,14 +8546,14 @@
       </c>
       <c r="H51" s="16">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>42142</v>
-      </c>
-      <c r="I51" s="15">
-        <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>60405</v>
+        <v>42258</v>
+      </c>
+      <c r="I51" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D51)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J51" s="5">
-        <v>1.3855166560762638E-2</v>
+        <v>1.5778430830294989E-2</v>
       </c>
       <c r="L51" s="61"/>
       <c r="M51" s="62"/>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="52" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D52" s="18" t="str">
-        <v>obj_0083f</v>
+        <v>obj_00828</v>
       </c>
       <c r="E52" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D52)</f>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="F52" s="17">
         <f>_xll.qlRateHelperRate($D52)</f>
-        <v>1.376E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="G52" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
@@ -8586,14 +8586,14 @@
       </c>
       <c r="H52" s="16">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>42142</v>
-      </c>
-      <c r="I52" s="15">
-        <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>64059</v>
+        <v>42258</v>
+      </c>
+      <c r="I52" s="15" t="e">
+        <f ca="1">_xll.qlRateHelperLatestDate($D52)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J52" s="5">
-        <v>1.3631742253835148E-2</v>
+        <v>1.5523065771380178E-2</v>
       </c>
       <c r="L52" s="61"/>
       <c r="M52" s="62"/>
@@ -8629,8 +8629,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I53" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D53)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J53" s="5" t="e">
         <v>#N/A</v>
@@ -8669,8 +8669,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I54" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D54)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J54" s="5" t="e">
         <v>#N/A</v>
@@ -8709,8 +8709,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I55" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D55)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D55)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J55" s="5" t="e">
         <v>#N/A</v>
@@ -8749,8 +8749,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I56" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D56)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D56)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J56" s="5" t="e">
         <v>#N/A</v>
@@ -8789,8 +8789,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I57" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D57)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D57)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J57" s="5" t="e">
         <v>#N/A</v>
@@ -8829,8 +8829,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I58" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D58)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D58)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J58" s="5" t="e">
         <v>#N/A</v>
@@ -8869,8 +8869,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I59" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D59)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D59)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J59" s="5" t="e">
         <v>#N/A</v>
@@ -8909,8 +8909,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D60)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D60)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J60" s="5" t="e">
         <v>#N/A</v>
@@ -8949,8 +8949,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D61)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D61)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J61" s="5" t="e">
         <v>#N/A</v>
@@ -8989,8 +8989,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I62" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D62)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D62)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J62" s="5" t="e">
         <v>#N/A</v>
@@ -9018,8 +9018,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I63" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D63)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D63)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J63" s="5" t="e">
         <v>#N/A</v>
@@ -9047,8 +9047,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D64)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D64)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J64" s="5" t="e">
         <v>#N/A</v>
@@ -9076,8 +9076,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I65" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D65)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D65)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J65" s="5" t="e">
         <v>#N/A</v>
@@ -9105,8 +9105,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I66" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D66)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D66)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J66" s="5" t="e">
         <v>#N/A</v>
@@ -9133,8 +9133,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I67" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D67)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D67)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J67" s="5" t="e">
         <v>#N/A</v>
@@ -9161,8 +9161,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I68" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D68)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D68)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J68" s="5" t="e">
         <v>#N/A</v>
@@ -9189,8 +9189,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I69" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D69)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D69)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J69" s="5" t="e">
         <v>#N/A</v>
@@ -9217,8 +9217,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I70" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D70)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D70)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J70" s="5" t="e">
         <v>#N/A</v>
@@ -9245,8 +9245,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I71" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D71)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D71)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J71" s="5" t="e">
         <v>#N/A</v>
@@ -9273,8 +9273,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I72" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D72)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D72)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J72" s="5" t="e">
         <v>#N/A</v>
@@ -9301,8 +9301,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I73" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D73)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D73)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J73" s="5" t="e">
         <v>#N/A</v>
@@ -9329,8 +9329,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I74" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D74)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D74)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J74" s="5" t="e">
         <v>#N/A</v>
@@ -9357,8 +9357,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D75)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D75)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J75" s="5" t="e">
         <v>#N/A</v>
@@ -9385,8 +9385,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D76)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D76)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J76" s="5" t="e">
         <v>#N/A</v>
@@ -9413,8 +9413,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D77)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D77)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J77" s="5" t="e">
         <v>#N/A</v>
@@ -9441,8 +9441,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D78)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D78)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J78" s="5" t="e">
         <v>#N/A</v>
@@ -9469,8 +9469,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D79)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D79)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J79" s="5" t="e">
         <v>#N/A</v>
@@ -9497,8 +9497,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D80)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D80)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J80" s="5" t="e">
         <v>#N/A</v>
@@ -9525,8 +9525,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D81)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D81)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J81" s="5" t="e">
         <v>#N/A</v>
@@ -9553,8 +9553,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D82)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D82)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J82" s="5" t="e">
         <v>#N/A</v>
@@ -9581,8 +9581,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I83" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D83)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D83)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J83" s="5" t="e">
         <v>#N/A</v>
@@ -9609,8 +9609,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I84" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D84)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D84)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J84" s="5" t="e">
         <v>#N/A</v>
@@ -9637,8 +9637,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I85" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D85)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D85)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J85" s="5" t="e">
         <v>#N/A</v>
@@ -9665,8 +9665,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D86)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D86)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J86" s="5" t="e">
         <v>#N/A</v>
@@ -9693,8 +9693,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I87" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D87)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D87)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J87" s="5" t="e">
         <v>#N/A</v>
@@ -9721,8 +9721,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I88" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D88)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D88)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J88" s="5" t="e">
         <v>#N/A</v>
@@ -9749,8 +9749,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I89" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D89)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D89)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J89" s="5" t="e">
         <v>#N/A</v>
@@ -9777,8 +9777,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I90" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D90)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D90)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J90" s="5" t="e">
         <v>#N/A</v>
@@ -9805,8 +9805,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I91" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D91)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D91)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J91" s="5" t="e">
         <v>#N/A</v>
@@ -9833,8 +9833,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I92" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D92)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D92)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J92" s="5" t="e">
         <v>#N/A</v>
@@ -9861,8 +9861,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I93" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D93)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D93)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J93" s="5" t="e">
         <v>#N/A</v>
@@ -9889,8 +9889,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D94)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D94)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J94" s="5" t="e">
         <v>#N/A</v>
@@ -9917,8 +9917,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D95)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D95)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J95" s="5" t="e">
         <v>#N/A</v>
@@ -9945,8 +9945,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I96" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D96)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D96)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J96" s="5" t="e">
         <v>#N/A</v>
@@ -9973,8 +9973,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D97)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D97)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J97" s="5" t="e">
         <v>#N/A</v>
@@ -10001,8 +10001,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I98" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D98)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D98)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J98" s="5" t="e">
         <v>#N/A</v>
@@ -10029,8 +10029,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I99" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D99)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D99)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J99" s="5" t="e">
         <v>#N/A</v>
@@ -10057,8 +10057,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D100)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J100" s="5" t="e">
         <v>#N/A</v>
@@ -10085,8 +10085,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I101" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D101)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D101)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J101" s="5" t="e">
         <v>#N/A</v>
@@ -10113,8 +10113,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I102" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D102)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D102)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J102" s="5" t="e">
         <v>#N/A</v>
@@ -10141,8 +10141,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I103" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D103)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D103)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J103" s="5" t="e">
         <v>#N/A</v>
@@ -10169,8 +10169,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I104" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D104)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D104)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J104" s="5" t="e">
         <v>#N/A</v>
@@ -10197,8 +10197,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D105)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D105)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J105" s="5" t="e">
         <v>#N/A</v>
@@ -10225,8 +10225,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D106)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D106)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J106" s="5" t="e">
         <v>#N/A</v>
@@ -10253,8 +10253,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I107" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D107)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D107)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J107" s="5" t="e">
         <v>#N/A</v>
@@ -10281,8 +10281,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I108" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D108)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D108)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J108" s="5" t="e">
         <v>#N/A</v>
@@ -10309,8 +10309,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I109" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D109)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D109)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J109" s="5" t="e">
         <v>#N/A</v>
@@ -10337,8 +10337,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I110" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D110)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D110)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J110" s="5" t="e">
         <v>#N/A</v>
@@ -10365,8 +10365,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I111" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D111)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D111)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J111" s="5" t="e">
         <v>#N/A</v>
@@ -10393,8 +10393,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I112" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D112)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D112)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J112" s="5" t="e">
         <v>#N/A</v>
@@ -10421,8 +10421,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I113" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D113)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D113)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J113" s="5" t="e">
         <v>#N/A</v>
@@ -10449,8 +10449,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I114" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D114)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D114)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J114" s="5" t="e">
         <v>#N/A</v>
@@ -10477,8 +10477,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I115" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D115)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D115)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J115" s="5" t="e">
         <v>#N/A</v>
@@ -10505,8 +10505,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I116" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D116)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D116)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J116" s="5" t="e">
         <v>#N/A</v>
@@ -10533,8 +10533,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I117" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D117)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D117)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J117" s="5" t="e">
         <v>#N/A</v>
@@ -10561,8 +10561,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I118" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D118)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D118)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J118" s="5" t="e">
         <v>#N/A</v>
@@ -10589,8 +10589,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I119" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D119)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D119)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J119" s="5" t="e">
         <v>#N/A</v>
@@ -10617,8 +10617,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I120" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D120)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D120)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J120" s="5" t="e">
         <v>#N/A</v>
@@ -10645,8 +10645,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D121)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D121)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J121" s="5" t="e">
         <v>#N/A</v>
@@ -10673,8 +10673,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D122)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D122)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J122" s="5" t="e">
         <v>#N/A</v>
@@ -10701,8 +10701,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I123" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D123)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D123)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J123" s="5" t="e">
         <v>#N/A</v>
@@ -10729,8 +10729,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I124" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D124)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D124)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J124" s="5" t="e">
         <v>#N/A</v>
@@ -10757,8 +10757,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I125" s="15" t="e">
-        <f>_xll.qlRateHelperLatestDate($D125)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D125)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J125" s="5" t="e">
         <v>#N/A</v>
@@ -10785,8 +10785,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="I126" s="11" t="e">
-        <f>_xll.qlRateHelperLatestDate($D126)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlRateHelperLatestDate($D126)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J126" s="5" t="e">
         <v>#N/A</v>
@@ -10813,9 +10813,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10878,7 +10876,7 @@
       </c>
       <c r="E3" s="143" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0085f#0007</v>
+        <v>obj_00560#0001</v>
       </c>
       <c r="F3" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -10888,19 +10886,19 @@
     </row>
     <row r="4" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="70"/>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="206" t="s">
+      <c r="C4" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="207" t="str">
+      <c r="D4" s="201" t="str">
         <f t="shared" si="0"/>
         <v>EURTND_Quote</v>
       </c>
-      <c r="E4" s="208" t="str">
-        <f>_xll.qlFraRateHelper(,D4,"1D",C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0082f#0007</v>
+      <c r="E4" s="202" t="str">
+        <f>_xll.qlFraRateHelper(,D4,"1D",C4,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00825#0001</v>
       </c>
       <c r="F4" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -10910,19 +10908,19 @@
     </row>
     <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="70"/>
-      <c r="B5" s="209" t="s">
+      <c r="B5" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="210" t="s">
+      <c r="C5" s="204" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="211" t="str">
+      <c r="D5" s="205" t="str">
         <f t="shared" si="0"/>
         <v>EURSND_Quote</v>
       </c>
-      <c r="E5" s="212" t="str">
-        <f>_xll.qlFraRateHelper(,D5,"2D",C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0083b#0007</v>
+      <c r="E5" s="206" t="str">
+        <f>_xll.qlFraRateHelper(,D5,"2D",C5,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00826#0001</v>
       </c>
       <c r="F5" s="71" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -10945,7 +10943,7 @@
       </c>
       <c r="E6" s="149" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0083e#0007</v>
+        <v>obj_00558#0001</v>
       </c>
       <c r="F6" s="145"/>
       <c r="G6" s="67"/>
@@ -10965,7 +10963,7 @@
       </c>
       <c r="E7" s="149" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00823#0007</v>
+        <v>obj_00557#0001</v>
       </c>
       <c r="F7" s="145"/>
       <c r="G7" s="67"/>
@@ -10985,7 +10983,7 @@
       </c>
       <c r="E8" s="149" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00835#0007</v>
+        <v>obj_00556#0001</v>
       </c>
       <c r="F8" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -11008,7 +11006,7 @@
       </c>
       <c r="E9" s="149" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00838#0007</v>
+        <v>obj_0055c#0001</v>
       </c>
       <c r="F9" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -11023,7 +11021,7 @@
       </c>
       <c r="C10" s="147" t="str">
         <f>_xll.qlEuribor(,B10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00829#0007</v>
+        <v>obj_0055b#0001</v>
       </c>
       <c r="D10" s="148" t="str">
         <f t="shared" si="0"/>
@@ -11031,7 +11029,7 @@
       </c>
       <c r="E10" s="149" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00858#0007</v>
+        <v>obj_0055f#0001</v>
       </c>
       <c r="F10" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -11046,7 +11044,7 @@
       </c>
       <c r="C11" s="147" t="str">
         <f>_xll.qlEuribor(,B11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00827#0007</v>
+        <v>obj_0055a#0001</v>
       </c>
       <c r="D11" s="148" t="str">
         <f t="shared" si="0"/>
@@ -11054,7 +11052,7 @@
       </c>
       <c r="E11" s="149" t="str">
         <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0085c#0007</v>
+        <v>obj_0055e#0001</v>
       </c>
       <c r="F11" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -11077,7 +11075,7 @@
       </c>
       <c r="E12" s="68" t="str">
         <f>_xll.qlDepositRateHelper(,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00825#0007</v>
+        <v>obj_00559#0001</v>
       </c>
       <c r="F12" s="71" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -11109,66 +11107,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="231" customWidth="1"/>
-    <col min="2" max="2" width="4" style="231" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" style="231" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="231" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="231" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="231" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="231" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="231" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="231" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="231" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="231"/>
+    <col min="1" max="1" width="2.7109375" style="225" customWidth="1"/>
+    <col min="2" max="2" width="4" style="225" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" style="225" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="225" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="225" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="225" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="225" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="225" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="225" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="225" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="225"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="213"/>
-      <c r="B1" s="214"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215">
+      <c r="A1" s="207"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209">
         <v>6</v>
       </c>
-      <c r="E1" s="214" t="str">
+      <c r="E1" s="208" t="str">
         <f>_xll.qlPeriodEquivalent(D1&amp;"M")</f>
         <v>6M</v>
       </c>
-      <c r="F1" s="214"/>
-      <c r="G1" s="216" t="str">
+      <c r="F1" s="208"/>
+      <c r="G1" s="210" t="str">
         <f>Currency&amp;"_YC"&amp;$E$1&amp;"RH"</f>
         <v>EUR_YC6MRH</v>
       </c>
-      <c r="H1" s="232" t="str">
+      <c r="H1" s="226" t="str">
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="J1" s="217"/>
+      <c r="J1" s="211"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="70"/>
       <c r="B2" s="164"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="220" t="s">
+      <c r="C2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="220" t="s">
+      <c r="F2" s="214" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="220" t="s">
+      <c r="G2" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="221" t="str">
+      <c r="H2" s="215" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H20,SerializationPath&amp;H1,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="I2" s="222" t="str">
+      <c r="I2" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
@@ -11176,33 +11172,33 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="70"/>
-      <c r="B3" s="223" t="str">
+      <c r="B3" s="217" t="str">
         <f t="shared" ref="B3:B20" si="0">C3&amp;"M"</f>
         <v>1M</v>
       </c>
-      <c r="C3" s="224">
+      <c r="C3" s="218">
         <v>1</v>
       </c>
       <c r="D3" s="143" t="str">
         <f t="shared" ref="D3:D20" si="1">"x"&amp;C3+$D$1&amp;"F"</f>
         <v>x7F</v>
       </c>
-      <c r="E3" s="223" t="str">
+      <c r="E3" s="217" t="str">
         <f t="shared" ref="E3:E20" si="2">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>Euribor6M</v>
       </c>
       <c r="F3" s="182" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="223" t="str">
+      <c r="G3" s="217" t="str">
         <f t="shared" ref="G3:G20" si="3">Currency&amp;C3&amp;D3&amp;IF(F3,"_SYNTH"&amp;$E$1,"")&amp;"_Quote"</f>
         <v>EUR1x7F_Quote</v>
       </c>
-      <c r="H3" s="223" t="str">
-        <f>_xll.qlFraRateHelper(,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00896#0003</v>
-      </c>
-      <c r="I3" s="225" t="str">
+      <c r="H3" s="217" t="str">
+        <f>_xll.qlFraRateHelper(,G3,B3,E3,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00813#0001</v>
+      </c>
+      <c r="I3" s="219" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
         <v/>
       </c>
@@ -11210,33 +11206,33 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="70"/>
-      <c r="B4" s="226" t="str">
+      <c r="B4" s="220" t="str">
         <f t="shared" si="0"/>
         <v>2M</v>
       </c>
-      <c r="C4" s="227">
+      <c r="C4" s="221">
         <v>2</v>
       </c>
       <c r="D4" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x8F</v>
       </c>
-      <c r="E4" s="226" t="str">
+      <c r="E4" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F4" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="226" t="str">
+      <c r="G4" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR2x8F_Quote</v>
       </c>
-      <c r="H4" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00890#0003</v>
-      </c>
-      <c r="I4" s="228" t="str">
+      <c r="H4" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G4,B4,E4,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00816#0001</v>
+      </c>
+      <c r="I4" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
         <v/>
       </c>
@@ -11244,33 +11240,33 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="70"/>
-      <c r="B5" s="226" t="str">
+      <c r="B5" s="220" t="str">
         <f t="shared" si="0"/>
         <v>3M</v>
       </c>
-      <c r="C5" s="227">
+      <c r="C5" s="221">
         <v>3</v>
       </c>
       <c r="D5" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x9F</v>
       </c>
-      <c r="E5" s="226" t="str">
+      <c r="E5" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F5" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="226" t="str">
+      <c r="G5" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR3x9F_Quote</v>
       </c>
-      <c r="H5" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0089d#0003</v>
-      </c>
-      <c r="I5" s="228" t="str">
+      <c r="H5" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G5,B5,E5,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00824#0001</v>
+      </c>
+      <c r="I5" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
         <v/>
       </c>
@@ -11278,33 +11274,33 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
-      <c r="B6" s="226" t="str">
+      <c r="B6" s="220" t="str">
         <f t="shared" si="0"/>
         <v>4M</v>
       </c>
-      <c r="C6" s="227">
+      <c r="C6" s="221">
         <v>4</v>
       </c>
       <c r="D6" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x10F</v>
       </c>
-      <c r="E6" s="226" t="str">
+      <c r="E6" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F6" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="226" t="str">
+      <c r="G6" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR4x10F_Quote</v>
       </c>
-      <c r="H6" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0089b#0003</v>
-      </c>
-      <c r="I6" s="228" t="str">
+      <c r="H6" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G6,B6,E6,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00822#0001</v>
+      </c>
+      <c r="I6" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
         <v/>
       </c>
@@ -11312,33 +11308,33 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="70"/>
-      <c r="B7" s="226" t="str">
+      <c r="B7" s="220" t="str">
         <f t="shared" si="0"/>
         <v>5M</v>
       </c>
-      <c r="C7" s="227">
+      <c r="C7" s="221">
         <v>5</v>
       </c>
       <c r="D7" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x11F</v>
       </c>
-      <c r="E7" s="226" t="str">
+      <c r="E7" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F7" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="226" t="str">
+      <c r="G7" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR5x11F_Quote</v>
       </c>
-      <c r="H7" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00894#0003</v>
-      </c>
-      <c r="I7" s="228" t="str">
+      <c r="H7" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G7,B7,E7,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00820#0001</v>
+      </c>
+      <c r="I7" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
         <v/>
       </c>
@@ -11346,33 +11342,33 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="70"/>
-      <c r="B8" s="226" t="str">
+      <c r="B8" s="220" t="str">
         <f t="shared" si="0"/>
         <v>6M</v>
       </c>
-      <c r="C8" s="227">
+      <c r="C8" s="221">
         <v>6</v>
       </c>
       <c r="D8" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x12F</v>
       </c>
-      <c r="E8" s="226" t="str">
+      <c r="E8" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F8" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="226" t="str">
+      <c r="G8" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR6x12F_Quote</v>
       </c>
-      <c r="H8" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0088d#0003</v>
-      </c>
-      <c r="I8" s="228" t="str">
+      <c r="H8" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G8,B8,E8,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0081e#0001</v>
+      </c>
+      <c r="I8" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
         <v/>
       </c>
@@ -11380,33 +11376,33 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="70"/>
-      <c r="B9" s="226" t="str">
+      <c r="B9" s="220" t="str">
         <f t="shared" si="0"/>
         <v>7M</v>
       </c>
-      <c r="C9" s="227">
+      <c r="C9" s="221">
         <v>7</v>
       </c>
       <c r="D9" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x13F</v>
       </c>
-      <c r="E9" s="226" t="str">
+      <c r="E9" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F9" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="226" t="str">
+      <c r="G9" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR7x13F_Quote</v>
       </c>
-      <c r="H9" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00897#0003</v>
-      </c>
-      <c r="I9" s="228" t="str">
+      <c r="H9" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G9,B9,E9,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0081c#0001</v>
+      </c>
+      <c r="I9" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
         <v/>
       </c>
@@ -11414,33 +11410,33 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="70"/>
-      <c r="B10" s="226" t="str">
+      <c r="B10" s="220" t="str">
         <f t="shared" si="0"/>
         <v>8M</v>
       </c>
-      <c r="C10" s="227">
+      <c r="C10" s="221">
         <v>8</v>
       </c>
       <c r="D10" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x14F</v>
       </c>
-      <c r="E10" s="226" t="str">
+      <c r="E10" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F10" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="226" t="str">
+      <c r="G10" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR8x14F_Quote</v>
       </c>
-      <c r="H10" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00899#0003</v>
-      </c>
-      <c r="I10" s="228" t="str">
+      <c r="H10" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G10,B10,E10,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0081a#0001</v>
+      </c>
+      <c r="I10" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
         <v/>
       </c>
@@ -11448,33 +11444,33 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="70"/>
-      <c r="B11" s="226" t="str">
+      <c r="B11" s="220" t="str">
         <f t="shared" si="0"/>
         <v>9M</v>
       </c>
-      <c r="C11" s="227">
+      <c r="C11" s="221">
         <v>9</v>
       </c>
       <c r="D11" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x15F</v>
       </c>
-      <c r="E11" s="226" t="str">
+      <c r="E11" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F11" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="226" t="str">
+      <c r="G11" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR9x15F_Quote</v>
       </c>
-      <c r="H11" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00892#0003</v>
-      </c>
-      <c r="I11" s="228" t="str">
+      <c r="H11" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G11,B11,E11,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00818#0001</v>
+      </c>
+      <c r="I11" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
         <v/>
       </c>
@@ -11482,33 +11478,33 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="70"/>
-      <c r="B12" s="226" t="str">
+      <c r="B12" s="220" t="str">
         <f t="shared" si="0"/>
         <v>10M</v>
       </c>
-      <c r="C12" s="227">
+      <c r="C12" s="221">
         <v>10</v>
       </c>
       <c r="D12" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x16F</v>
       </c>
-      <c r="E12" s="226" t="str">
+      <c r="E12" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F12" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="226" t="str">
+      <c r="G12" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR10x16F_Quote</v>
       </c>
-      <c r="H12" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0089c#0003</v>
-      </c>
-      <c r="I12" s="228" t="str">
+      <c r="H12" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G12,B12,E12,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00815#0001</v>
+      </c>
+      <c r="I12" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
         <v/>
       </c>
@@ -11516,33 +11512,33 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="70"/>
-      <c r="B13" s="226" t="str">
+      <c r="B13" s="220" t="str">
         <f t="shared" si="0"/>
         <v>11M</v>
       </c>
-      <c r="C13" s="227">
+      <c r="C13" s="221">
         <v>11</v>
       </c>
       <c r="D13" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x17F</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F13" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR11x17F_Quote</v>
       </c>
-      <c r="H13" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00895#0003</v>
-      </c>
-      <c r="I13" s="228" t="str">
+      <c r="H13" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G13,B13,E13,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00823#0001</v>
+      </c>
+      <c r="I13" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
         <v/>
       </c>
@@ -11550,33 +11546,33 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="70"/>
-      <c r="B14" s="226" t="str">
+      <c r="B14" s="220" t="str">
         <f t="shared" si="0"/>
         <v>12M</v>
       </c>
-      <c r="C14" s="227">
+      <c r="C14" s="221">
         <v>12</v>
       </c>
       <c r="D14" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x18F</v>
       </c>
-      <c r="E14" s="226" t="str">
+      <c r="E14" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F14" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="226" t="str">
+      <c r="G14" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR12x18F_Quote</v>
       </c>
-      <c r="H14" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00891#0003</v>
-      </c>
-      <c r="I14" s="228" t="str">
+      <c r="H14" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G14,B14,E14,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00821#0001</v>
+      </c>
+      <c r="I14" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
         <v/>
       </c>
@@ -11584,33 +11580,33 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="70"/>
-      <c r="B15" s="226" t="str">
+      <c r="B15" s="220" t="str">
         <f t="shared" si="0"/>
         <v>13M</v>
       </c>
-      <c r="C15" s="227">
+      <c r="C15" s="221">
         <v>13</v>
       </c>
       <c r="D15" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x19F</v>
       </c>
-      <c r="E15" s="226" t="str">
+      <c r="E15" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F15" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="226" t="str">
+      <c r="G15" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR13x19F_Quote</v>
       </c>
-      <c r="H15" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0088f#0003</v>
-      </c>
-      <c r="I15" s="228" t="str">
+      <c r="H15" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G15,B15,E15,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0081f#0001</v>
+      </c>
+      <c r="I15" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
         <v/>
       </c>
@@ -11618,33 +11614,33 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="70"/>
-      <c r="B16" s="226" t="str">
+      <c r="B16" s="220" t="str">
         <f t="shared" si="0"/>
         <v>14M</v>
       </c>
-      <c r="C16" s="227">
+      <c r="C16" s="221">
         <v>14</v>
       </c>
       <c r="D16" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x20F</v>
       </c>
-      <c r="E16" s="226" t="str">
+      <c r="E16" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F16" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="226" t="str">
+      <c r="G16" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR14x20F_Quote</v>
       </c>
-      <c r="H16" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0089a#0003</v>
-      </c>
-      <c r="I16" s="228" t="str">
+      <c r="H16" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G16,B16,E16,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0081d#0001</v>
+      </c>
+      <c r="I16" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
         <v/>
       </c>
@@ -11652,33 +11648,33 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="70"/>
-      <c r="B17" s="226" t="str">
+      <c r="B17" s="220" t="str">
         <f t="shared" si="0"/>
         <v>15M</v>
       </c>
-      <c r="C17" s="227">
+      <c r="C17" s="221">
         <v>15</v>
       </c>
       <c r="D17" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x21F</v>
       </c>
-      <c r="E17" s="226" t="str">
+      <c r="E17" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F17" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="226" t="str">
+      <c r="G17" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR15x21F_Quote</v>
       </c>
-      <c r="H17" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00893#0003</v>
-      </c>
-      <c r="I17" s="228" t="str">
+      <c r="H17" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G17,B17,E17,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0081b#0001</v>
+      </c>
+      <c r="I17" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
         <v/>
       </c>
@@ -11686,33 +11682,33 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="70"/>
-      <c r="B18" s="226" t="str">
+      <c r="B18" s="220" t="str">
         <f t="shared" si="0"/>
         <v>16M</v>
       </c>
-      <c r="C18" s="227">
+      <c r="C18" s="221">
         <v>16</v>
       </c>
       <c r="D18" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x22F</v>
       </c>
-      <c r="E18" s="226" t="str">
+      <c r="E18" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F18" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="226" t="str">
+      <c r="G18" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR16x22F_Quote</v>
       </c>
-      <c r="H18" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0088e#0003</v>
-      </c>
-      <c r="I18" s="228" t="str">
+      <c r="H18" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G18,B18,E18,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00819#0001</v>
+      </c>
+      <c r="I18" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
         <v/>
       </c>
@@ -11720,33 +11716,33 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="70"/>
-      <c r="B19" s="226" t="str">
+      <c r="B19" s="220" t="str">
         <f t="shared" si="0"/>
         <v>17M</v>
       </c>
-      <c r="C19" s="227">
+      <c r="C19" s="221">
         <v>17</v>
       </c>
       <c r="D19" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x23F</v>
       </c>
-      <c r="E19" s="226" t="str">
+      <c r="E19" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F19" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="226" t="str">
+      <c r="G19" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR17x23F_Quote</v>
       </c>
-      <c r="H19" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0088c#0003</v>
-      </c>
-      <c r="I19" s="228" t="str">
+      <c r="H19" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G19,B19,E19,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00817#0001</v>
+      </c>
+      <c r="I19" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
         <v/>
       </c>
@@ -11754,33 +11750,33 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="70"/>
-      <c r="B20" s="226" t="str">
+      <c r="B20" s="220" t="str">
         <f t="shared" si="0"/>
         <v>18M</v>
       </c>
-      <c r="C20" s="227">
+      <c r="C20" s="221">
         <v>18</v>
       </c>
       <c r="D20" s="149" t="str">
         <f t="shared" si="1"/>
         <v>x24F</v>
       </c>
-      <c r="E20" s="226" t="str">
+      <c r="E20" s="220" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
       <c r="F20" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="226" t="str">
+      <c r="G20" s="220" t="str">
         <f t="shared" si="3"/>
         <v>EUR18x24F_Quote</v>
       </c>
-      <c r="H20" s="226" t="str">
-        <f>_xll.qlFraRateHelper(,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00898#0003</v>
-      </c>
-      <c r="I20" s="228" t="str">
+      <c r="H20" s="220" t="str">
+        <f>_xll.qlFraRateHelper(,G20,B20,E20,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00814#0001</v>
+      </c>
+      <c r="I20" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
         <v/>
       </c>
@@ -11788,14 +11784,14 @@
     </row>
     <row r="21" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
-      <c r="B21" s="229"/>
-      <c r="C21" s="229"/>
-      <c r="D21" s="229"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="229"/>
-      <c r="G21" s="229"/>
-      <c r="H21" s="230"/>
-      <c r="I21" s="230"/>
+      <c r="B21" s="223"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
       <c r="J21" s="64"/>
     </row>
   </sheetData>
@@ -11899,11 +11895,11 @@
       </c>
       <c r="E3" s="164" t="str">
         <f t="array" ref="E3:E44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$D3:$D44)</f>
-        <v>K5</v>
+        <v>U5</v>
       </c>
       <c r="F3" s="165">
         <f>_xll.qlIMMdate(E3)</f>
-        <v>42144</v>
+        <v>42263</v>
       </c>
       <c r="G3" s="164" t="str">
         <f t="shared" ref="G3:G34" si="0">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
@@ -11911,15 +11907,15 @@
       </c>
       <c r="H3" s="166" t="str">
         <f t="shared" ref="H3:H34" si="1">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;QuoteSuffix</f>
-        <v>EURFUT3MK5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="I3" s="166" t="str">
         <f t="shared" ref="I3:I34" si="2">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MK5ConvAdj_Quote</v>
+        <v>EURFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="J3" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(,$H3,C3,$E3,$G3,$I3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0087f#0003</v>
+        <v>obj_00565#0001</v>
       </c>
       <c r="K3" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -11940,11 +11936,11 @@
         <v>0</v>
       </c>
       <c r="E4" s="169" t="str">
-        <v>M5</v>
+        <v>V5</v>
       </c>
       <c r="F4" s="170">
         <f>_xll.qlIMMdate(E4)</f>
-        <v>42172</v>
+        <v>42298</v>
       </c>
       <c r="G4" s="169" t="str">
         <f t="shared" si="0"/>
@@ -11952,15 +11948,15 @@
       </c>
       <c r="H4" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MV5_Quote</v>
       </c>
       <c r="I4" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM5ConvAdj_Quote</v>
+        <v>EURFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="J4" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H4,C4,$E4,$G4,$I4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00885#0003</v>
+        <v>obj_0056c#0001</v>
       </c>
       <c r="K4" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -11981,11 +11977,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="169" t="str">
-        <v>N5</v>
+        <v>X5</v>
       </c>
       <c r="F5" s="170">
         <f>_xll.qlIMMdate(E5)</f>
-        <v>42200</v>
+        <v>42326</v>
       </c>
       <c r="G5" s="169" t="str">
         <f t="shared" si="0"/>
@@ -11993,15 +11989,15 @@
       </c>
       <c r="H5" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MX5_Quote</v>
       </c>
       <c r="I5" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN5ConvAdj_Quote</v>
+        <v>EURFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="J5" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H5,C5,$E5,$G5,$I5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0087e#0003</v>
+        <v>obj_00582#0001</v>
       </c>
       <c r="K5" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -12022,11 +12018,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="169" t="str">
-        <v>Q5</v>
+        <v>Z5</v>
       </c>
       <c r="F6" s="170">
         <f>_xll.qlIMMdate(E6)</f>
-        <v>42235</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12034,15 +12030,15 @@
       </c>
       <c r="H6" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="I6" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ5ConvAdj_Quote</v>
+        <v>EURFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="J6" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H6,C6,$E6,$G6,$I6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00872#0003</v>
+        <v>obj_00569#0001</v>
       </c>
       <c r="K6" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -12063,11 +12059,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="169" t="str">
-        <v>U5</v>
+        <v>F6</v>
       </c>
       <c r="F7" s="170">
         <f>_xll.qlIMMdate(E7)</f>
-        <v>42263</v>
+        <v>42389</v>
       </c>
       <c r="G7" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12075,15 +12071,15 @@
       </c>
       <c r="H7" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MF6_Quote</v>
       </c>
       <c r="I7" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU5ConvAdj_Quote</v>
+        <v>EURFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="J7" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H7,C7,$E7,$G7,$I7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00862#0003</v>
+        <v>obj_00586#0001</v>
       </c>
       <c r="K7" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -12104,11 +12100,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="169" t="str">
-        <v>V5</v>
+        <v>G6</v>
       </c>
       <c r="F8" s="170">
         <f>_xll.qlIMMdate(E8)</f>
-        <v>42298</v>
+        <v>42417</v>
       </c>
       <c r="G8" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12116,15 +12112,15 @@
       </c>
       <c r="H8" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MV5_Quote</v>
+        <v>EURFUT3MG6_Quote</v>
       </c>
       <c r="I8" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MV5ConvAdj_Quote</v>
+        <v>EURFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="J8" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H8,C8,$E8,$G8,$I8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00889#0003</v>
+        <v>obj_0057b#0001</v>
       </c>
       <c r="K8" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -12145,11 +12141,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="169" t="str">
-        <v>X5</v>
+        <v>H6</v>
       </c>
       <c r="F9" s="170">
         <f>_xll.qlIMMdate(E9)</f>
-        <v>42326</v>
+        <v>42445</v>
       </c>
       <c r="G9" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12157,15 +12153,15 @@
       </c>
       <c r="H9" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MX5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="I9" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MX5ConvAdj_Quote</v>
+        <v>EURFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="J9" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H9,C9,$E9,$G9,$I9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00870#0003</v>
+        <v>obj_00581#0001</v>
       </c>
       <c r="K9" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -12186,11 +12182,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="169" t="str">
-        <v>Z5</v>
+        <v>J6</v>
       </c>
       <c r="F10" s="170">
         <f>_xll.qlIMMdate(E10)</f>
-        <v>42354</v>
+        <v>42480</v>
       </c>
       <c r="G10" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12198,15 +12194,15 @@
       </c>
       <c r="H10" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MJ6_Quote</v>
       </c>
       <c r="I10" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ5ConvAdj_Quote</v>
+        <v>EURFUT3MJ6ConvAdj_Quote</v>
       </c>
       <c r="J10" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H10,C10,$E10,$G10,$I10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00877#0003</v>
+        <v>obj_0058a#0001</v>
       </c>
       <c r="K10" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -12227,11 +12223,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="169" t="str">
-        <v>F6</v>
+        <v>K6</v>
       </c>
       <c r="F11" s="170">
         <f>_xll.qlIMMdate(E11)</f>
-        <v>42389</v>
+        <v>42508</v>
       </c>
       <c r="G11" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12239,15 +12235,15 @@
       </c>
       <c r="H11" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MF6_Quote</v>
+        <v>EURFUT3MK6_Quote</v>
       </c>
       <c r="I11" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MF6ConvAdj_Quote</v>
+        <v>EURFUT3MK6ConvAdj_Quote</v>
       </c>
       <c r="J11" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H11,C11,$E11,$G11,$I11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0086f#0003</v>
+        <v>obj_00587#0001</v>
       </c>
       <c r="K11" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -12268,11 +12264,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="169" t="str">
-        <v>G6</v>
+        <v>M6</v>
       </c>
       <c r="F12" s="170">
         <f>_xll.qlIMMdate(E12)</f>
-        <v>42417</v>
+        <v>42536</v>
       </c>
       <c r="G12" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12280,15 +12276,15 @@
       </c>
       <c r="H12" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MG6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="I12" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MG6ConvAdj_Quote</v>
+        <v>EURFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="J12" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H12,C12,$E12,$G12,$I12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00866#0003</v>
+        <v>obj_00579#0001</v>
       </c>
       <c r="K12" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -12309,11 +12305,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="169" t="str">
-        <v>H6</v>
+        <v>N6</v>
       </c>
       <c r="F13" s="170">
         <f>_xll.qlIMMdate(E13)</f>
-        <v>42445</v>
+        <v>42571</v>
       </c>
       <c r="G13" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12321,15 +12317,15 @@
       </c>
       <c r="H13" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MN6_Quote</v>
       </c>
       <c r="I13" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH6ConvAdj_Quote</v>
+        <v>EURFUT3MN6ConvAdj_Quote</v>
       </c>
       <c r="J13" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H13,C13,$E13,$G13,$I13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00884#0003</v>
+        <v>obj_00566#0001</v>
       </c>
       <c r="K13" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -12350,11 +12346,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="169" t="str">
-        <v>J6</v>
+        <v>Q6</v>
       </c>
       <c r="F14" s="170">
         <f>_xll.qlIMMdate(E14)</f>
-        <v>42480</v>
+        <v>42599</v>
       </c>
       <c r="G14" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12362,15 +12358,15 @@
       </c>
       <c r="H14" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MJ6_Quote</v>
+        <v>EURFUT3MQ6_Quote</v>
       </c>
       <c r="I14" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MJ6ConvAdj_Quote</v>
+        <v>EURFUT3MQ6ConvAdj_Quote</v>
       </c>
       <c r="J14" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H14,C14,$E14,$G14,$I14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00861#0003</v>
+        <v>obj_00578#0001</v>
       </c>
       <c r="K14" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -12391,11 +12387,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="169" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="F15" s="170">
         <f>_xll.qlIMMdate(E15)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="G15" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12403,15 +12399,15 @@
       </c>
       <c r="H15" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="I15" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM6ConvAdj_Quote</v>
+        <v>EURFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J15" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H15,C15,$E15,$G15,$I15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0086c#0003</v>
+        <v>obj_00571#0001</v>
       </c>
       <c r="K15" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -12432,11 +12428,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="169" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="F16" s="170">
         <f>_xll.qlIMMdate(E16)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="G16" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12444,15 +12440,15 @@
       </c>
       <c r="H16" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="I16" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU6ConvAdj_Quote</v>
+        <v>EURFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J16" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H16,C16,$E16,$G16,$I16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0086d#0003</v>
+        <v>obj_00583#0001</v>
       </c>
       <c r="K16" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -12473,11 +12469,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="169" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="F17" s="170">
         <f>_xll.qlIMMdate(E17)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="G17" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12485,15 +12481,15 @@
       </c>
       <c r="H17" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="I17" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ6ConvAdj_Quote</v>
+        <v>EURFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J17" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H17,C17,$E17,$G17,$I17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00874#0003</v>
+        <v>obj_00572#0001</v>
       </c>
       <c r="K17" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -12514,11 +12510,11 @@
         <v>1</v>
       </c>
       <c r="E18" s="169" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="F18" s="170">
         <f>_xll.qlIMMdate(E18)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="G18" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12526,15 +12522,15 @@
       </c>
       <c r="H18" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="I18" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH7ConvAdj_Quote</v>
+        <v>EURFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J18" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H18,C18,$E18,$G18,$I18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00867#0003</v>
+        <v>obj_0057c#0001</v>
       </c>
       <c r="K18" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -12555,11 +12551,11 @@
         <v>1</v>
       </c>
       <c r="E19" s="169" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="F19" s="170">
         <f>_xll.qlIMMdate(E19)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="G19" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12567,15 +12563,15 @@
       </c>
       <c r="H19" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="I19" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM7ConvAdj_Quote</v>
+        <v>EURFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J19" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H19,C19,$E19,$G19,$I19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0086e#0003</v>
+        <v>obj_00584#0001</v>
       </c>
       <c r="K19" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -12596,11 +12592,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="169" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="F20" s="170">
         <f>_xll.qlIMMdate(E20)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="G20" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12608,15 +12604,15 @@
       </c>
       <c r="H20" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="I20" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU7ConvAdj_Quote</v>
+        <v>EURFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J20" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H20,C20,$E20,$G20,$I20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0088a#0003</v>
+        <v>obj_0057f#0001</v>
       </c>
       <c r="K20" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -12637,11 +12633,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="169" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="F21" s="170">
         <f>_xll.qlIMMdate(E21)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="G21" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12649,15 +12645,15 @@
       </c>
       <c r="H21" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="I21" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ7ConvAdj_Quote</v>
+        <v>EURFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J21" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H21,C21,$E21,$G21,$I21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0086a#0003</v>
+        <v>obj_00568#0001</v>
       </c>
       <c r="K21" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J21)</f>
@@ -12678,11 +12674,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="169" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="F22" s="170">
         <f>_xll.qlIMMdate(E22)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="G22" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12690,15 +12686,15 @@
       </c>
       <c r="H22" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH8_Quote</v>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="I22" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH8ConvAdj_Quote</v>
+        <v>EURFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J22" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H22,C22,$E22,$G22,$I22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00879#0003</v>
+        <v>obj_0056a#0001</v>
       </c>
       <c r="K22" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J22)</f>
@@ -12719,11 +12715,11 @@
         <v>1</v>
       </c>
       <c r="E23" s="169" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="F23" s="170">
         <f>_xll.qlIMMdate(E23)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="G23" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12731,15 +12727,15 @@
       </c>
       <c r="H23" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM8_Quote</v>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="I23" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM8ConvAdj_Quote</v>
+        <v>EURFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J23" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H23,C23,$E23,$G23,$I23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00871#0003</v>
+        <v>obj_00563#0001</v>
       </c>
       <c r="K23" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J23)</f>
@@ -12760,11 +12756,11 @@
         <v>1</v>
       </c>
       <c r="E24" s="169" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="F24" s="170">
         <f>_xll.qlIMMdate(E24)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="G24" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12772,15 +12768,15 @@
       </c>
       <c r="H24" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU8_Quote</v>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="I24" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU8ConvAdj_Quote</v>
+        <v>EURFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J24" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H24,C24,$E24,$G24,$I24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00869#0003</v>
+        <v>obj_00562#0001</v>
       </c>
       <c r="K24" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J24)</f>
@@ -12801,11 +12797,11 @@
         <v>1</v>
       </c>
       <c r="E25" s="169" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="F25" s="170">
         <f>_xll.qlIMMdate(E25)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="G25" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12813,15 +12809,15 @@
       </c>
       <c r="H25" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ8_Quote</v>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="I25" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ8ConvAdj_Quote</v>
+        <v>EURFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J25" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H25,C25,$E25,$G25,$I25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00881#0003</v>
+        <v>obj_0056f#0001</v>
       </c>
       <c r="K25" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J25)</f>
@@ -12842,11 +12838,11 @@
         <v>1</v>
       </c>
       <c r="E26" s="169" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="F26" s="170">
         <f>_xll.qlIMMdate(E26)</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="G26" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12854,15 +12850,15 @@
       </c>
       <c r="H26" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH9_Quote</v>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="I26" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH9ConvAdj_Quote</v>
+        <v>EURFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J26" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H26,C26,$E26,$G26,$I26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00878#0003</v>
+        <v>obj_00564#0001</v>
       </c>
       <c r="K26" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J26)</f>
@@ -12883,11 +12879,11 @@
         <v>1</v>
       </c>
       <c r="E27" s="169" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="F27" s="170">
         <f>_xll.qlIMMdate(E27)</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="G27" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12895,15 +12891,15 @@
       </c>
       <c r="H27" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM9_Quote</v>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="I27" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM9ConvAdj_Quote</v>
+        <v>EURFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J27" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H27,C27,$E27,$G27,$I27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00880#0003</v>
+        <v>obj_0056b#0001</v>
       </c>
       <c r="K27" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J27)</f>
@@ -12924,11 +12920,11 @@
         <v>1</v>
       </c>
       <c r="E28" s="169" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="F28" s="170">
         <f>_xll.qlIMMdate(E28)</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="G28" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12936,15 +12932,15 @@
       </c>
       <c r="H28" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU9_Quote</v>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="I28" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU9ConvAdj_Quote</v>
+        <v>EURFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J28" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H28,C28,$E28,$G28,$I28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00868#0003</v>
+        <v>obj_00589#0001</v>
       </c>
       <c r="K28" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J28)</f>
@@ -12965,11 +12961,11 @@
         <v>1</v>
       </c>
       <c r="E29" s="169" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="F29" s="170">
         <f>_xll.qlIMMdate(E29)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="G29" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12977,15 +12973,15 @@
       </c>
       <c r="H29" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ9_Quote</v>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="I29" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ9ConvAdj_Quote</v>
+        <v>EURFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J29" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H29,C29,$E29,$G29,$I29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00886#0003</v>
+        <v>obj_00570#0001</v>
       </c>
       <c r="K29" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J29)</f>
@@ -13006,11 +13002,11 @@
         <v>1</v>
       </c>
       <c r="E30" s="169" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="F30" s="170">
         <f>_xll.qlIMMdate(E30)</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="G30" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13018,15 +13014,15 @@
       </c>
       <c r="H30" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH0_Quote</v>
+        <v>EURFUT3MM0_Quote</v>
       </c>
       <c r="I30" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH0ConvAdj_Quote</v>
+        <v>EURFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="J30" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H30,C30,$E30,$G30,$I30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0087d#0003</v>
+        <v>obj_00588#0001</v>
       </c>
       <c r="K30" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J30)</f>
@@ -13047,11 +13043,11 @@
         <v>1</v>
       </c>
       <c r="E31" s="169" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="F31" s="170">
         <f>_xll.qlIMMdate(E31)</f>
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="G31" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13059,15 +13055,15 @@
       </c>
       <c r="H31" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM0_Quote</v>
+        <v>EURFUT3MU0_Quote</v>
       </c>
       <c r="I31" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM0ConvAdj_Quote</v>
+        <v>EURFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="J31" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H31,C31,$E31,$G31,$I31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0086b#0003</v>
+        <v>obj_0056d#0001</v>
       </c>
       <c r="K31" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J31)</f>
@@ -13088,11 +13084,11 @@
         <v>1</v>
       </c>
       <c r="E32" s="169" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="F32" s="170">
         <f>_xll.qlIMMdate(E32)</f>
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="G32" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13100,15 +13096,15 @@
       </c>
       <c r="H32" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU0_Quote</v>
+        <v>EURFUT3MZ0_Quote</v>
       </c>
       <c r="I32" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU0ConvAdj_Quote</v>
+        <v>EURFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="J32" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H32,C32,$E32,$G32,$I32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00863#0003</v>
+        <v>obj_00580#0001</v>
       </c>
       <c r="K32" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J32)</f>
@@ -13129,11 +13125,11 @@
         <v>1</v>
       </c>
       <c r="E33" s="169" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="F33" s="170">
         <f>_xll.qlIMMdate(E33)</f>
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="G33" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13141,15 +13137,15 @@
       </c>
       <c r="H33" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ0_Quote</v>
+        <v>EURFUT3MH1_Quote</v>
       </c>
       <c r="I33" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ0ConvAdj_Quote</v>
+        <v>EURFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="J33" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H33,C33,$E33,$G33,$I33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00888#0003</v>
+        <v>obj_00577#0001</v>
       </c>
       <c r="K33" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J33)</f>
@@ -13170,11 +13166,11 @@
         <v>1</v>
       </c>
       <c r="E34" s="169" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="F34" s="170">
         <f>_xll.qlIMMdate(E34)</f>
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="G34" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13182,15 +13178,15 @@
       </c>
       <c r="H34" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH1_Quote</v>
+        <v>EURFUT3MM1_Quote</v>
       </c>
       <c r="I34" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH1ConvAdj_Quote</v>
+        <v>EURFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="J34" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H34,C34,$E34,$G34,$I34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00882#0003</v>
+        <v>obj_00576#0001</v>
       </c>
       <c r="K34" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J34)</f>
@@ -13211,11 +13207,11 @@
         <v>1</v>
       </c>
       <c r="E35" s="169" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="F35" s="170">
         <f>_xll.qlIMMdate(E35)</f>
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="G35" s="169" t="str">
         <f t="shared" ref="G35:G44" si="3">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
@@ -13223,15 +13219,15 @@
       </c>
       <c r="H35" s="171" t="str">
         <f t="shared" ref="H35:H44" si="4">Currency&amp;"FUT"&amp;$G$1&amp;$E35&amp;QuoteSuffix</f>
-        <v>EURFUT3MM1_Quote</v>
+        <v>EURFUT3MU1_Quote</v>
       </c>
       <c r="I35" s="171" t="str">
         <f t="shared" ref="I35:I44" si="5">Currency&amp;"FUT"&amp;$G$1&amp;$E35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MM1ConvAdj_Quote</v>
+        <v>EURFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="J35" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H35,C35,$E35,$G35,$I35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00873#0003</v>
+        <v>obj_0056e#0001</v>
       </c>
       <c r="K35" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J35)</f>
@@ -13252,11 +13248,11 @@
         <v>1</v>
       </c>
       <c r="E36" s="169" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="F36" s="170">
         <f>_xll.qlIMMdate(E36)</f>
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="G36" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13264,15 +13260,15 @@
       </c>
       <c r="H36" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MU1_Quote</v>
+        <v>EURFUT3MZ1_Quote</v>
       </c>
       <c r="I36" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU1ConvAdj_Quote</v>
+        <v>EURFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="J36" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H36,C36,$E36,$G36,$I36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00875#0003</v>
+        <v>obj_0057a#0001</v>
       </c>
       <c r="K36" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J36)</f>
@@ -13293,11 +13289,11 @@
         <v>1</v>
       </c>
       <c r="E37" s="169" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="F37" s="170">
         <f>_xll.qlIMMdate(E37)</f>
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="G37" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13305,15 +13301,15 @@
       </c>
       <c r="H37" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MZ1_Quote</v>
+        <v>EURFUT3MH2_Quote</v>
       </c>
       <c r="I37" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ1ConvAdj_Quote</v>
+        <v>EURFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="J37" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H37,C37,$E37,$G37,$I37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0087a#0003</v>
+        <v>obj_00573#0001</v>
       </c>
       <c r="K37" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J37)</f>
@@ -13334,11 +13330,11 @@
         <v>1</v>
       </c>
       <c r="E38" s="169" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="F38" s="170">
         <f>_xll.qlIMMdate(E38)</f>
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="G38" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13346,15 +13342,15 @@
       </c>
       <c r="H38" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MH2_Quote</v>
+        <v>EURFUT3MM2_Quote</v>
       </c>
       <c r="I38" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH2ConvAdj_Quote</v>
+        <v>EURFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="J38" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H38,C38,$E38,$G38,$I38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00865#0003</v>
+        <v>obj_00567#0001</v>
       </c>
       <c r="K38" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J38)</f>
@@ -13375,11 +13371,11 @@
         <v>1</v>
       </c>
       <c r="E39" s="169" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="F39" s="170">
         <f>_xll.qlIMMdate(E39)</f>
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="G39" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13387,15 +13383,15 @@
       </c>
       <c r="H39" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MM2_Quote</v>
+        <v>EURFUT3MU2_Quote</v>
       </c>
       <c r="I39" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM2ConvAdj_Quote</v>
+        <v>EURFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="J39" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H39,C39,$E39,$G39,$I39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00883#0003</v>
+        <v>obj_0057e#0001</v>
       </c>
       <c r="K39" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J39)</f>
@@ -13416,11 +13412,11 @@
         <v>1</v>
       </c>
       <c r="E40" s="169" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="F40" s="170">
         <f>_xll.qlIMMdate(E40)</f>
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="G40" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13428,15 +13424,15 @@
       </c>
       <c r="H40" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MU2_Quote</v>
+        <v>EURFUT3MZ2_Quote</v>
       </c>
       <c r="I40" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU2ConvAdj_Quote</v>
+        <v>EURFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="J40" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H40,C40,$E40,$G40,$I40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0087c#0003</v>
+        <v>obj_00585#0001</v>
       </c>
       <c r="K40" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J40)</f>
@@ -13456,11 +13452,11 @@
         <v>1</v>
       </c>
       <c r="E41" s="169" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="F41" s="170">
         <f>_xll.qlIMMdate(E41)</f>
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="G41" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13468,15 +13464,15 @@
       </c>
       <c r="H41" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MZ2_Quote</v>
+        <v>EURFUT3MH3_Quote</v>
       </c>
       <c r="I41" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ2ConvAdj_Quote</v>
+        <v>EURFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="J41" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H41,C41,$E41,$G41,$I41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0087b#0003</v>
+        <v>obj_00575#0001</v>
       </c>
       <c r="K41" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J41)</f>
@@ -13496,11 +13492,11 @@
         <v>1</v>
       </c>
       <c r="E42" s="169" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="F42" s="170">
         <f>_xll.qlIMMdate(E42)</f>
-        <v>45000</v>
+        <v>45098</v>
       </c>
       <c r="G42" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13508,15 +13504,15 @@
       </c>
       <c r="H42" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MH3_Quote</v>
+        <v>EURFUT3MM3_Quote</v>
       </c>
       <c r="I42" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH3ConvAdj_Quote</v>
+        <v>EURFUT3MM3ConvAdj_Quote</v>
       </c>
       <c r="J42" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H42,C42,$E42,$G42,$I42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00876#0003</v>
+        <v>obj_0057d#0001</v>
       </c>
       <c r="K42" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J42)</f>
@@ -13536,11 +13532,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="169" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="F43" s="170">
         <f>_xll.qlIMMdate(E43)</f>
-        <v>45098</v>
+        <v>45189</v>
       </c>
       <c r="G43" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13548,15 +13544,15 @@
       </c>
       <c r="H43" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MM3_Quote</v>
+        <v>EURFUT3MU3_Quote</v>
       </c>
       <c r="I43" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM3ConvAdj_Quote</v>
+        <v>EURFUT3MU3ConvAdj_Quote</v>
       </c>
       <c r="J43" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(,$H43,C43,$E43,$G43,$I43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00864#0003</v>
+        <v>obj_00561#0001</v>
       </c>
       <c r="K43" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J43)</f>
@@ -13576,11 +13572,11 @@
         <v>1</v>
       </c>
       <c r="E44" s="158" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="F44" s="163">
         <f>_xll.qlIMMdate(E44)</f>
-        <v>45189</v>
+        <v>45280</v>
       </c>
       <c r="G44" s="158" t="str">
         <f t="shared" si="3"/>
@@ -13588,15 +13584,15 @@
       </c>
       <c r="H44" s="174" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MU3_Quote</v>
+        <v>EURFUT3MZ3_Quote</v>
       </c>
       <c r="I44" s="174" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU3ConvAdj_Quote</v>
+        <v>EURFUT3MZ3ConvAdj_Quote</v>
       </c>
       <c r="J44" s="159" t="str">
         <f>_xll.qlFuturesRateHelper(,$H44,C44,$E44,$G44,$I44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00887#0003</v>
+        <v>obj_00574#0001</v>
       </c>
       <c r="K44" s="175" t="str">
         <f>_xll.ohRangeRetrieveError(J44)</f>
@@ -13635,9 +13631,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13735,7 +13729,7 @@
       <c r="K3" s="78"/>
       <c r="L3" s="180" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$I$1,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$I$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00828#0003</v>
+        <v>obj_0055d#0001</v>
       </c>
       <c r="M3" s="181" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -13795,8 +13789,8 @@
         <v>EURAB6E1Y_Quote</v>
       </c>
       <c r="L5" s="185" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K5,B5,$D5,Calendar,$G5,$H5,$I5,$L$3,$J5,C5,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00856#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K5,B5,$D5,Calendar,$G5,$H5,$I5,$L$3,$J5,C5,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00827#0001</v>
       </c>
       <c r="M5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
@@ -13840,8 +13834,8 @@
         <v>EURAB6E15M_Quote</v>
       </c>
       <c r="L6" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K6,B6,$D6,Calendar,$G6,$H6,$I6,$L$3,$J6,C6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0084f#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K6,B6,$D6,Calendar,$G6,$H6,$I6,$L$3,$J6,C6,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0083b#0001</v>
       </c>
       <c r="M6" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -13885,8 +13879,8 @@
         <v>EURAB6E18M_Quote</v>
       </c>
       <c r="L7" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K7,B7,$D7,Calendar,$G7,$H7,$I7,$L$3,$J7,C7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00844#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K7,B7,$D7,Calendar,$G7,$H7,$I7,$L$3,$J7,C7,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00836#0001</v>
       </c>
       <c r="M7" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -13930,8 +13924,8 @@
         <v>EURAB6E21M_Quote</v>
       </c>
       <c r="L8" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K8,B8,$D8,Calendar,$G8,$H8,$I8,$L$3,$J8,C8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0082d#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K8,B8,$D8,Calendar,$G8,$H8,$I8,$L$3,$J8,C8,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00831#0001</v>
       </c>
       <c r="M8" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -13975,8 +13969,8 @@
         <v>EURAB6E2Y_Quote</v>
       </c>
       <c r="L9" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K9,B9,$D9,Calendar,$G9,$H9,$I9,$L$3,$J9,C9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00852#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K9,B9,$D9,Calendar,$G9,$H9,$I9,$L$3,$J9,C9,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0082c#0001</v>
       </c>
       <c r="M9" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -14020,8 +14014,8 @@
         <v>EURAB6E3Y_Quote</v>
       </c>
       <c r="L10" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K10,B10,$D10,Calendar,$G10,$H10,$I10,$L$3,$J10,C10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00851#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K10,B10,$D10,Calendar,$G10,$H10,$I10,$L$3,$J10,C10,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0084b#0001</v>
       </c>
       <c r="M10" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -14065,8 +14059,8 @@
         <v>EURAB6E4Y_Quote</v>
       </c>
       <c r="L11" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K11,B11,$D11,Calendar,$G11,$H11,$I11,$L$3,$J11,C11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00836#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K11,B11,$D11,Calendar,$G11,$H11,$I11,$L$3,$J11,C11,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00845#0001</v>
       </c>
       <c r="M11" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -14110,8 +14104,8 @@
         <v>EURAB6E5Y_Quote</v>
       </c>
       <c r="L12" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K12,B12,$D12,Calendar,$G12,$H12,$I12,$L$3,$J12,C12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00850#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K12,B12,$D12,Calendar,$G12,$H12,$I12,$L$3,$J12,C12,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00842#0001</v>
       </c>
       <c r="M12" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -14155,8 +14149,8 @@
         <v>EURAB6E6Y_Quote</v>
       </c>
       <c r="L13" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K13,B13,$D13,Calendar,$G13,$H13,$I13,$L$3,$J13,C13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00840#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K13,B13,$D13,Calendar,$G13,$H13,$I13,$L$3,$J13,C13,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0083f#0001</v>
       </c>
       <c r="M13" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -14200,8 +14194,8 @@
         <v>EURAB6E7Y_Quote</v>
       </c>
       <c r="L14" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K14,B14,$D14,Calendar,$G14,$H14,$I14,$L$3,$J14,C14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0084a#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K14,B14,$D14,Calendar,$G14,$H14,$I14,$L$3,$J14,C14,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0083a#0001</v>
       </c>
       <c r="M14" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -14245,8 +14239,8 @@
         <v>EURAB6E8Y_Quote</v>
       </c>
       <c r="L15" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K15,B15,$D15,Calendar,$G15,$H15,$I15,$L$3,$J15,C15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00847#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K15,B15,$D15,Calendar,$G15,$H15,$I15,$L$3,$J15,C15,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00835#0001</v>
       </c>
       <c r="M15" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -14290,8 +14284,8 @@
         <v>EURAB6E9Y_Quote</v>
       </c>
       <c r="L16" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K16,B16,$D16,Calendar,$G16,$H16,$I16,$L$3,$J16,C16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00834#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K16,B16,$D16,Calendar,$G16,$H16,$I16,$L$3,$J16,C16,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00830#0001</v>
       </c>
       <c r="M16" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -14335,8 +14329,8 @@
         <v>EURAB6E10Y_Quote</v>
       </c>
       <c r="L17" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K17,B17,$D17,Calendar,$G17,$H17,$I17,$L$3,$J17,C17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0084d#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K17,B17,$D17,Calendar,$G17,$H17,$I17,$L$3,$J17,C17,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0082b#0001</v>
       </c>
       <c r="M17" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -14380,8 +14374,8 @@
         <v>EURAB6E11Y_Quote</v>
       </c>
       <c r="L18" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K18,B18,$D18,Calendar,$G18,$H18,$I18,$L$3,$J18,C18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0084c#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K18,B18,$D18,Calendar,$G18,$H18,$I18,$L$3,$J18,C18,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00847#0001</v>
       </c>
       <c r="M18" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -14425,8 +14419,8 @@
         <v>EURAB6E12Y_Quote</v>
       </c>
       <c r="L19" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K19,B19,$D19,Calendar,$G19,$H19,$I19,$L$3,$J19,C19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00843#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K19,B19,$D19,Calendar,$G19,$H19,$I19,$L$3,$J19,C19,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00849#0001</v>
       </c>
       <c r="M19" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -14470,8 +14464,8 @@
         <v>EURAB6E13Y_Quote</v>
       </c>
       <c r="L20" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K20,B20,$D20,Calendar,$G20,$H20,$I20,$L$3,$J20,C20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0084b#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K20,B20,$D20,Calendar,$G20,$H20,$I20,$L$3,$J20,C20,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00841#0001</v>
       </c>
       <c r="M20" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -14515,8 +14509,8 @@
         <v>EURAB6E14Y_Quote</v>
       </c>
       <c r="L21" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K21,B21,$D21,Calendar,$G21,$H21,$I21,$L$3,$J21,C21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00839#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K21,B21,$D21,Calendar,$G21,$H21,$I21,$L$3,$J21,C21,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0083e#0001</v>
       </c>
       <c r="M21" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -14560,8 +14554,8 @@
         <v>EURAB6E15Y_Quote</v>
       </c>
       <c r="L22" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K22,B22,$D22,Calendar,$G22,$H22,$I22,$L$3,$J22,C22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0082c#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K22,B22,$D22,Calendar,$G22,$H22,$I22,$L$3,$J22,C22,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00839#0001</v>
       </c>
       <c r="M22" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -14605,8 +14599,8 @@
         <v>EURAB6E16Y_Quote</v>
       </c>
       <c r="L23" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K23,B23,$D23,Calendar,$G23,$H23,$I23,$L$3,$J23,C23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00853#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K23,B23,$D23,Calendar,$G23,$H23,$I23,$L$3,$J23,C23,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00834#0001</v>
       </c>
       <c r="M23" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -14650,8 +14644,8 @@
         <v>EURAB6E17Y_Quote</v>
       </c>
       <c r="L24" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K24,B24,$D24,Calendar,$G24,$H24,$I24,$L$3,$J24,C24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00841#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K24,B24,$D24,Calendar,$G24,$H24,$I24,$L$3,$J24,C24,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0082f#0001</v>
       </c>
       <c r="M24" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -14695,8 +14689,8 @@
         <v>EURAB6E18Y_Quote</v>
       </c>
       <c r="L25" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K25,B25,$D25,Calendar,$G25,$H25,$I25,$L$3,$J25,C25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00848#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K25,B25,$D25,Calendar,$G25,$H25,$I25,$L$3,$J25,C25,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0082a#0001</v>
       </c>
       <c r="M25" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -14740,8 +14734,8 @@
         <v>EURAB6E19Y_Quote</v>
       </c>
       <c r="L26" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K26,B26,$D26,Calendar,$G26,$H26,$I26,$L$3,$J26,C26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0082a#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K26,B26,$D26,Calendar,$G26,$H26,$I26,$L$3,$J26,C26,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0084a#0001</v>
       </c>
       <c r="M26" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -14785,8 +14779,8 @@
         <v>EURAB6E20Y_Quote</v>
       </c>
       <c r="L27" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K27,B27,$D27,Calendar,$G27,$H27,$I27,$L$3,$J27,C27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00846#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K27,B27,$D27,Calendar,$G27,$H27,$I27,$L$3,$J27,C27,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00844#0001</v>
       </c>
       <c r="M27" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -14830,8 +14824,8 @@
         <v>EURAB6E21Y_Quote</v>
       </c>
       <c r="L28" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K28,B28,$D28,Calendar,$G28,$H28,$I28,$L$3,$J28,C28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0082b#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K28,B28,$D28,Calendar,$G28,$H28,$I28,$L$3,$J28,C28,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00840#0001</v>
       </c>
       <c r="M28" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -14875,8 +14869,8 @@
         <v>EURAB6E22Y_Quote</v>
       </c>
       <c r="L29" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K29,B29,$D29,Calendar,$G29,$H29,$I29,$L$3,$J29,C29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0083c#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K29,B29,$D29,Calendar,$G29,$H29,$I29,$L$3,$J29,C29,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0083d#0001</v>
       </c>
       <c r="M29" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -14920,8 +14914,8 @@
         <v>EURAB6E23Y_Quote</v>
       </c>
       <c r="L30" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K30,B30,$D30,Calendar,$G30,$H30,$I30,$L$3,$J30,C30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00833#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K30,B30,$D30,Calendar,$G30,$H30,$I30,$L$3,$J30,C30,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00838#0001</v>
       </c>
       <c r="M30" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -14965,8 +14959,8 @@
         <v>EURAB6E24Y_Quote</v>
       </c>
       <c r="L31" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K31,B31,$D31,Calendar,$G31,$H31,$I31,$L$3,$J31,C31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0084e#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K31,B31,$D31,Calendar,$G31,$H31,$I31,$L$3,$J31,C31,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00833#0001</v>
       </c>
       <c r="M31" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -15010,8 +15004,8 @@
         <v>EURAB6E25Y_Quote</v>
       </c>
       <c r="L32" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K32,B32,$D32,Calendar,$G32,$H32,$I32,$L$3,$J32,C32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0083a#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K32,B32,$D32,Calendar,$G32,$H32,$I32,$L$3,$J32,C32,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0082e#0001</v>
       </c>
       <c r="M32" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -15055,8 +15049,8 @@
         <v>EURAB6E26Y_Quote</v>
       </c>
       <c r="L33" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K33,B33,$D33,Calendar,$G33,$H33,$I33,$L$3,$J33,C33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0082e#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K33,B33,$D33,Calendar,$G33,$H33,$I33,$L$3,$J33,C33,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00829#0001</v>
       </c>
       <c r="M33" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -15100,8 +15094,8 @@
         <v>EURAB6E27Y_Quote</v>
       </c>
       <c r="L34" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K34,B34,$D34,Calendar,$G34,$H34,$I34,$L$3,$J34,C34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00831#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K34,B34,$D34,Calendar,$G34,$H34,$I34,$L$3,$J34,C34,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00846#0001</v>
       </c>
       <c r="M34" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -15145,8 +15139,8 @@
         <v>EURAB6E28Y_Quote</v>
       </c>
       <c r="L35" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K35,B35,$D35,Calendar,$G35,$H35,$I35,$L$3,$J35,C35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00855#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K35,B35,$D35,Calendar,$G35,$H35,$I35,$L$3,$J35,C35,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00843#0001</v>
       </c>
       <c r="M35" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -15190,8 +15184,8 @@
         <v>EURAB6E29Y_Quote</v>
       </c>
       <c r="L36" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K36,B36,$D36,Calendar,$G36,$H36,$I36,$L$3,$J36,C36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00832#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K36,B36,$D36,Calendar,$G36,$H36,$I36,$L$3,$J36,C36,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00848#0001</v>
       </c>
       <c r="M36" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -15235,8 +15229,8 @@
         <v>EURAB6E30Y_Quote</v>
       </c>
       <c r="L37" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K37,B37,$D37,Calendar,$G37,$H37,$I37,$L$3,$J37,C37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00854#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K37,B37,$D37,Calendar,$G37,$H37,$I37,$L$3,$J37,C37,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0083c#0001</v>
       </c>
       <c r="M37" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -15280,8 +15274,8 @@
         <v>EURAB6E35Y_Quote</v>
       </c>
       <c r="L38" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K38,B38,$D38,Calendar,$G38,$H38,$I38,$L$3,$J38,C38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00837#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K38,B38,$D38,Calendar,$G38,$H38,$I38,$L$3,$J38,C38,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00837#0001</v>
       </c>
       <c r="M38" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -15325,8 +15319,8 @@
         <v>EURAB6E40Y_Quote</v>
       </c>
       <c r="L39" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K39,B39,$D39,Calendar,$G39,$H39,$I39,$L$3,$J39,C39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00849#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K39,B39,$D39,Calendar,$G39,$H39,$I39,$L$3,$J39,C39,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00832#0001</v>
       </c>
       <c r="M39" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -15370,8 +15364,8 @@
         <v>EURAB6E50Y_Quote</v>
       </c>
       <c r="L40" s="190" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K40,B40,$D40,Calendar,$G40,$H40,$I40,$L$3,$J40,C40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0083d#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K40,B40,$D40,Calendar,$G40,$H40,$I40,$L$3,$J40,C40,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0082d#0001</v>
       </c>
       <c r="M40" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -15415,8 +15409,8 @@
         <v>EURAB6E60Y_Quote</v>
       </c>
       <c r="L41" s="195" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K41,B41,$D41,Calendar,$G41,$H41,$I41,$L$3,$J41,C41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0083f#0003</v>
+        <f>_xll.qlSwapRateHelper2(,$K41,B41,$D41,Calendar,$G41,$H41,$I41,$L$3,$J41,C41,DiscountingCurve,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00828#0001</v>
       </c>
       <c r="M41" s="196" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
@@ -10,20 +10,24 @@
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
     <sheet name="EURSTD" sheetId="15" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Calendar">GeneralSettings!$D$14</definedName>
     <definedName name="Currency">GeneralSettings!$D$3</definedName>
     <definedName name="Discounting">GeneralSettings!$D$7</definedName>
     <definedName name="Evaluationdate">GeneralSettings!$D$12</definedName>
     <definedName name="FamilyName">GeneralSettings!$D$8</definedName>
-    <definedName name="IncludeFlag" localSheetId="1">EURSTD!$P$3:$P$91</definedName>
-    <definedName name="MinDistance" localSheetId="1">EURSTD!$R$3:$R$91</definedName>
+    <definedName name="IncludeFlag" localSheetId="1">EURSTD!$P$3:$P$89</definedName>
+    <definedName name="MinDistance" localSheetId="1">EURSTD!$R$3:$R$89</definedName>
     <definedName name="ObjectOverwrite">GeneralSettings!$D$6</definedName>
     <definedName name="Permanent">GeneralSettings!$D$4</definedName>
     <definedName name="PillarDate">GeneralSettings!$D$10</definedName>
-    <definedName name="Priority" localSheetId="1">EURSTD!$Q$3:$Q$91</definedName>
+    <definedName name="Priority" localSheetId="1">EURSTD!$Q$3:$Q$89</definedName>
     <definedName name="QuoteSuffix">GeneralSettings!$D$9</definedName>
-    <definedName name="RateHelpers" localSheetId="1">EURSTD!$M$3:$M$91</definedName>
+    <definedName name="RateHelpers" localSheetId="1">EURSTD!$M$3:$M$89</definedName>
+    <definedName name="RateHelpersSTD">EURSTD!$W$3:$W$89</definedName>
     <definedName name="Settlementdate">GeneralSettings!$D$13</definedName>
     <definedName name="Trigger">GeneralSettings!$D$5</definedName>
     <definedName name="YieldCurve_STD">GeneralSettings!$D$18</definedName>
@@ -170,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="117">
   <si>
     <t>3M</t>
   </si>
@@ -499,12 +503,6 @@
     <t>TARGET</t>
   </si>
   <si>
-    <t>4M</t>
-  </si>
-  <si>
-    <t>5M</t>
-  </si>
-  <si>
     <t>Eonia</t>
   </si>
   <si>
@@ -524,6 +522,9 @@
   </si>
   <si>
     <t>30/360 (Bond Basis)</t>
+  </si>
+  <si>
+    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -667,7 +668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -844,32 +845,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -888,7 +863,7 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,44 +1230,6 @@
     <xf numFmtId="172" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="11" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,6 +1262,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="General Settings"/>
+      <sheetName val="Euribor"/>
+      <sheetName val="EuriborSwapIsdaFixA"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="FRA"/>
+      <sheetName val="OIS"/>
+      <sheetName val="ECB OIS"/>
+      <sheetName val="IMM OIS"/>
+      <sheetName val="Futures3M"/>
+      <sheetName val="FuturesHWConvAdj"/>
+      <sheetName val="BasisSwapEON3M"/>
+      <sheetName val="BasisSwap1MxM"/>
+      <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="BasisSwapxM12M"/>
+      <sheetName val="Swaps1M(&lt;1Y)"/>
+      <sheetName val="Swap1M"/>
+      <sheetName val="Swap3M"/>
+      <sheetName val="Swap6M"/>
+      <sheetName val="ForwardSwap6M"/>
+      <sheetName val="SwapsIMMDated"/>
+      <sheetName val="ImmFra6M "/>
+      <sheetName val="ON Basis Swap"/>
+      <sheetName val="1M Basis Swap"/>
+      <sheetName val="3M Basis Swap"/>
+      <sheetName val="6M Basis Swap"/>
+      <sheetName val="1Y Basis Swap"/>
+      <sheetName val="Euribor 3M Time Series"/>
+      <sheetName val="Euribor 6M Time Series"/>
+      <sheetName val="EuriborSwapIsdaFixA1Y"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="13">
+          <cell r="D13" t="str">
+            <v>EURSTD#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1735,7 +1747,7 @@
       </c>
       <c r="D12" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42180</v>
+        <v>42270</v>
       </c>
       <c r="E12" s="80"/>
     </row>
@@ -1746,7 +1758,7 @@
       </c>
       <c r="D13" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"2D","F",,Trigger)</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="E13" s="80"/>
     </row>
@@ -1778,8 +1790,8 @@
         <v>10</v>
       </c>
       <c r="D18" s="41" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D20,D21,Calendar,_xll.ohPack(EURSTD!W3:W91),,,,D22,D23,D24,Permanent,,ObjectOverwrite)</f>
-        <v>_EURSTD#0003</v>
+        <f>_xll.qlPiecewiseYieldCurve(D20,D21,Calendar,_xll.ohPack(RateHelpersSTD),,,,D22,D23,D24,Permanent,,ObjectOverwrite)</f>
+        <v>_EURSTD#0002</v>
       </c>
       <c r="E18" s="42"/>
     </row>
@@ -1857,7 +1869,7 @@
       <c r="B26" s="23"/>
       <c r="C26" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42180</v>
+        <v>42270</v>
       </c>
       <c r="D26" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C26,,Trigger)</f>
@@ -1870,19 +1882,19 @@
       <c r="B27" s="23"/>
       <c r="C27" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>64105</v>
+        <v>64194</v>
       </c>
       <c r="D27" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C27,,Trigger)</f>
-        <v>0.36605036459678048</v>
+        <v>0.40831451668537344</v>
       </c>
       <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="23"/>
       <c r="C28" s="34" t="str">
-        <f>Currency&amp;"STD"</f>
-        <v>EURSTD</v>
+        <f>[1]Euribor!$D$13</f>
+        <v>EURSTD#0000</v>
       </c>
       <c r="D28" s="35" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C28,D18,Trigger)</f>
@@ -1944,7 +1956,7 @@
   <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1984,6 +1996,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="50" t="s">
+        <v>116</v>
+      </c>
       <c r="H1" s="50"/>
       <c r="L1" s="65" t="s">
         <v>25</v>
@@ -1999,7 +2014,7 @@
       <c r="U1" s="89"/>
       <c r="V1" s="73" t="str">
         <f>Currency&amp;$G$1</f>
-        <v>EUR</v>
+        <v>EURSTD</v>
       </c>
       <c r="W1" s="64"/>
       <c r="X1" s="64"/>
@@ -2084,13 +2099,13 @@
         <v>65</v>
       </c>
       <c r="AC2" s="155">
-        <f t="array" ref="AC2:AC91">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
-        <v>-1.1152794816550935E-3</v>
-      </c>
-      <c r="AE2" s="174" t="s">
+        <f t="array" ref="AC2:AC89">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
+        <v>-1.318057935357494E-3</v>
+      </c>
+      <c r="AE2" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" s="175"/>
+      <c r="AF2" s="161"/>
       <c r="AH2" s="156"/>
     </row>
     <row r="3" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2107,16 +2122,16 @@
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
       <c r="G3" s="109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H3" s="117" t="str">
-        <f t="shared" ref="H3:H13" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
+        <f t="shared" ref="H3:H11" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
         <v>EUROND_Quote</v>
       </c>
       <c r="I3" s="120"/>
       <c r="J3" s="110" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ce#0002</v>
+        <v>obj_00575#0001</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="66" t="str">
@@ -2125,7 +2140,7 @@
       </c>
       <c r="M3" s="128" t="str">
         <f>IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_005ce#0002</v>
+        <v>obj_00575#0001</v>
       </c>
       <c r="N3" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
@@ -2133,7 +2148,7 @@
       </c>
       <c r="O3" s="130">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M3,Trigger),"--")</f>
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="P3" s="129" t="b">
         <v>1</v>
@@ -2146,20 +2161,20 @@
       </c>
       <c r="S3" s="131">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42270</v>
       </c>
       <c r="T3" s="131">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42181</v>
-      </c>
-      <c r="U3" s="173"/>
+        <v>42271</v>
+      </c>
+      <c r="U3" s="159"/>
       <c r="V3" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$91,MATCH(X3,$N$3:$N$91,0),1),"")</f>
+        <f t="shared" ref="V3:V34" si="1">IFERROR(INDEX($L$3:$L$89,MATCH(X3,$N$3:$N$89,0),1),"")</f>
         <v>Dp</v>
       </c>
       <c r="W3" s="3" t="str">
-        <f t="array" ref="W3:W91">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_005ce</v>
+        <f t="array" ref="W3:W89">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
+        <v>obj_00575</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -2167,7 +2182,7 @@
       </c>
       <c r="Y3" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="Z3" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -2175,16 +2190,16 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42180</v>
+        <v>42270</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42181</v>
+        <v>42271</v>
       </c>
       <c r="AC3" s="68">
-        <v>-1.1152794816550935E-3</v>
-      </c>
-      <c r="AD3" s="172"/>
+        <v>-1.318057935357494E-3</v>
+      </c>
+      <c r="AD3" s="158"/>
       <c r="AE3" s="103" t="s">
         <v>74</v>
       </c>
@@ -2207,7 +2222,7 @@
       <c r="E4" s="127"/>
       <c r="F4" s="127"/>
       <c r="G4" s="55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H4" s="153" t="str">
         <f t="shared" si="0"/>
@@ -2216,16 +2231,16 @@
       <c r="I4" s="127"/>
       <c r="J4" s="57" t="str">
         <f>_xll.qlFraRateHelper(,H4,"1D",G4,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b1#0002</v>
+        <v>obj_00566#0001</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="9" t="str">
-        <f t="shared" ref="L4:L13" si="1">A4</f>
+        <f t="shared" ref="L4:L11" si="2">A4</f>
         <v>Dp</v>
       </c>
       <c r="M4" s="90" t="str">
-        <f t="shared" ref="M4:M13" si="2">IF(ISBLANK(J4),"--",J4)</f>
-        <v>obj_005b1#0002</v>
+        <f t="shared" ref="M4:M11" si="3">IF(ISBLANK(J4),"--",J4)</f>
+        <v>obj_00566#0001</v>
       </c>
       <c r="N4" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M4,Trigger),"--")</f>
@@ -2233,7 +2248,7 @@
       </c>
       <c r="O4" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M4,Trigger),"--")</f>
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="P4" s="93" t="b">
         <v>1</v>
@@ -2246,19 +2261,19 @@
       </c>
       <c r="S4" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M4,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42271</v>
       </c>
       <c r="T4" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M4,Trigger),"--")</f>
-        <v>42184</v>
-      </c>
-      <c r="U4" s="173"/>
+        <v>42272</v>
+      </c>
+      <c r="U4" s="159"/>
       <c r="V4" s="3" t="str">
-        <f t="shared" ref="V4:V67" si="3">IFERROR(INDEX($L$3:$L$91,MATCH(X4,$N$3:$N$91,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W4" s="3" t="str">
-        <v>obj_005b1</v>
+        <v>obj_00566</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -2266,7 +2281,7 @@
       </c>
       <c r="Y4" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="Z4" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -2274,16 +2289,16 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42181</v>
+        <v>42271</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AC4" s="68">
-        <v>-1.1152820375458471E-3</v>
-      </c>
-      <c r="AD4" s="172"/>
+        <v>-1.3180579353314684E-3</v>
+      </c>
+      <c r="AD4" s="158"/>
       <c r="AE4" s="103" t="s">
         <v>75</v>
       </c>
@@ -2306,7 +2321,7 @@
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
       <c r="G5" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H5" s="119" t="str">
         <f t="shared" si="0"/>
@@ -2315,16 +2330,16 @@
       <c r="I5" s="122"/>
       <c r="J5" s="2" t="str">
         <f>_xll.qlFraRateHelper(,H5,"2D",G5,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d0#0002</v>
+        <v>obj_00574#0001</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M5" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_005d0#0002</v>
+        <f t="shared" si="3"/>
+        <v>obj_00574#0001</v>
       </c>
       <c r="N5" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
@@ -2332,7 +2347,7 @@
       </c>
       <c r="O5" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M5,Trigger),"--")</f>
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="P5" s="93" t="b">
         <v>1</v>
@@ -2345,19 +2360,19 @@
       </c>
       <c r="S5" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T5" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
-        <v>42185</v>
-      </c>
-      <c r="U5" s="173"/>
+        <v>42275</v>
+      </c>
+      <c r="U5" s="159"/>
       <c r="V5" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W5" s="3" t="str">
-        <v>obj_005d0</v>
+        <v>obj_00574</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -2365,7 +2380,7 @@
       </c>
       <c r="Y5" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="Z5" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -2373,16 +2388,16 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42185</v>
+        <v>42275</v>
       </c>
       <c r="AC5" s="68">
-        <v>-1.1152815263657668E-3</v>
-      </c>
-      <c r="AD5" s="172"/>
+        <v>-1.318060791188344E-3</v>
+      </c>
+      <c r="AD5" s="158"/>
       <c r="AE5" s="103" t="s">
         <v>76</v>
       </c>
@@ -2406,7 +2421,7 @@
       <c r="E6" s="121"/>
       <c r="F6" s="121"/>
       <c r="G6" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;C6</f>
+        <f t="shared" ref="G6:G11" si="5">PROPER(Currency)&amp;FamilyName&amp;C6</f>
         <v>EuriborSW</v>
       </c>
       <c r="H6" s="118" t="str">
@@ -2416,16 +2431,16 @@
       <c r="I6" s="121"/>
       <c r="J6" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d1#0002</v>
+        <v>obj_00576#0001</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M6" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_005d1#0002</v>
+        <f t="shared" si="3"/>
+        <v>obj_00576#0001</v>
       </c>
       <c r="N6" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -2433,7 +2448,7 @@
       </c>
       <c r="O6" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M6,Trigger),"--")</f>
-        <v>-1.1899999999999999E-3</v>
+        <v>-1.4099999999999998E-3</v>
       </c>
       <c r="P6" s="93" t="b">
         <v>1</v>
@@ -2446,19 +2461,19 @@
       </c>
       <c r="S6" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T6" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42191</v>
-      </c>
-      <c r="U6" s="173"/>
+        <v>42279</v>
+      </c>
+      <c r="U6" s="159"/>
       <c r="V6" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_005d1</v>
+        <v>obj_00576</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -2466,7 +2481,7 @@
       </c>
       <c r="Y6" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>-1.1899999999999999E-3</v>
+        <v>-1.4099999999999998E-3</v>
       </c>
       <c r="Z6" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -2474,16 +2489,16 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42191</v>
+        <v>42279</v>
       </c>
       <c r="AC6" s="68">
-        <v>-1.1733563916430565E-3</v>
-      </c>
-      <c r="AD6" s="172"/>
+        <v>-1.4048151541028934E-3</v>
+      </c>
+      <c r="AD6" s="158"/>
       <c r="AE6" s="103" t="s">
         <v>77</v>
       </c>
@@ -2507,7 +2522,7 @@
       <c r="E7" s="121"/>
       <c r="F7" s="121"/>
       <c r="G7" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;C7</f>
+        <f t="shared" si="5"/>
         <v>Euribor1M</v>
       </c>
       <c r="H7" s="118" t="str">
@@ -2517,16 +2532,16 @@
       <c r="I7" s="121"/>
       <c r="J7" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d2#0002</v>
+        <v>obj_00573#0001</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M7" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_005d2#0002</v>
+        <f t="shared" si="3"/>
+        <v>obj_00573#0001</v>
       </c>
       <c r="N7" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -2534,7 +2549,7 @@
       </c>
       <c r="O7" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>-6.5999999999999989E-4</v>
+        <v>-1.0700000000000002E-3</v>
       </c>
       <c r="P7" s="93" t="b">
         <v>1</v>
@@ -2547,19 +2562,19 @@
       </c>
       <c r="S7" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T7" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42214</v>
-      </c>
-      <c r="U7" s="173"/>
+        <v>42303</v>
+      </c>
+      <c r="U7" s="159"/>
       <c r="V7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W7" s="3" t="str">
-        <v>obj_005d2</v>
+        <v>obj_00573</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -2567,7 +2582,7 @@
       </c>
       <c r="Y7" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>-6.5999999999999989E-4</v>
+        <v>-1.0700000000000002E-3</v>
       </c>
       <c r="Z7" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -2575,16 +2590,16 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42214</v>
+        <v>42303</v>
       </c>
       <c r="AC7" s="68">
-        <v>-7.2166706567354099E-4</v>
-      </c>
-      <c r="AD7" s="172"/>
+        <v>-1.0990412047792346E-3</v>
+      </c>
+      <c r="AD7" s="158"/>
       <c r="AH7" s="156"/>
     </row>
     <row r="8" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2602,7 +2617,7 @@
       <c r="E8" s="121"/>
       <c r="F8" s="121"/>
       <c r="G8" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;C8</f>
+        <f t="shared" si="5"/>
         <v>Euribor2M</v>
       </c>
       <c r="H8" s="118" t="str">
@@ -2612,16 +2627,16 @@
       <c r="I8" s="121"/>
       <c r="J8" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cf#0002</v>
+        <v>obj_00572#0001</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M8" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_005cf#0002</v>
+        <f t="shared" si="3"/>
+        <v>obj_00572#0001</v>
       </c>
       <c r="N8" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -2629,7 +2644,7 @@
       </c>
       <c r="O8" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>-3.7999999999999997E-4</v>
+        <v>-6.5999999999999989E-4</v>
       </c>
       <c r="P8" s="93" t="b">
         <v>1</v>
@@ -2642,19 +2657,19 @@
       </c>
       <c r="S8" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T8" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42247</v>
-      </c>
-      <c r="U8" s="173"/>
+        <v>42333</v>
+      </c>
+      <c r="U8" s="159"/>
       <c r="V8" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W8" s="3" t="str">
-        <v>obj_005cf</v>
+        <v>obj_00572</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -2662,7 +2677,7 @@
       </c>
       <c r="Y8" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>-3.7999999999999997E-4</v>
+        <v>-6.5999999999999989E-4</v>
       </c>
       <c r="Z8" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -2670,16 +2685,16 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42247</v>
+        <v>42333</v>
       </c>
       <c r="AC8" s="68">
-        <v>-4.2887216785873473E-4</v>
-      </c>
-      <c r="AD8" s="172"/>
+        <v>-6.8980262189384013E-4</v>
+      </c>
+      <c r="AD8" s="158"/>
       <c r="AH8" s="156"/>
     </row>
     <row r="9" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2697,7 +2712,7 @@
       <c r="E9" s="121"/>
       <c r="F9" s="121"/>
       <c r="G9" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;C9</f>
+        <f t="shared" si="5"/>
         <v>Euribor3M</v>
       </c>
       <c r="H9" s="118" t="str">
@@ -2707,16 +2722,16 @@
       <c r="I9" s="121"/>
       <c r="J9" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a7#0002</v>
+        <v>obj_0054f#0001</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M9" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_005a7#0002</v>
+        <f t="shared" si="3"/>
+        <v>obj_0054f#0001</v>
       </c>
       <c r="N9" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -2724,7 +2739,7 @@
       </c>
       <c r="O9" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>-1.4999999999999999E-4</v>
+        <v>-3.8999999999999999E-4</v>
       </c>
       <c r="P9" s="93" t="b">
         <v>1</v>
@@ -2737,19 +2752,19 @@
       </c>
       <c r="S9" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T9" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42276</v>
-      </c>
-      <c r="U9" s="173"/>
+        <v>42366</v>
+      </c>
+      <c r="U9" s="159"/>
       <c r="V9" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W9" s="3" t="str">
-        <v>obj_005a7</v>
+        <v>obj_0054f</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -2757,7 +2772,7 @@
       </c>
       <c r="Y9" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>-1.4999999999999999E-4</v>
+        <v>-3.8999999999999999E-4</v>
       </c>
       <c r="Z9" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -2765,94 +2780,96 @@
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42276</v>
+        <v>42366</v>
       </c>
       <c r="AC9" s="68">
-        <v>-1.9221940622190793E-4</v>
-      </c>
-      <c r="AD9" s="172"/>
+        <v>-4.1465807495714882E-4</v>
+      </c>
+      <c r="AD9" s="158"/>
       <c r="AH9" s="156"/>
     </row>
     <row r="10" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="159" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="160" t="str">
-        <f t="shared" ref="C10:C13" si="5">B10</f>
-        <v>4M</v>
-      </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162" t="str">
-        <f>_xll.qlEuribor(,C10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a3#0002</v>
-      </c>
-      <c r="H10" s="163" t="str">
+      <c r="B10" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="61" t="str">
+        <f t="shared" ref="C10:C11" si="6">B10</f>
+        <v>6M</v>
+      </c>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="60" t="str">
+        <f t="shared" si="5"/>
+        <v>Euribor6M</v>
+      </c>
+      <c r="H10" s="118" t="str">
         <f t="shared" si="0"/>
-        <v>EUR4MD_Quote</v>
-      </c>
-      <c r="I10" s="161"/>
-      <c r="J10" s="164" t="str">
+        <v>EUR6MD_Quote</v>
+      </c>
+      <c r="I10" s="121"/>
+      <c r="J10" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a5#0002</v>
-      </c>
-      <c r="K10" s="48"/>
+        <v>obj_0054e#0001</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="L10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Dp</v>
+      </c>
+      <c r="M10" s="90" t="str">
+        <f t="shared" si="3"/>
+        <v>obj_0054e#0001</v>
+      </c>
+      <c r="N10" s="143" t="str">
+        <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
+        <v>EUR6MD_Quote</v>
+      </c>
+      <c r="O10" s="94">
+        <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
+        <v>3.2999999999999994E-4</v>
+      </c>
+      <c r="P10" s="93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="90">
+        <v>10</v>
+      </c>
+      <c r="R10" s="90">
+        <v>1</v>
+      </c>
+      <c r="S10" s="95">
+        <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
+        <v>42272</v>
+      </c>
+      <c r="T10" s="95">
+        <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
+        <v>42458</v>
+      </c>
+      <c r="U10" s="159"/>
+      <c r="V10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
-      <c r="M10" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_005a5#0002</v>
-      </c>
-      <c r="N10" s="143" t="str">
-        <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
-        <v>EUR4MD_Quote</v>
-      </c>
-      <c r="O10" s="94">
-        <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="90">
-        <v>10</v>
-      </c>
-      <c r="R10" s="90">
-        <v>1</v>
-      </c>
-      <c r="S10" s="95">
-        <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42184</v>
-      </c>
-      <c r="T10" s="95">
-        <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42306</v>
-      </c>
-      <c r="U10" s="173"/>
-      <c r="V10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Dp</v>
-      </c>
       <c r="W10" s="3" t="str">
-        <v>obj_005a5</v>
+        <v>obj_0054e</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
-        <v>EUR4MD_Quote</v>
+        <v>EUR6MD_Quote</v>
       </c>
       <c r="Y10" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>0</v>
+        <v>3.2999999999999994E-4</v>
       </c>
       <c r="Z10" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -2860,94 +2877,91 @@
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42306</v>
+        <v>42458</v>
       </c>
       <c r="AC10" s="68">
-        <v>-3.5405778969343128E-5</v>
-      </c>
-      <c r="AD10" s="172"/>
+        <v>3.1697382665782522E-4</v>
+      </c>
+      <c r="AD10" s="158"/>
       <c r="AH10" s="156"/>
     </row>
     <row r="11" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="167" t="str">
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>1Y</v>
+      </c>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>5M</v>
-      </c>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="169" t="str">
-        <f>_xll.qlEuribor(,C11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a4#0002</v>
-      </c>
-      <c r="H11" s="170" t="str">
+        <v>Euribor1Y</v>
+      </c>
+      <c r="H11" s="119" t="str">
         <f t="shared" si="0"/>
-        <v>EUR5MD_Quote</v>
-      </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="171" t="str">
-        <f>_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a6#0002</v>
-      </c>
+        <v>EUR1YD_Quote</v>
+      </c>
+      <c r="I11" s="122"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="9" t="str">
+      <c r="L11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Dp</v>
+      </c>
+      <c r="M11" s="91" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="N11" s="144" t="str">
+        <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="O11" s="97" t="str">
+        <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="P11" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="91">
+        <v>10</v>
+      </c>
+      <c r="R11" s="91">
+        <v>1</v>
+      </c>
+      <c r="S11" s="98" t="str">
+        <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="T11" s="98" t="str">
+        <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="U11" s="159"/>
+      <c r="V11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Dp</v>
-      </c>
-      <c r="M11" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_005a6#0002</v>
-      </c>
-      <c r="N11" s="143" t="str">
-        <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
-        <v>EUR5MD_Quote</v>
-      </c>
-      <c r="O11" s="94">
-        <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="90">
-        <v>10</v>
-      </c>
-      <c r="R11" s="90">
-        <v>1</v>
-      </c>
-      <c r="S11" s="95">
-        <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42184</v>
-      </c>
-      <c r="T11" s="95">
-        <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42338</v>
-      </c>
-      <c r="U11" s="173"/>
-      <c r="V11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Dp</v>
+        <v>FRA</v>
       </c>
       <c r="W11" s="3" t="str">
-        <v>obj_005a6</v>
+        <v>obj_0054c</v>
       </c>
       <c r="X11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
-        <v>EUR5MD_Quote</v>
+        <v>EUR6x12F_Quote</v>
       </c>
       <c r="Y11" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>0</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="Z11" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -2955,66 +2969,47 @@
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42184</v>
+        <v>42458</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42338</v>
+        <v>42639</v>
       </c>
       <c r="AC11" s="68">
-        <v>-2.8234988291877234E-5</v>
-      </c>
-      <c r="AD11" s="172"/>
+        <v>2.845272062160261E-4</v>
+      </c>
+      <c r="AD11" s="158"/>
       <c r="AH11" s="156"/>
     </row>
     <row r="12" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="61" t="str">
-        <f t="shared" si="5"/>
-        <v>6M</v>
-      </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;C12</f>
-        <v>Euribor6M</v>
-      </c>
-      <c r="H12" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR6MD_Quote</v>
-      </c>
-      <c r="I12" s="121"/>
-      <c r="J12" s="62" t="str">
-        <f>_xll.qlDepositRateHelper(,H12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a2#0002</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>36</v>
-      </c>
+      <c r="H12" s="47"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Dp</v>
+        <f>A14</f>
+        <v>FRA</v>
       </c>
       <c r="M12" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_005a2#0002</v>
+        <f>IF(ISBLANK(J14),"--",J14)</f>
+        <v>--</v>
       </c>
       <c r="N12" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
-        <v>EUR6MD_Quote</v>
-      </c>
-      <c r="O12" s="94">
+        <v>--</v>
+      </c>
+      <c r="O12" s="94" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>4.8999999999999998E-4</v>
+        <v>--</v>
       </c>
       <c r="P12" s="93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="90">
         <v>10</v>
@@ -3022,29 +3017,28 @@
       <c r="R12" s="90">
         <v>1</v>
       </c>
-      <c r="S12" s="95">
+      <c r="S12" s="95" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42184</v>
-      </c>
-      <c r="T12" s="95">
+        <v>--</v>
+      </c>
+      <c r="T12" s="95" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42367</v>
-      </c>
-      <c r="U12" s="173"/>
+        <v>--</v>
+      </c>
       <c r="V12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Dp</v>
+        <f t="shared" si="1"/>
+        <v>FRA</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_005a2</v>
+        <v>obj_0054b</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
-        <v>EUR6MD_Quote</v>
+        <v>EUR7x13F_Quote</v>
       </c>
       <c r="Y12" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>4.8999999999999998E-4</v>
+        <v>2.7000000000000006E-4</v>
       </c>
       <c r="Z12" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -3052,91 +3046,89 @@
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42184</v>
+        <v>42485</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>42367</v>
+        <v>42668</v>
       </c>
       <c r="AC12" s="68">
-        <v>4.6226185890884276E-4</v>
-      </c>
-      <c r="AD12" s="172"/>
+        <v>2.9447628859980655E-4</v>
+      </c>
+      <c r="AD12" s="158"/>
       <c r="AH12" s="156"/>
     </row>
     <row r="13" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>1Y</v>
-      </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;C13</f>
-        <v>Euribor1Y</v>
-      </c>
-      <c r="H13" s="119" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR1YD_Quote</v>
-      </c>
-      <c r="I13" s="122"/>
-      <c r="J13" s="2"/>
+      <c r="A13" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63" t="s">
+        <v>25</v>
+      </c>
       <c r="K13" s="48"/>
-      <c r="L13" s="10" t="str">
+      <c r="L13" s="9" t="str">
+        <f t="shared" ref="L13:L29" si="7">A15</f>
+        <v>FRA</v>
+      </c>
+      <c r="M13" s="90" t="str">
+        <f t="shared" ref="M13:M29" si="8">IF(ISBLANK(J15),"--",J15)</f>
+        <v>--</v>
+      </c>
+      <c r="N13" s="143" t="str">
+        <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="O13" s="94" t="str">
+        <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="P13" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="90">
+        <v>10</v>
+      </c>
+      <c r="R13" s="90">
+        <v>1</v>
+      </c>
+      <c r="S13" s="95" t="str">
+        <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="T13" s="95" t="str">
+        <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="V13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Dp</v>
-      </c>
-      <c r="M13" s="91" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="N13" s="144" t="str">
-        <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O13" s="97" t="str">
-        <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="P13" s="96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="91">
-        <v>10</v>
-      </c>
-      <c r="R13" s="91">
-        <v>1</v>
-      </c>
-      <c r="S13" s="98" t="str">
-        <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T13" s="98" t="str">
-        <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U13" s="173"/>
-      <c r="V13" s="3" t="str">
-        <f t="shared" si="3"/>
         <v>FRA</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_005a0</v>
+        <v>obj_0054a</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
-        <v>EUR6x12F_Quote</v>
+        <v>EUR8x14F_Quote</v>
       </c>
       <c r="Y13" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>8.8999999999999995E-4</v>
+        <v>2.8000000000000003E-4</v>
       </c>
       <c r="Z13" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -3144,35 +3136,49 @@
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42367</v>
+        <v>42515</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>42550</v>
+        <v>42699</v>
       </c>
       <c r="AC13" s="68">
-        <v>6.7983164313116333E-4</v>
-      </c>
-      <c r="AD13" s="172"/>
+        <v>2.9693938561244022E-4</v>
+      </c>
+      <c r="AD13" s="158"/>
       <c r="AH13" s="156"/>
     </row>
     <row r="14" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="47"/>
+      <c r="A14" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="111">
+        <v>1</v>
+      </c>
+      <c r="C14" s="56" t="str">
+        <f t="shared" ref="C14:C31" si="9">"x"&amp;B14+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <v>x7F</v>
+      </c>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="55" t="str">
+        <f t="shared" ref="G14:G31" si="10">PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="H14" s="114" t="str">
+        <f t="shared" ref="H14:H31" si="11">Currency&amp;B14&amp;C14&amp;QuoteSuffix</f>
+        <v>EUR1x7F_Quote</v>
+      </c>
+      <c r="I14" s="127"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="48"/>
       <c r="L14" s="9" t="str">
-        <f>A16</f>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M14" s="90" t="str">
-        <f>IF(ISBLANK(J16),"--",J16)</f>
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
       <c r="N14" s="143" t="str">
@@ -3201,19 +3207,19 @@
         <v>--</v>
       </c>
       <c r="V14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_0059c</v>
+        <v>obj_00546</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
-        <v>EUR7x13F_Quote</v>
+        <v>EUR9x15F_Quote</v>
       </c>
       <c r="Y14" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>9.3999999999999997E-4</v>
+        <v>3.0999999999999995E-4</v>
       </c>
       <c r="Z14" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -3221,48 +3227,49 @@
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42398</v>
+        <v>42548</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>42580</v>
+        <v>42731</v>
       </c>
       <c r="AC14" s="68">
-        <v>7.0555655136515056E-4</v>
-      </c>
-      <c r="AD14" s="172"/>
+        <v>3.0617558809858079E-4</v>
+      </c>
+      <c r="AD14" s="158"/>
       <c r="AH14" s="156"/>
     </row>
     <row r="15" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="63" t="s">
+      <c r="A15" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63" t="s">
-        <v>25</v>
-      </c>
+      <c r="B15" s="112">
+        <v>2</v>
+      </c>
+      <c r="C15" s="61" t="str">
+        <f t="shared" si="9"/>
+        <v>x8F</v>
+      </c>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="60" t="str">
+        <f t="shared" si="10"/>
+        <v>Euribor6M</v>
+      </c>
+      <c r="H15" s="115" t="str">
+        <f t="shared" si="11"/>
+        <v>EUR2x8F_Quote</v>
+      </c>
+      <c r="I15" s="121"/>
+      <c r="J15" s="62"/>
       <c r="K15" s="48"/>
       <c r="L15" s="9" t="str">
-        <f t="shared" ref="L15:L31" si="6">A17</f>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M15" s="90" t="str">
-        <f t="shared" ref="M15:M31" si="7">IF(ISBLANK(J17),"--",J17)</f>
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
       <c r="N15" s="143" t="str">
@@ -3291,19 +3298,19 @@
         <v>--</v>
       </c>
       <c r="V15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W15" s="3" t="str">
-        <v>obj_0059e</v>
+        <v>obj_0054d</v>
       </c>
       <c r="X15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
-        <v>EUR8x14F_Quote</v>
+        <v>EUR10x16F_Quote</v>
       </c>
       <c r="Y15" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>1E-3</v>
+        <v>3.5999999999999997E-4</v>
       </c>
       <c r="Z15" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -3311,49 +3318,49 @@
       </c>
       <c r="AA15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42429</v>
+        <v>42576</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>42611</v>
+        <v>42760</v>
       </c>
       <c r="AC15" s="68">
-        <v>7.3672804563708956E-4</v>
-      </c>
-      <c r="AD15" s="172"/>
+        <v>3.2178567503361147E-4</v>
+      </c>
+      <c r="AD15" s="158"/>
       <c r="AH15" s="156"/>
     </row>
     <row r="16" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="111">
-        <v>1</v>
-      </c>
-      <c r="C16" s="56" t="str">
-        <f>"x"&amp;B16+SUBSTITUTE($G$14,"M","")&amp;"F"</f>
-        <v>x7F</v>
-      </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="55" t="str">
-        <f t="shared" ref="G16:G33" si="8">PROPER(Currency)&amp;FamilyName&amp;$G$14</f>
+      <c r="A16" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="112">
+        <v>3</v>
+      </c>
+      <c r="C16" s="61" t="str">
+        <f t="shared" si="9"/>
+        <v>x9F</v>
+      </c>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="60" t="str">
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
-      <c r="H16" s="114" t="str">
-        <f t="shared" ref="H16:H33" si="9">Currency&amp;B16&amp;C16&amp;QuoteSuffix</f>
-        <v>EUR1x7F_Quote</v>
-      </c>
-      <c r="I16" s="127"/>
-      <c r="J16" s="57"/>
+      <c r="H16" s="115" t="str">
+        <f t="shared" si="11"/>
+        <v>EUR3x9F_Quote</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="48"/>
       <c r="L16" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M16" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
       <c r="N16" s="143" t="str">
@@ -3382,19 +3389,19 @@
         <v>--</v>
       </c>
       <c r="V16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W16" s="3" t="str">
-        <v>obj_0059f</v>
+        <v>obj_00549</v>
       </c>
       <c r="X16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
-        <v>EUR9x15F_Quote</v>
+        <v>EUR11x17F_Quote</v>
       </c>
       <c r="Y16" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>1.06E-3</v>
+        <v>4.0999999999999994E-4</v>
       </c>
       <c r="Z16" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -3402,61 +3409,61 @@
       </c>
       <c r="AA16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42458</v>
+        <v>42607</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>42642</v>
+        <v>42793</v>
       </c>
       <c r="AC16" s="68">
-        <v>7.7117116690948847E-4</v>
-      </c>
-      <c r="AD16" s="172"/>
+        <v>3.3485625176862805E-4</v>
+      </c>
+      <c r="AD16" s="158"/>
       <c r="AH16" s="156"/>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="61" t="str">
-        <f t="shared" ref="C17:C33" si="10">"x"&amp;B17+SUBSTITUTE($G$14,"M","")&amp;"F"</f>
-        <v>x8F</v>
+        <f t="shared" si="9"/>
+        <v>x10F</v>
       </c>
       <c r="D17" s="121"/>
       <c r="E17" s="121"/>
       <c r="F17" s="121"/>
       <c r="G17" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H17" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR2x8F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR4x10F_Quote</v>
       </c>
       <c r="I17" s="121"/>
       <c r="J17" s="62"/>
       <c r="K17" s="48"/>
       <c r="L17" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M17" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>--</v>
+        <f t="shared" si="8"/>
+        <v>obj_0054c#0001</v>
       </c>
       <c r="N17" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O17" s="94" t="str">
+        <v>EUR6x12F_Quote</v>
+      </c>
+      <c r="O17" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>--</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="P17" s="93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="90">
         <v>10</v>
@@ -3464,28 +3471,28 @@
       <c r="R17" s="90">
         <v>1</v>
       </c>
-      <c r="S17" s="95" t="str">
+      <c r="S17" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T17" s="95" t="str">
+        <v>42458</v>
+      </c>
+      <c r="T17" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>--</v>
+        <v>42639</v>
       </c>
       <c r="V17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W17" s="3" t="str">
-        <v>obj_005a1</v>
+        <v>obj_00547</v>
       </c>
       <c r="X17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
-        <v>EUR10x16F_Quote</v>
+        <v>EUR12x18F_Quote</v>
       </c>
       <c r="Y17" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.15E-3</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="Z17" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -3493,61 +3500,61 @@
       </c>
       <c r="AA17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42489</v>
+        <v>42639</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>42674</v>
+        <v>42821</v>
       </c>
       <c r="AC17" s="68">
-        <v>8.163956242380042E-4</v>
-      </c>
-      <c r="AD17" s="172"/>
+        <v>3.4792793558608895E-4</v>
+      </c>
+      <c r="AD17" s="158"/>
       <c r="AH17" s="156"/>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x9F</v>
+        <f t="shared" si="9"/>
+        <v>x11F</v>
       </c>
       <c r="D18" s="121"/>
       <c r="E18" s="121"/>
       <c r="F18" s="121"/>
       <c r="G18" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H18" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR3x9F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR5x11F_Quote</v>
       </c>
       <c r="I18" s="121"/>
       <c r="J18" s="62"/>
       <c r="K18" s="48"/>
       <c r="L18" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M18" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>--</v>
+        <f t="shared" si="8"/>
+        <v>obj_0054b#0001</v>
       </c>
       <c r="N18" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O18" s="94" t="str">
+        <v>EUR7x13F_Quote</v>
+      </c>
+      <c r="O18" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>--</v>
+        <v>2.7000000000000006E-4</v>
       </c>
       <c r="P18" s="93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="90">
         <v>10</v>
@@ -3555,28 +3562,28 @@
       <c r="R18" s="90">
         <v>1</v>
       </c>
-      <c r="S18" s="95" t="str">
+      <c r="S18" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T18" s="95" t="str">
+        <v>42485</v>
+      </c>
+      <c r="T18" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>--</v>
+        <v>42668</v>
       </c>
       <c r="V18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W18" s="3" t="str">
-        <v>obj_0059a</v>
+        <v>obj_00548</v>
       </c>
       <c r="X18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
-        <v>EUR11x17F_Quote</v>
+        <v>EUR15x21F_Quote</v>
       </c>
       <c r="Y18" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.23E-3</v>
+        <v>7.6000000000000015E-4</v>
       </c>
       <c r="Z18" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -3584,58 +3591,61 @@
       </c>
       <c r="AA18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42520</v>
+        <v>42731</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>42703</v>
+        <v>42912</v>
       </c>
       <c r="AC18" s="68">
-        <v>8.5417987555130805E-4</v>
-      </c>
-      <c r="AD18" s="172"/>
+        <v>4.3617103811774817E-4</v>
+      </c>
+      <c r="AD18" s="158"/>
       <c r="AH18" s="156"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="112">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x10F</v>
+        <f t="shared" si="9"/>
+        <v>x12F</v>
       </c>
       <c r="D19" s="121"/>
       <c r="E19" s="121"/>
       <c r="F19" s="121"/>
       <c r="G19" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H19" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR4x10F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR6x12F_Quote</v>
       </c>
       <c r="I19" s="121"/>
-      <c r="J19" s="62"/>
+      <c r="J19" s="62" t="str">
+        <f>_xll.qlFraRateHelper(,H19,B19&amp;"M",G19,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0054c#0001</v>
+      </c>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M19" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>obj_005a0#0002</v>
+        <f t="shared" si="8"/>
+        <v>obj_0054a#0001</v>
       </c>
       <c r="N19" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
-        <v>EUR6x12F_Quote</v>
+        <v>EUR8x14F_Quote</v>
       </c>
       <c r="O19" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>8.8999999999999995E-4</v>
+        <v>2.8000000000000003E-4</v>
       </c>
       <c r="P19" s="93" t="b">
         <v>1</v>
@@ -3648,85 +3658,88 @@
       </c>
       <c r="S19" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>42367</v>
+        <v>42515</v>
       </c>
       <c r="T19" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>42550</v>
+        <v>42699</v>
       </c>
       <c r="V19" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>FRA</v>
+        <f t="shared" si="1"/>
+        <v>Sw</v>
       </c>
       <c r="W19" s="3" t="str">
-        <v>obj_0059b</v>
+        <v>obj_00563</v>
       </c>
       <c r="X19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
-        <v>EUR12x18F_Quote</v>
+        <v>EURAB6E2Y_Quote</v>
       </c>
       <c r="Y19" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>1.33E-3</v>
-      </c>
-      <c r="Z19" s="100" t="str">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="Z19" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42550</v>
+        <v>42272</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>42733</v>
+        <v>43003</v>
       </c>
       <c r="AC19" s="68">
-        <v>9.0094890329435386E-4</v>
-      </c>
-      <c r="AD19" s="172"/>
+        <v>5.6398778210864538E-4</v>
+      </c>
+      <c r="AD19" s="158"/>
       <c r="AH19" s="156"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B20" s="112">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x11F</v>
+        <f t="shared" si="9"/>
+        <v>x13F</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
       <c r="F20" s="121"/>
       <c r="G20" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H20" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR5x11F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR7x13F_Quote</v>
       </c>
       <c r="I20" s="121"/>
-      <c r="J20" s="62"/>
+      <c r="J20" s="62" t="str">
+        <f>_xll.qlFraRateHelper(,H20,B20&amp;"M",G20,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0054b#0001</v>
+      </c>
       <c r="K20" s="48"/>
       <c r="L20" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M20" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>obj_0059c#0002</v>
+        <f t="shared" si="8"/>
+        <v>obj_00546#0001</v>
       </c>
       <c r="N20" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
-        <v>EUR7x13F_Quote</v>
+        <v>EUR9x15F_Quote</v>
       </c>
       <c r="O20" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>9.3999999999999997E-4</v>
+        <v>3.0999999999999995E-4</v>
       </c>
       <c r="P20" s="93" t="b">
         <v>1</v>
@@ -3739,88 +3752,88 @@
       </c>
       <c r="S20" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42398</v>
+        <v>42548</v>
       </c>
       <c r="T20" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>42580</v>
+        <v>42731</v>
       </c>
       <c r="V20" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>FRA</v>
+        <f t="shared" si="1"/>
+        <v>Sw</v>
       </c>
       <c r="W20" s="3" t="str">
-        <v>obj_0059d</v>
+        <v>obj_00551</v>
       </c>
       <c r="X20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
-        <v>EUR15x21F_Quote</v>
+        <v>EURAB6E3Y_Quote</v>
       </c>
       <c r="Y20" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>1.7399999999999998E-3</v>
-      </c>
-      <c r="Z20" s="100" t="str">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="Z20" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42642</v>
+        <v>42272</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>42823</v>
+        <v>43368</v>
       </c>
       <c r="AC20" s="68">
-        <v>1.0504753559058514E-3</v>
-      </c>
-      <c r="AD20" s="172"/>
+        <v>1.2743102179329309E-3</v>
+      </c>
+      <c r="AD20" s="158"/>
       <c r="AH20" s="156"/>
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B21" s="112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x12F</v>
+        <f t="shared" si="9"/>
+        <v>x14F</v>
       </c>
       <c r="D21" s="121"/>
       <c r="E21" s="121"/>
       <c r="F21" s="121"/>
       <c r="G21" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H21" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR6x12F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR8x14F_Quote</v>
       </c>
       <c r="I21" s="121"/>
       <c r="J21" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H21,B21&amp;"M",G21,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a0#0002</v>
+        <v>obj_0054a#0001</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M21" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>obj_0059e#0002</v>
+        <f t="shared" si="8"/>
+        <v>obj_0054d#0001</v>
       </c>
       <c r="N21" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
-        <v>EUR8x14F_Quote</v>
+        <v>EUR10x16F_Quote</v>
       </c>
       <c r="O21" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M21,Trigger),"--")</f>
-        <v>1E-3</v>
+        <v>3.5999999999999997E-4</v>
       </c>
       <c r="P21" s="93" t="b">
         <v>1</v>
@@ -3833,26 +3846,26 @@
       </c>
       <c r="S21" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>42429</v>
+        <v>42576</v>
       </c>
       <c r="T21" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
-        <v>42611</v>
+        <v>42760</v>
       </c>
       <c r="V21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W21" s="3" t="str">
-        <v>obj_005c7</v>
+        <v>obj_00552</v>
       </c>
       <c r="X21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
-        <v>EURAB6E2Y_Quote</v>
+        <v>EURAB6E4Y_Quote</v>
       </c>
       <c r="Y21" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>1.2900000000000001E-3</v>
+        <v>2.3899999999999998E-3</v>
       </c>
       <c r="Z21" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
@@ -3860,61 +3873,61 @@
       </c>
       <c r="AA21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>42915</v>
+        <v>43733</v>
       </c>
       <c r="AC21" s="68">
-        <v>1.2747059118547828E-3</v>
-      </c>
-      <c r="AD21" s="172"/>
+        <v>2.3858676021284993E-3</v>
+      </c>
+      <c r="AD21" s="158"/>
       <c r="AH21" s="156"/>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="112">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x13F</v>
+        <f t="shared" si="9"/>
+        <v>x15F</v>
       </c>
       <c r="D22" s="121"/>
       <c r="E22" s="121"/>
       <c r="F22" s="121"/>
       <c r="G22" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H22" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR7x13F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR9x15F_Quote</v>
       </c>
       <c r="I22" s="121"/>
       <c r="J22" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H22,B22&amp;"M",G22,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059c#0002</v>
+        <v>obj_00546#0001</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M22" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>obj_0059f#0002</v>
+        <f t="shared" si="8"/>
+        <v>obj_00549#0001</v>
       </c>
       <c r="N22" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M22,Trigger),"--")</f>
-        <v>EUR9x15F_Quote</v>
+        <v>EUR11x17F_Quote</v>
       </c>
       <c r="O22" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M22,Trigger),"--")</f>
-        <v>1.06E-3</v>
+        <v>4.0999999999999994E-4</v>
       </c>
       <c r="P22" s="93" t="b">
         <v>1</v>
@@ -3927,26 +3940,26 @@
       </c>
       <c r="S22" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M22,Trigger),"--")</f>
-        <v>42458</v>
+        <v>42607</v>
       </c>
       <c r="T22" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M22,Trigger),"--")</f>
-        <v>42642</v>
+        <v>42793</v>
       </c>
       <c r="V22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W22" s="3" t="str">
-        <v>obj_005a8</v>
+        <v>obj_00558</v>
       </c>
       <c r="X22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
-        <v>EURAB6E3Y_Quote</v>
+        <v>EURAB6E5Y_Quote</v>
       </c>
       <c r="Y22" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>2.32E-3</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="Z22" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
@@ -3954,61 +3967,61 @@
       </c>
       <c r="AA22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>43280</v>
+        <v>44099</v>
       </c>
       <c r="AC22" s="68">
-        <v>2.3055560461995714E-3</v>
-      </c>
-      <c r="AD22" s="172"/>
+        <v>3.6799743322419791E-3</v>
+      </c>
+      <c r="AD22" s="158"/>
       <c r="AH22" s="156"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="112">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x14F</v>
+        <f t="shared" si="9"/>
+        <v>x16F</v>
       </c>
       <c r="D23" s="121"/>
       <c r="E23" s="121"/>
       <c r="F23" s="121"/>
       <c r="G23" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H23" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR8x14F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR10x16F_Quote</v>
       </c>
       <c r="I23" s="121"/>
       <c r="J23" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H23,B23&amp;"M",G23,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059e#0002</v>
+        <v>obj_0054d#0001</v>
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M23" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>obj_005a1#0002</v>
+        <f t="shared" si="8"/>
+        <v>obj_00547#0001</v>
       </c>
       <c r="N23" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
-        <v>EUR10x16F_Quote</v>
+        <v>EUR12x18F_Quote</v>
       </c>
       <c r="O23" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M23,Trigger),"--")</f>
-        <v>1.15E-3</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="P23" s="93" t="b">
         <v>1</v>
@@ -4021,26 +4034,26 @@
       </c>
       <c r="S23" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42489</v>
+        <v>42639</v>
       </c>
       <c r="T23" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>42674</v>
+        <v>42821</v>
       </c>
       <c r="V23" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W23" s="3" t="str">
-        <v>obj_005b8</v>
+        <v>obj_00550</v>
       </c>
       <c r="X23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
-        <v>EURAB6E4Y_Quote</v>
+        <v>EURAB6E6Y_Quote</v>
       </c>
       <c r="Y23" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>3.7399999999999998E-3</v>
+        <v>5.0200000000000002E-3</v>
       </c>
       <c r="Z23" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
@@ -4048,64 +4061,64 @@
       </c>
       <c r="AA23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>43644</v>
+        <v>44466</v>
       </c>
       <c r="AC23" s="68">
-        <v>3.7285946851678209E-3</v>
-      </c>
-      <c r="AD23" s="172"/>
+        <v>5.0325598204600868E-3</v>
+      </c>
+      <c r="AD23" s="158"/>
       <c r="AH23" s="156"/>
     </row>
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24" s="112">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C24" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x15F</v>
+        <f t="shared" si="9"/>
+        <v>x17F</v>
       </c>
       <c r="D24" s="121"/>
       <c r="E24" s="121"/>
       <c r="F24" s="121"/>
       <c r="G24" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H24" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR9x15F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR11x17F_Quote</v>
       </c>
       <c r="I24" s="121"/>
       <c r="J24" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H24,B24&amp;"M",G24,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059f#0002</v>
+        <v>obj_00549#0001</v>
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M24" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>obj_0059a#0002</v>
+        <f t="shared" si="8"/>
+        <v>--</v>
       </c>
       <c r="N24" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M24,Trigger),"--")</f>
-        <v>EUR11x17F_Quote</v>
-      </c>
-      <c r="O24" s="94">
+        <v>--</v>
+      </c>
+      <c r="O24" s="94" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M24,Trigger),"--")</f>
-        <v>1.23E-3</v>
+        <v>--</v>
       </c>
       <c r="P24" s="93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="90">
         <v>10</v>
@@ -4113,28 +4126,28 @@
       <c r="R24" s="90">
         <v>1</v>
       </c>
-      <c r="S24" s="95">
+      <c r="S24" s="95" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M24,Trigger),"--")</f>
-        <v>42520</v>
-      </c>
-      <c r="T24" s="95">
+        <v>--</v>
+      </c>
+      <c r="T24" s="95" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M24,Trigger),"--")</f>
-        <v>42703</v>
+        <v>--</v>
       </c>
       <c r="V24" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W24" s="3" t="str">
-        <v>obj_005cb</v>
+        <v>obj_0056d</v>
       </c>
       <c r="X24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
-        <v>EURAB6E5Y_Quote</v>
+        <v>EURAB6E7Y_Quote</v>
       </c>
       <c r="Y24" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>5.3499999999999989E-3</v>
+        <v>6.3599999999999993E-3</v>
       </c>
       <c r="Z24" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
@@ -4142,64 +4155,64 @@
       </c>
       <c r="AA24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>44011</v>
+        <v>44830</v>
       </c>
       <c r="AC24" s="68">
-        <v>5.3461430875051293E-3</v>
-      </c>
-      <c r="AD24" s="172"/>
+        <v>6.3934949910536389E-3</v>
+      </c>
+      <c r="AD24" s="158"/>
       <c r="AH24" s="156"/>
     </row>
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="112">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x16F</v>
+        <f t="shared" si="9"/>
+        <v>x18F</v>
       </c>
       <c r="D25" s="121"/>
       <c r="E25" s="121"/>
       <c r="F25" s="121"/>
       <c r="G25" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H25" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR10x16F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR12x18F_Quote</v>
       </c>
       <c r="I25" s="121"/>
       <c r="J25" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H25,B25&amp;"M",G25,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a1#0002</v>
+        <v>obj_00547#0001</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M25" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>obj_0059b#0002</v>
+        <f t="shared" si="8"/>
+        <v>--</v>
       </c>
       <c r="N25" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M25,Trigger),"--")</f>
-        <v>EUR12x18F_Quote</v>
-      </c>
-      <c r="O25" s="94">
+        <v>--</v>
+      </c>
+      <c r="O25" s="94" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M25,Trigger),"--")</f>
-        <v>1.33E-3</v>
+        <v>--</v>
       </c>
       <c r="P25" s="93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="90">
         <v>10</v>
@@ -4207,28 +4220,28 @@
       <c r="R25" s="90">
         <v>1</v>
       </c>
-      <c r="S25" s="95">
+      <c r="S25" s="95" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M25,Trigger),"--")</f>
-        <v>42550</v>
-      </c>
-      <c r="T25" s="95">
+        <v>--</v>
+      </c>
+      <c r="T25" s="95" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M25,Trigger),"--")</f>
-        <v>42733</v>
+        <v>--</v>
       </c>
       <c r="V25" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W25" s="3" t="str">
-        <v>obj_005c0</v>
+        <v>obj_0055d</v>
       </c>
       <c r="X25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
-        <v>EURAB6E6Y_Quote</v>
+        <v>EURAB6E8Y_Quote</v>
       </c>
       <c r="Y25" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>6.9500000000000004E-3</v>
+        <v>7.6499999999999988E-3</v>
       </c>
       <c r="Z25" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
@@ -4236,64 +4249,61 @@
       </c>
       <c r="AA25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>44376</v>
+        <v>45194</v>
       </c>
       <c r="AC25" s="68">
-        <v>6.9660143520028379E-3</v>
-      </c>
-      <c r="AD25" s="172"/>
+        <v>7.7130914398423995E-3</v>
+      </c>
+      <c r="AD25" s="158"/>
       <c r="AH25" s="156"/>
     </row>
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" s="112">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x17F</v>
+        <f t="shared" si="9"/>
+        <v>x19F</v>
       </c>
       <c r="D26" s="121"/>
       <c r="E26" s="121"/>
       <c r="F26" s="121"/>
       <c r="G26" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H26" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR11x17F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR13x19F_Quote</v>
       </c>
       <c r="I26" s="121"/>
-      <c r="J26" s="62" t="str">
-        <f>_xll.qlFraRateHelper(,H26,B26&amp;"M",G26,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059a#0002</v>
-      </c>
+      <c r="J26" s="62"/>
       <c r="K26" s="48"/>
       <c r="L26" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M26" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>--</v>
+        <f t="shared" si="8"/>
+        <v>obj_00548#0001</v>
       </c>
       <c r="N26" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M26,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O26" s="94" t="str">
+        <v>EUR15x21F_Quote</v>
+      </c>
+      <c r="O26" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M26,Trigger),"--")</f>
-        <v>--</v>
+        <v>7.6000000000000015E-4</v>
       </c>
       <c r="P26" s="93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="90">
         <v>10</v>
@@ -4301,28 +4311,28 @@
       <c r="R26" s="90">
         <v>1</v>
       </c>
-      <c r="S26" s="95" t="str">
+      <c r="S26" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M26,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T26" s="95" t="str">
+        <v>42731</v>
+      </c>
+      <c r="T26" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M26,Trigger),"--")</f>
-        <v>--</v>
+        <v>42912</v>
       </c>
       <c r="V26" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W26" s="3" t="str">
-        <v>obj_005b4</v>
+        <v>obj_00567</v>
       </c>
       <c r="X26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
-        <v>EURAB6E7Y_Quote</v>
+        <v>EURAB6E9Y_Quote</v>
       </c>
       <c r="Y26" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>8.4600000000000005E-3</v>
+        <v>8.8400000000000006E-3</v>
       </c>
       <c r="Z26" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
@@ -4330,52 +4340,49 @@
       </c>
       <c r="AA26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>44741</v>
+        <v>45560</v>
       </c>
       <c r="AC26" s="68">
-        <v>8.5058221816867556E-3</v>
-      </c>
-      <c r="AD26" s="172"/>
+        <v>8.9370553590686352E-3</v>
+      </c>
+      <c r="AD26" s="158"/>
       <c r="AH26" s="156"/>
     </row>
     <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="112">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x18F</v>
+        <f t="shared" si="9"/>
+        <v>x20F</v>
       </c>
       <c r="D27" s="121"/>
       <c r="E27" s="121"/>
       <c r="F27" s="121"/>
       <c r="G27" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H27" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR12x18F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR14x20F_Quote</v>
       </c>
       <c r="I27" s="121"/>
-      <c r="J27" s="62" t="str">
-        <f>_xll.qlFraRateHelper(,H27,B27&amp;"M",G27,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059b#0002</v>
-      </c>
+      <c r="J27" s="62"/>
       <c r="K27" s="48"/>
       <c r="L27" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M27" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
       <c r="N27" s="143" t="str">
@@ -4404,19 +4411,19 @@
         <v>--</v>
       </c>
       <c r="V27" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W27" s="3" t="str">
-        <v>obj_005bd</v>
+        <v>obj_0055c</v>
       </c>
       <c r="X27" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
-        <v>EURAB6E8Y_Quote</v>
+        <v>EURAB6E10Y_Quote</v>
       </c>
       <c r="Y27" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W27,Trigger),"")</f>
-        <v>9.8399999999999998E-3</v>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="Z27" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W27)),_xll.qlSwapRateHelperSpread($W27))</f>
@@ -4424,61 +4431,64 @@
       </c>
       <c r="AA27" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W27,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB27" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
-        <v>45106</v>
+        <v>45925</v>
       </c>
       <c r="AC27" s="68">
-        <v>9.9242036386637308E-3</v>
-      </c>
-      <c r="AD27" s="172"/>
+        <v>1.0038075845684464E-2</v>
+      </c>
+      <c r="AD27" s="158"/>
       <c r="AH27" s="156"/>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" s="112">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x19F</v>
+        <f t="shared" si="9"/>
+        <v>x21F</v>
       </c>
       <c r="D28" s="121"/>
       <c r="E28" s="121"/>
       <c r="F28" s="121"/>
       <c r="G28" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H28" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR13x19F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR15x21F_Quote</v>
       </c>
       <c r="I28" s="121"/>
-      <c r="J28" s="62"/>
+      <c r="J28" s="62" t="str">
+        <f>_xll.qlFraRateHelper(,H28,B28&amp;"M",G28,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00548#0001</v>
+      </c>
       <c r="K28" s="48"/>
       <c r="L28" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M28" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>obj_0059d#0002</v>
+        <f t="shared" si="8"/>
+        <v>--</v>
       </c>
       <c r="N28" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M28,Trigger),"--")</f>
-        <v>EUR15x21F_Quote</v>
-      </c>
-      <c r="O28" s="94">
+        <v>--</v>
+      </c>
+      <c r="O28" s="94" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M28,Trigger),"--")</f>
-        <v>1.7399999999999998E-3</v>
+        <v>--</v>
       </c>
       <c r="P28" s="93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="90">
         <v>10</v>
@@ -4486,28 +4496,28 @@
       <c r="R28" s="90">
         <v>1</v>
       </c>
-      <c r="S28" s="95">
+      <c r="S28" s="95" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M28,Trigger),"--")</f>
-        <v>42642</v>
-      </c>
-      <c r="T28" s="95">
+        <v>--</v>
+      </c>
+      <c r="T28" s="95" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M28,Trigger),"--")</f>
-        <v>42823</v>
+        <v>--</v>
       </c>
       <c r="V28" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W28" s="3" t="str">
-        <v>obj_005a9</v>
+        <v>obj_00559</v>
       </c>
       <c r="X28" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
-        <v>EURAB6E9Y_Quote</v>
+        <v>EURAB6E11Y_Quote</v>
       </c>
       <c r="Y28" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W28,Trigger),"")</f>
-        <v>1.1059999999999999E-2</v>
+        <v>1.0860000000000002E-2</v>
       </c>
       <c r="Z28" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W28)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W28)),_xll.qlSwapRateHelperSpread($W28))</f>
@@ -4515,49 +4525,49 @@
       </c>
       <c r="AA28" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W28,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB28" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
-        <v>45471</v>
+        <v>46290</v>
       </c>
       <c r="AC28" s="68">
-        <v>1.1184806067641774E-2</v>
-      </c>
-      <c r="AD28" s="172"/>
+        <v>1.1043282415927497E-2</v>
+      </c>
+      <c r="AD28" s="158"/>
       <c r="AH28" s="156"/>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="112">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C29" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x20F</v>
+        <f t="shared" si="9"/>
+        <v>x22F</v>
       </c>
       <c r="D29" s="121"/>
       <c r="E29" s="121"/>
       <c r="F29" s="121"/>
       <c r="G29" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H29" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR14x20F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR16x22F_Quote</v>
       </c>
       <c r="I29" s="121"/>
       <c r="J29" s="62"/>
       <c r="K29" s="48"/>
       <c r="L29" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>FRA</v>
       </c>
       <c r="M29" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
       <c r="N29" s="143" t="str">
@@ -4586,19 +4596,19 @@
         <v>--</v>
       </c>
       <c r="V29" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W29" s="3" t="str">
-        <v>obj_005ba</v>
+        <v>obj_00560</v>
       </c>
       <c r="X29" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W29,Trigger),"")</f>
-        <v>EURAB6E10Y_Quote</v>
+        <v>EURAB6E12Y_Quote</v>
       </c>
       <c r="Y29" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W29,Trigger),"")</f>
-        <v>1.2110000000000001E-2</v>
+        <v>1.171E-2</v>
       </c>
       <c r="Z29" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W29)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W29)),_xll.qlSwapRateHelperSpread($W29))</f>
@@ -4606,93 +4616,90 @@
       </c>
       <c r="AA29" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W29,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB29" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W29,Trigger),"")</f>
-        <v>45838</v>
+        <v>46657</v>
       </c>
       <c r="AC29" s="68">
-        <v>1.2280755476082568E-2</v>
-      </c>
-      <c r="AD29" s="172"/>
+        <v>1.1939971811656423E-2</v>
+      </c>
+      <c r="AD29" s="158"/>
       <c r="AH29" s="156"/>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B30" s="112">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x21F</v>
+        <f t="shared" si="9"/>
+        <v>x23F</v>
       </c>
       <c r="D30" s="121"/>
       <c r="E30" s="121"/>
       <c r="F30" s="121"/>
       <c r="G30" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Euribor6M</v>
       </c>
       <c r="H30" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR15x21F_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EUR17x23F_Quote</v>
       </c>
       <c r="I30" s="121"/>
-      <c r="J30" s="62" t="str">
-        <f>_xll.qlFraRateHelper(,H30,B30&amp;"M",G30,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059d#0002</v>
-      </c>
+      <c r="J30" s="62"/>
       <c r="K30" s="48"/>
-      <c r="L30" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>FRA</v>
-      </c>
-      <c r="M30" s="90" t="str">
-        <f t="shared" si="7"/>
-        <v>--</v>
-      </c>
-      <c r="N30" s="143" t="str">
+      <c r="L30" s="66" t="str">
+        <f t="shared" ref="L30:L51" si="12">A34</f>
+        <v>FUT</v>
+      </c>
+      <c r="M30" s="128" t="str">
+        <f t="shared" ref="M30:M51" si="13">IF(ISBLANK(J34),"--",J34)</f>
+        <v>--</v>
+      </c>
+      <c r="N30" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M30,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="O30" s="94" t="str">
+      <c r="O30" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M30,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="P30" s="93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="90">
+      <c r="P30" s="129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="128">
         <v>10</v>
       </c>
-      <c r="R30" s="90">
-        <v>1</v>
-      </c>
-      <c r="S30" s="95" t="str">
+      <c r="R30" s="128">
+        <v>1</v>
+      </c>
+      <c r="S30" s="131" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M30,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="T30" s="95" t="str">
+      <c r="T30" s="131" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M30,Trigger),"--")</f>
         <v>--</v>
       </c>
       <c r="V30" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W30" s="3" t="str">
-        <v>obj_005c1</v>
+        <v>obj_00556</v>
       </c>
       <c r="X30" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W30,Trigger),"")</f>
-        <v>EURAB6E11Y_Quote</v>
+        <v>EURAB6E13Y_Quote</v>
       </c>
       <c r="Y30" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W30,Trigger),"")</f>
-        <v>1.303E-2</v>
+        <v>1.2450000000000001E-2</v>
       </c>
       <c r="Z30" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W30)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W30)),_xll.qlSwapRateHelperSpread($W30))</f>
@@ -4700,56 +4707,56 @@
       </c>
       <c r="AA30" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W30,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB30" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W30,Trigger),"")</f>
-        <v>46202</v>
+        <v>47021</v>
       </c>
       <c r="AC30" s="68">
-        <v>1.3248505469542926E-2</v>
-      </c>
-      <c r="AD30" s="172"/>
+        <v>1.2723429096065728E-2</v>
+      </c>
+      <c r="AD30" s="158"/>
       <c r="AH30" s="156"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="112">
-        <v>16</v>
-      </c>
-      <c r="C31" s="61" t="str">
+      <c r="A31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="113">
+        <v>18</v>
+      </c>
+      <c r="C31" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>x24F</v>
+      </c>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>x22F</v>
-      </c>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="60" t="str">
-        <f t="shared" si="8"/>
         <v>Euribor6M</v>
       </c>
-      <c r="H31" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR16x22F_Quote</v>
-      </c>
-      <c r="I31" s="121"/>
-      <c r="J31" s="62"/>
+      <c r="H31" s="116" t="str">
+        <f t="shared" si="11"/>
+        <v>EUR18x24F_Quote</v>
+      </c>
+      <c r="I31" s="122"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="48"/>
       <c r="L31" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>FRA</v>
+        <f t="shared" si="12"/>
+        <v>FUT</v>
       </c>
       <c r="M31" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N31" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M31,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="O31" s="94" t="str">
+      <c r="O31" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M31,Trigger),"--")</f>
         <v>--</v>
       </c>
@@ -4771,19 +4778,19 @@
         <v>--</v>
       </c>
       <c r="V31" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W31" s="3" t="str">
-        <v>obj_005ac</v>
+        <v>obj_00561</v>
       </c>
       <c r="X31" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W31,Trigger),"")</f>
-        <v>EURAB6E12Y_Quote</v>
+        <v>EURAB6E14Y_Quote</v>
       </c>
       <c r="Y31" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W31,Trigger),"")</f>
-        <v>1.3839999999999998E-2</v>
+        <v>1.307E-2</v>
       </c>
       <c r="Z31" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W31)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W31)),_xll.qlSwapRateHelperSpread($W31))</f>
@@ -4791,90 +4798,78 @@
       </c>
       <c r="AA31" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W31,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB31" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W31,Trigger),"")</f>
-        <v>46567</v>
+        <v>47386</v>
       </c>
       <c r="AC31" s="68">
-        <v>1.4106852559751051E-2</v>
-      </c>
-      <c r="AD31" s="172"/>
+        <v>1.3384972619600219E-2</v>
+      </c>
+      <c r="AD31" s="158"/>
       <c r="AH31" s="156"/>
     </row>
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="112">
-        <v>17</v>
-      </c>
-      <c r="C32" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>x23F</v>
-      </c>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="60" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="H32" s="115" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR17x23F_Quote</v>
-      </c>
-      <c r="I32" s="121"/>
-      <c r="J32" s="62"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>82</v>
+      </c>
       <c r="K32" s="48"/>
-      <c r="L32" s="66" t="str">
-        <f t="shared" ref="L32:L53" si="11">A36</f>
+      <c r="L32" s="9" t="str">
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
-      <c r="M32" s="128" t="str">
-        <f t="shared" ref="M32:M53" si="12">IF(ISBLANK(J36),"--",J36)</f>
-        <v>--</v>
-      </c>
-      <c r="N32" s="142" t="str">
+      <c r="M32" s="90" t="str">
+        <f t="shared" si="13"/>
+        <v>--</v>
+      </c>
+      <c r="N32" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M32,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="O32" s="147" t="str">
+      <c r="O32" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M32,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="P32" s="129" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="128">
+      <c r="P32" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="90">
         <v>10</v>
       </c>
-      <c r="R32" s="128">
-        <v>1</v>
-      </c>
-      <c r="S32" s="131" t="str">
+      <c r="R32" s="90">
+        <v>1</v>
+      </c>
+      <c r="S32" s="95" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M32,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="T32" s="131" t="str">
+      <c r="T32" s="95" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M32,Trigger),"--")</f>
         <v>--</v>
       </c>
       <c r="V32" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W32" s="3" t="str">
-        <v>obj_005b0</v>
+        <v>obj_00554</v>
       </c>
       <c r="X32" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W32,Trigger),"")</f>
-        <v>EURAB6E13Y_Quote</v>
+        <v>EURAB6E15Y_Quote</v>
       </c>
       <c r="Y32" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W32,Trigger),"")</f>
-        <v>1.452E-2</v>
+        <v>1.359E-2</v>
       </c>
       <c r="Z32" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W32)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W32)),_xll.qlSwapRateHelperSpread($W32))</f>
@@ -4882,48 +4877,49 @@
       </c>
       <c r="AA32" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W32,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB32" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W32,Trigger),"")</f>
-        <v>46933</v>
+        <v>47751</v>
       </c>
       <c r="AC32" s="68">
-        <v>1.4828006385046026E-2</v>
-      </c>
-      <c r="AD32" s="172"/>
+        <v>1.3941565477005001E-2</v>
+      </c>
+      <c r="AD32" s="158"/>
     </row>
     <row r="33" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="113">
-        <v>18</v>
-      </c>
-      <c r="C33" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>x24F</v>
-      </c>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="H33" s="116" t="str">
-        <f t="shared" si="9"/>
-        <v>EUR18x24F_Quote</v>
-      </c>
-      <c r="I33" s="122"/>
-      <c r="J33" s="2"/>
+      <c r="A33" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>25</v>
+      </c>
       <c r="K33" s="48"/>
       <c r="L33" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M33" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N33" s="143" t="str">
@@ -4952,19 +4948,19 @@
         <v>--</v>
       </c>
       <c r="V33" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W33" s="3" t="str">
-        <v>obj_005c6</v>
+        <v>obj_00570</v>
       </c>
       <c r="X33" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W33,Trigger),"")</f>
-        <v>EURAB6E14Y_Quote</v>
+        <v>EURAB6E16Y_Quote</v>
       </c>
       <c r="Y33" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W33,Trigger),"")</f>
-        <v>1.5089999999999999E-2</v>
+        <v>1.4030000000000001E-2</v>
       </c>
       <c r="Z33" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W33)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W33)),_xll.qlSwapRateHelperSpread($W33))</f>
@@ -4972,36 +4968,51 @@
       </c>
       <c r="AA33" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W33,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB33" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W33,Trigger),"")</f>
-        <v>47298</v>
+        <v>48116</v>
       </c>
       <c r="AC33" s="68">
-        <v>1.5437496534808521E-2</v>
-      </c>
-      <c r="AD33" s="172"/>
+        <v>1.4413560031661849E-2</v>
+      </c>
+      <c r="AD33" s="158"/>
     </row>
     <row r="34" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>82</v>
-      </c>
+      <c r="A34" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="56" t="str">
+        <f>_xll.qlIMMNextCode(Evaluationdate-1,B34,Trigger)</f>
+        <v>V5</v>
+      </c>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="55" t="str">
+        <f t="shared" ref="G34:G55" si="14">PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <v>Euribor3M</v>
+      </c>
+      <c r="H34" s="114" t="str">
+        <f t="shared" ref="H34:H55" si="15">Currency&amp;"FUT"&amp;$G$32&amp;$C34&amp;QuoteSuffix</f>
+        <v>EURFUT3MV5_Quote</v>
+      </c>
+      <c r="I34" s="114" t="str">
+        <f t="shared" ref="I34:I55" si="16">Currency&amp;"FUT"&amp;$G$32&amp;$C34&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <v>EURFUT3MV5ConvAdj_Quote</v>
+      </c>
+      <c r="J34" s="57"/>
       <c r="K34" s="48"/>
       <c r="L34" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M34" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N34" s="143" t="str">
@@ -5030,19 +5041,19 @@
         <v>--</v>
       </c>
       <c r="V34" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W34" s="3" t="str">
-        <v>obj_005af</v>
+        <v>obj_00564</v>
       </c>
       <c r="X34" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W34,Trigger),"")</f>
-        <v>EURAB6E15Y_Quote</v>
+        <v>EURAB6E17Y_Quote</v>
       </c>
       <c r="Y34" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W34,Trigger),"")</f>
-        <v>1.555E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="Z34" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W34)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W34)),_xll.qlSwapRateHelperSpread($W34))</f>
@@ -5050,49 +5061,51 @@
       </c>
       <c r="AA34" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W34,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB34" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W34,Trigger),"")</f>
-        <v>47662</v>
+        <v>48484</v>
       </c>
       <c r="AC34" s="68">
-        <v>1.5929373019410074E-2</v>
-      </c>
-      <c r="AD34" s="172"/>
+        <v>1.4808052880090534E-2</v>
+      </c>
+      <c r="AD34" s="158"/>
     </row>
     <row r="35" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="63" t="s">
-        <v>25</v>
-      </c>
+      <c r="A35" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="112" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="61" t="str">
+        <f>_xll.qlIMMNextCode(C34,B35,Trigger)</f>
+        <v>X5</v>
+      </c>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="60" t="str">
+        <f t="shared" si="14"/>
+        <v>Euribor3M</v>
+      </c>
+      <c r="H35" s="115" t="str">
+        <f t="shared" si="15"/>
+        <v>EURFUT3MX5_Quote</v>
+      </c>
+      <c r="I35" s="115" t="str">
+        <f t="shared" si="16"/>
+        <v>EURFUT3MX5ConvAdj_Quote</v>
+      </c>
+      <c r="J35" s="62"/>
       <c r="K35" s="48"/>
       <c r="L35" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M35" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N35" s="143" t="str">
@@ -5121,19 +5134,19 @@
         <v>--</v>
       </c>
       <c r="V35" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V35:V66" si="17">IFERROR(INDEX($L$3:$L$89,MATCH(X35,$N$3:$N$89,0),1),"")</f>
         <v>Sw</v>
       </c>
       <c r="W35" s="3" t="str">
-        <v>obj_005c5</v>
+        <v>obj_0055a</v>
       </c>
       <c r="X35" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W35,Trigger),"")</f>
-        <v>EURAB6E16Y_Quote</v>
+        <v>EURAB6E18Y_Quote</v>
       </c>
       <c r="Y35" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W35,Trigger),"")</f>
-        <v>1.5949999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="Z35" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W35)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W35)),_xll.qlSwapRateHelperSpread($W35))</f>
@@ -5141,51 +5154,51 @@
       </c>
       <c r="AA35" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W35,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB35" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W35,Trigger),"")</f>
-        <v>48029</v>
+        <v>48848</v>
       </c>
       <c r="AC35" s="68">
-        <v>1.6358224977706375E-2</v>
-      </c>
-      <c r="AD35" s="172"/>
+        <v>1.5128599784086018E-2</v>
+      </c>
+      <c r="AD35" s="158"/>
     </row>
     <row r="36" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="56" t="str">
-        <f>_xll.qlIMMNextCode(Evaluationdate-1,B36,Trigger)</f>
-        <v>N5</v>
-      </c>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="55" t="str">
-        <f t="shared" ref="G36:G57" si="13">PROPER(Currency)&amp;FamilyName&amp;$G$34</f>
+      <c r="B36" s="112" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="61" t="str">
+        <f>_xll.qlIMMNextCode(C35,B36,Trigger)</f>
+        <v>Z5</v>
+      </c>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="60" t="str">
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
-      <c r="H36" s="114" t="str">
-        <f t="shared" ref="H36:H57" si="14">Currency&amp;"FUT"&amp;$G$34&amp;$C36&amp;QuoteSuffix</f>
-        <v>EURFUT3MN5_Quote</v>
-      </c>
-      <c r="I36" s="114" t="str">
-        <f t="shared" ref="I36:I57" si="15">Currency&amp;"FUT"&amp;$G$34&amp;$C36&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MN5ConvAdj_Quote</v>
-      </c>
-      <c r="J36" s="57"/>
+      <c r="H36" s="115" t="str">
+        <f t="shared" si="15"/>
+        <v>EURFUT3MZ5_Quote</v>
+      </c>
+      <c r="I36" s="115" t="str">
+        <f t="shared" si="16"/>
+        <v>EURFUT3MZ5ConvAdj_Quote</v>
+      </c>
+      <c r="J36" s="62"/>
       <c r="K36" s="48"/>
       <c r="L36" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M36" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N36" s="143" t="str">
@@ -5214,19 +5227,19 @@
         <v>--</v>
       </c>
       <c r="V36" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W36" s="3" t="str">
-        <v>obj_005cc</v>
+        <v>obj_00557</v>
       </c>
       <c r="X36" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W36,Trigger),"")</f>
-        <v>EURAB6E17Y_Quote</v>
+        <v>EURAB6E19Y_Quote</v>
       </c>
       <c r="Y36" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W36,Trigger),"")</f>
-        <v>1.627E-2</v>
+        <v>1.4929999999999999E-2</v>
       </c>
       <c r="Z36" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W36)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W36)),_xll.qlSwapRateHelperSpread($W36))</f>
@@ -5234,16 +5247,16 @@
       </c>
       <c r="AA36" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W36,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB36" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W36,Trigger),"")</f>
-        <v>48394</v>
+        <v>49212</v>
       </c>
       <c r="AC36" s="68">
-        <v>1.669700795540768E-2</v>
-      </c>
-      <c r="AD36" s="172"/>
+        <v>1.5370878384669894E-2</v>
+      </c>
+      <c r="AD36" s="158"/>
     </row>
     <row r="37" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="58" t="s">
@@ -5254,31 +5267,31 @@
       </c>
       <c r="C37" s="61" t="str">
         <f>_xll.qlIMMNextCode(C36,B37,Trigger)</f>
-        <v>Q5</v>
+        <v>F6</v>
       </c>
       <c r="D37" s="121"/>
       <c r="E37" s="121"/>
       <c r="F37" s="121"/>
       <c r="G37" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H37" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MQ5_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MF6_Quote</v>
       </c>
       <c r="I37" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MQ5ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="J37" s="62"/>
       <c r="K37" s="48"/>
       <c r="L37" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M37" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N37" s="143" t="str">
@@ -5307,19 +5320,19 @@
         <v>--</v>
       </c>
       <c r="V37" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W37" s="3" t="str">
-        <v>obj_005b6</v>
+        <v>obj_0056e</v>
       </c>
       <c r="X37" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W37,Trigger),"")</f>
-        <v>EURAB6E18Y_Quote</v>
+        <v>EURAB6E20Y_Quote</v>
       </c>
       <c r="Y37" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W37,Trigger),"")</f>
-        <v>1.6539999999999999E-2</v>
+        <v>1.5110000000000002E-2</v>
       </c>
       <c r="Z37" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W37)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W37)),_xll.qlSwapRateHelperSpread($W37))</f>
@@ -5327,51 +5340,51 @@
       </c>
       <c r="AA37" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W37,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB37" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W37,Trigger),"")</f>
-        <v>48759</v>
+        <v>49577</v>
       </c>
       <c r="AC37" s="68">
-        <v>1.6984335928083509E-2</v>
-      </c>
-      <c r="AD37" s="172"/>
+        <v>1.5557122359418132E-2</v>
+      </c>
+      <c r="AD37" s="158"/>
     </row>
     <row r="38" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="112" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="61" t="str">
+      <c r="B38" s="113" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8" t="str">
         <f>_xll.qlIMMNextCode(C37,B38,Trigger)</f>
-        <v>U5</v>
-      </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="60" t="str">
-        <f t="shared" si="13"/>
+        <v>G6</v>
+      </c>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
-      <c r="H38" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MU5_Quote</v>
-      </c>
-      <c r="I38" s="115" t="str">
+      <c r="H38" s="116" t="str">
         <f t="shared" si="15"/>
-        <v>EURFUT3MU5ConvAdj_Quote</v>
-      </c>
-      <c r="J38" s="62"/>
+        <v>EURFUT3MG6_Quote</v>
+      </c>
+      <c r="I38" s="116" t="str">
+        <f t="shared" si="16"/>
+        <v>EURFUT3MG6ConvAdj_Quote</v>
+      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="48"/>
       <c r="L38" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M38" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N38" s="143" t="str">
@@ -5400,19 +5413,19 @@
         <v>--</v>
       </c>
       <c r="V38" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W38" s="3" t="str">
-        <v>obj_005c9</v>
+        <v>obj_0055f</v>
       </c>
       <c r="X38" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W38,Trigger),"")</f>
-        <v>EURAB6E19Y_Quote</v>
+        <v>EURAB6E21Y_Quote</v>
       </c>
       <c r="Y38" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W38,Trigger),"")</f>
-        <v>1.6739999999999998E-2</v>
+        <v>1.525E-2</v>
       </c>
       <c r="Z38" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W38)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W38)),_xll.qlSwapRateHelperSpread($W38))</f>
@@ -5420,51 +5433,50 @@
       </c>
       <c r="AA38" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W38,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB38" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W38,Trigger),"")</f>
-        <v>49124</v>
+        <v>49943</v>
       </c>
       <c r="AC38" s="68">
-        <v>1.7192362518078274E-2</v>
-      </c>
-      <c r="AD38" s="172"/>
+        <v>1.5696332639462712E-2</v>
+      </c>
+      <c r="AD38" s="158"/>
     </row>
     <row r="39" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="58" t="s">
         <v>81</v>
       </c>
       <c r="B39" s="112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="61" t="str">
         <f>_xll.qlIMMNextCode(C38,B39,Trigger)</f>
-        <v>V5</v>
+        <v>H6</v>
       </c>
       <c r="D39" s="121"/>
       <c r="E39" s="121"/>
       <c r="F39" s="121"/>
       <c r="G39" s="60" t="str">
+        <f t="shared" si="14"/>
+        <v>Euribor3M</v>
+      </c>
+      <c r="H39" s="115" t="str">
+        <f t="shared" si="15"/>
+        <v>EURFUT3MH6_Quote</v>
+      </c>
+      <c r="I39" s="115" t="str">
+        <f t="shared" si="16"/>
+        <v>EURFUT3MH6ConvAdj_Quote</v>
+      </c>
+      <c r="J39" s="62"/>
+      <c r="L39" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>FUT</v>
+      </c>
+      <c r="M39" s="90" t="str">
         <f t="shared" si="13"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="H39" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MV5_Quote</v>
-      </c>
-      <c r="I39" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MV5ConvAdj_Quote</v>
-      </c>
-      <c r="J39" s="62"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="9" t="str">
-        <f t="shared" si="11"/>
-        <v>FUT</v>
-      </c>
-      <c r="M39" s="90" t="str">
-        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N39" s="143" t="str">
@@ -5493,19 +5505,19 @@
         <v>--</v>
       </c>
       <c r="V39" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W39" s="3" t="str">
-        <v>obj_005b5</v>
+        <v>obj_0056b</v>
       </c>
       <c r="X39" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W39,Trigger),"")</f>
-        <v>EURAB6E20Y_Quote</v>
+        <v>EURAB6E22Y_Quote</v>
       </c>
       <c r="Y39" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W39,Trigger),"")</f>
-        <v>1.6899999999999998E-2</v>
+        <v>1.5339999999999999E-2</v>
       </c>
       <c r="Z39" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W39)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W39)),_xll.qlSwapRateHelperSpread($W39))</f>
@@ -5513,51 +5525,50 @@
       </c>
       <c r="AA39" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W39,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB39" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W39,Trigger),"")</f>
-        <v>49489</v>
+        <v>50308</v>
       </c>
       <c r="AC39" s="68">
-        <v>1.7355736628431245E-2</v>
-      </c>
-      <c r="AD39" s="172"/>
+        <v>1.5779749810578801E-2</v>
+      </c>
+      <c r="AD39" s="158"/>
     </row>
     <row r="40" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="8" t="str">
+      <c r="B40" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="61" t="str">
         <f>_xll.qlIMMNextCode(C39,B40,Trigger)</f>
-        <v>X5</v>
-      </c>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="6" t="str">
+        <v>M6</v>
+      </c>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="60" t="str">
+        <f t="shared" si="14"/>
+        <v>Euribor3M</v>
+      </c>
+      <c r="H40" s="115" t="str">
+        <f t="shared" si="15"/>
+        <v>EURFUT3MM6_Quote</v>
+      </c>
+      <c r="I40" s="115" t="str">
+        <f t="shared" si="16"/>
+        <v>EURFUT3MM6ConvAdj_Quote</v>
+      </c>
+      <c r="J40" s="62"/>
+      <c r="L40" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>FUT</v>
+      </c>
+      <c r="M40" s="90" t="str">
         <f t="shared" si="13"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="H40" s="116" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MX5_Quote</v>
-      </c>
-      <c r="I40" s="116" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MX5ConvAdj_Quote</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="9" t="str">
-        <f t="shared" si="11"/>
-        <v>FUT</v>
-      </c>
-      <c r="M40" s="90" t="str">
-        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N40" s="143" t="str">
@@ -5586,19 +5597,19 @@
         <v>--</v>
       </c>
       <c r="V40" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W40" s="3" t="str">
-        <v>obj_005be</v>
+        <v>obj_0056c</v>
       </c>
       <c r="X40" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W40,Trigger),"")</f>
-        <v>EURAB6E21Y_Quote</v>
+        <v>EURAB6E23Y_Quote</v>
       </c>
       <c r="Y40" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W40,Trigger),"")</f>
-        <v>1.702E-2</v>
+        <v>1.541E-2</v>
       </c>
       <c r="Z40" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W40)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W40)),_xll.qlSwapRateHelperSpread($W40))</f>
@@ -5606,16 +5617,16 @@
       </c>
       <c r="AA40" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W40,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB40" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W40,Trigger),"")</f>
-        <v>49856</v>
+        <v>50675</v>
       </c>
       <c r="AC40" s="68">
-        <v>1.7471181177274728E-2</v>
-      </c>
-      <c r="AD40" s="172"/>
+        <v>1.5840918221787438E-2</v>
+      </c>
+      <c r="AD40" s="158"/>
     </row>
     <row r="41" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="58" t="s">
@@ -5626,30 +5637,30 @@
       </c>
       <c r="C41" s="61" t="str">
         <f>_xll.qlIMMNextCode(C40,B41,Trigger)</f>
-        <v>Z5</v>
+        <v>U6</v>
       </c>
       <c r="D41" s="121"/>
       <c r="E41" s="121"/>
       <c r="F41" s="121"/>
       <c r="G41" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H41" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="I41" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MZ5ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J41" s="62"/>
       <c r="L41" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M41" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N41" s="143" t="str">
@@ -5678,19 +5689,19 @@
         <v>--</v>
       </c>
       <c r="V41" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W41" s="3" t="str">
-        <v>obj_005c8</v>
+        <v>obj_00571</v>
       </c>
       <c r="X41" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W41,Trigger),"")</f>
-        <v>EURAB6E22Y_Quote</v>
+        <v>EURAB6E24Y_Quote</v>
       </c>
       <c r="Y41" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W41,Trigger),"")</f>
-        <v>1.7090000000000001E-2</v>
+        <v>1.5449999999999998E-2</v>
       </c>
       <c r="Z41" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W41)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W41)),_xll.qlSwapRateHelperSpread($W41))</f>
@@ -5698,16 +5709,16 @@
       </c>
       <c r="AA41" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W41,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB41" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W41,Trigger),"")</f>
-        <v>50220</v>
+        <v>51039</v>
       </c>
       <c r="AC41" s="68">
-        <v>1.7530356244207582E-2</v>
-      </c>
-      <c r="AD41" s="172"/>
+        <v>1.5867364809753454E-2</v>
+      </c>
+      <c r="AD41" s="158"/>
     </row>
     <row r="42" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="58" t="s">
@@ -5718,30 +5729,30 @@
       </c>
       <c r="C42" s="61" t="str">
         <f>_xll.qlIMMNextCode(C41,B42,Trigger)</f>
-        <v>H6</v>
+        <v>Z6</v>
       </c>
       <c r="D42" s="121"/>
       <c r="E42" s="121"/>
       <c r="F42" s="121"/>
       <c r="G42" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H42" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MH6_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="I42" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MH6ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J42" s="62"/>
       <c r="L42" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M42" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N42" s="143" t="str">
@@ -5770,19 +5781,19 @@
         <v>--</v>
       </c>
       <c r="V42" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W42" s="3" t="str">
-        <v>obj_005aa</v>
+        <v>obj_0056a</v>
       </c>
       <c r="X42" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W42,Trigger),"")</f>
-        <v>EURAB6E23Y_Quote</v>
+        <v>EURAB6E25Y_Quote</v>
       </c>
       <c r="Y42" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W42,Trigger),"")</f>
-        <v>1.7149999999999999E-2</v>
+        <v>1.5480000000000001E-2</v>
       </c>
       <c r="Z42" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W42)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W42)),_xll.qlSwapRateHelperSpread($W42))</f>
@@ -5790,16 +5801,16 @@
       </c>
       <c r="AA42" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W42,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB42" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W42,Trigger),"")</f>
-        <v>50585</v>
+        <v>51404</v>
       </c>
       <c r="AC42" s="68">
-        <v>1.7579442868379907E-2</v>
-      </c>
-      <c r="AD42" s="172"/>
+        <v>1.5881478717459478E-2</v>
+      </c>
+      <c r="AD42" s="158"/>
     </row>
     <row r="43" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="58" t="s">
@@ -5810,30 +5821,30 @@
       </c>
       <c r="C43" s="61" t="str">
         <f>_xll.qlIMMNextCode(C42,B43,Trigger)</f>
-        <v>M6</v>
+        <v>H7</v>
       </c>
       <c r="D43" s="121"/>
       <c r="E43" s="121"/>
       <c r="F43" s="121"/>
       <c r="G43" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H43" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MM6_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="I43" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MM6ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J43" s="62"/>
       <c r="L43" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M43" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N43" s="143" t="str">
@@ -5862,19 +5873,19 @@
         <v>--</v>
       </c>
       <c r="V43" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W43" s="3" t="str">
-        <v>obj_005b7</v>
+        <v>obj_00553</v>
       </c>
       <c r="X43" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W43,Trigger),"")</f>
-        <v>EURAB6E24Y_Quote</v>
+        <v>EURAB6E26Y_Quote</v>
       </c>
       <c r="Y43" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W43,Trigger),"")</f>
-        <v>1.7180000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="Z43" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W43)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W43)),_xll.qlSwapRateHelperSpread($W43))</f>
@@ -5882,16 +5893,16 @@
       </c>
       <c r="AA43" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W43,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB43" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W43,Trigger),"")</f>
-        <v>50950</v>
+        <v>51769</v>
       </c>
       <c r="AC43" s="68">
-        <v>1.7593092996945923E-2</v>
-      </c>
-      <c r="AD43" s="172"/>
+        <v>1.5886486222587048E-2</v>
+      </c>
+      <c r="AD43" s="158"/>
     </row>
     <row r="44" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="58" t="s">
@@ -5902,30 +5913,30 @@
       </c>
       <c r="C44" s="61" t="str">
         <f>_xll.qlIMMNextCode(C43,B44,Trigger)</f>
-        <v>U6</v>
+        <v>M7</v>
       </c>
       <c r="D44" s="121"/>
       <c r="E44" s="121"/>
       <c r="F44" s="121"/>
       <c r="G44" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H44" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MU6_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="I44" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MU6ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J44" s="62"/>
       <c r="L44" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M44" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N44" s="143" t="str">
@@ -5954,19 +5965,19 @@
         <v>--</v>
       </c>
       <c r="V44" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W44" s="3" t="str">
-        <v>obj_005bf</v>
+        <v>obj_00569</v>
       </c>
       <c r="X44" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W44,Trigger),"")</f>
-        <v>EURAB6E25Y_Quote</v>
+        <v>EURAB6E27Y_Quote</v>
       </c>
       <c r="Y44" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W44,Trigger),"")</f>
-        <v>1.721E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="Z44" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W44)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W44)),_xll.qlSwapRateHelperSpread($W44))</f>
@@ -5974,16 +5985,16 @@
       </c>
       <c r="AA44" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W44,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB44" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W44,Trigger),"")</f>
-        <v>51316</v>
+        <v>52134</v>
       </c>
       <c r="AC44" s="68">
-        <v>1.7606733897028694E-2</v>
-      </c>
-      <c r="AD44" s="172"/>
+        <v>1.5880375293862679E-2</v>
+      </c>
+      <c r="AD44" s="158"/>
     </row>
     <row r="45" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="58" t="s">
@@ -5994,30 +6005,30 @@
       </c>
       <c r="C45" s="61" t="str">
         <f>_xll.qlIMMNextCode(C44,B45,Trigger)</f>
-        <v>Z6</v>
+        <v>U7</v>
       </c>
       <c r="D45" s="121"/>
       <c r="E45" s="121"/>
       <c r="F45" s="121"/>
       <c r="G45" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H45" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="I45" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MZ6ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J45" s="62"/>
       <c r="L45" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M45" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N45" s="143" t="str">
@@ -6046,19 +6057,19 @@
         <v>--</v>
       </c>
       <c r="V45" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W45" s="3" t="str">
-        <v>obj_005b2</v>
+        <v>obj_00565</v>
       </c>
       <c r="X45" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W45,Trigger),"")</f>
-        <v>EURAB6E26Y_Quote</v>
+        <v>EURAB6E28Y_Quote</v>
       </c>
       <c r="Y45" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W45,Trigger),"")</f>
-        <v>1.7239999999999998E-2</v>
+        <v>1.5520000000000001E-2</v>
       </c>
       <c r="Z45" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W45)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W45)),_xll.qlSwapRateHelperSpread($W45))</f>
@@ -6066,16 +6077,16 @@
       </c>
       <c r="AA45" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W45,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB45" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W45,Trigger),"")</f>
-        <v>51680</v>
+        <v>52499</v>
       </c>
       <c r="AC45" s="68">
-        <v>1.7624152416680111E-2</v>
-      </c>
-      <c r="AD45" s="172"/>
+        <v>1.5875595642748624E-2</v>
+      </c>
+      <c r="AD45" s="158"/>
     </row>
     <row r="46" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="58" t="s">
@@ -6086,30 +6097,30 @@
       </c>
       <c r="C46" s="61" t="str">
         <f>_xll.qlIMMNextCode(C45,B46,Trigger)</f>
-        <v>H7</v>
+        <v>Z7</v>
       </c>
       <c r="D46" s="121"/>
       <c r="E46" s="121"/>
       <c r="F46" s="121"/>
       <c r="G46" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H46" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MH7_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="I46" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MH7ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J46" s="62"/>
       <c r="L46" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M46" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N46" s="143" t="str">
@@ -6138,19 +6149,19 @@
         <v>--</v>
       </c>
       <c r="V46" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W46" s="3" t="str">
-        <v>obj_005bc</v>
+        <v>obj_00555</v>
       </c>
       <c r="X46" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W46,Trigger),"")</f>
-        <v>EURAB6E27Y_Quote</v>
+        <v>EURAB6E29Y_Quote</v>
       </c>
       <c r="Y46" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W46,Trigger),"")</f>
-        <v>1.7260000000000001E-2</v>
+        <v>1.5529999999999999E-2</v>
       </c>
       <c r="Z46" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W46)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W46)),_xll.qlSwapRateHelperSpread($W46))</f>
@@ -6158,16 +6169,16 @@
       </c>
       <c r="AA46" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W46,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB46" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W46,Trigger),"")</f>
-        <v>52047</v>
+        <v>52866</v>
       </c>
       <c r="AC46" s="68">
-        <v>1.7630135339142313E-2</v>
-      </c>
-      <c r="AD46" s="172"/>
+        <v>1.5870485692922601E-2</v>
+      </c>
+      <c r="AD46" s="158"/>
     </row>
     <row r="47" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="58" t="s">
@@ -6178,30 +6189,30 @@
       </c>
       <c r="C47" s="61" t="str">
         <f>_xll.qlIMMNextCode(C46,B47,Trigger)</f>
-        <v>M7</v>
+        <v>H8</v>
       </c>
       <c r="D47" s="121"/>
       <c r="E47" s="121"/>
       <c r="F47" s="121"/>
       <c r="G47" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H47" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MM7_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="I47" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MM7ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J47" s="62"/>
       <c r="L47" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M47" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N47" s="143" t="str">
@@ -6230,19 +6241,19 @@
         <v>--</v>
       </c>
       <c r="V47" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W47" s="3" t="str">
-        <v>obj_005c3</v>
+        <v>obj_00568</v>
       </c>
       <c r="X47" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W47,Trigger),"")</f>
-        <v>EURAB6E28Y_Quote</v>
+        <v>EURAB6E30Y_Quote</v>
       </c>
       <c r="Y47" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W47,Trigger),"")</f>
-        <v>1.729E-2</v>
+        <v>1.554E-2</v>
       </c>
       <c r="Z47" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W47)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W47)),_xll.qlSwapRateHelperSpread($W47))</f>
@@ -6250,16 +6261,16 @@
       </c>
       <c r="AA47" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W47,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB47" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W47,Trigger),"")</f>
-        <v>52411</v>
+        <v>53230</v>
       </c>
       <c r="AC47" s="68">
-        <v>1.7650650415509422E-2</v>
-      </c>
-      <c r="AD47" s="172"/>
+        <v>1.5868084162104348E-2</v>
+      </c>
+      <c r="AD47" s="158"/>
     </row>
     <row r="48" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="58" t="s">
@@ -6270,30 +6281,30 @@
       </c>
       <c r="C48" s="61" t="str">
         <f>_xll.qlIMMNextCode(C47,B48,Trigger)</f>
-        <v>U7</v>
+        <v>M8</v>
       </c>
       <c r="D48" s="121"/>
       <c r="E48" s="121"/>
       <c r="F48" s="121"/>
       <c r="G48" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H48" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MU7_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="I48" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MU7ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J48" s="62"/>
       <c r="L48" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M48" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N48" s="143" t="str">
@@ -6322,19 +6333,19 @@
         <v>--</v>
       </c>
       <c r="V48" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W48" s="3" t="str">
-        <v>obj_005ab</v>
+        <v>obj_00562</v>
       </c>
       <c r="X48" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W48,Trigger),"")</f>
-        <v>EURAB6E29Y_Quote</v>
+        <v>EURAB6E35Y_Quote</v>
       </c>
       <c r="Y48" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W48,Trigger),"")</f>
-        <v>1.7309999999999999E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="Z48" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W48)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W48)),_xll.qlSwapRateHelperSpread($W48))</f>
@@ -6342,16 +6353,16 @@
       </c>
       <c r="AA48" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W48,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB48" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W48,Trigger),"")</f>
-        <v>52777</v>
+        <v>55057</v>
       </c>
       <c r="AC48" s="68">
-        <v>1.7657662892639311E-2</v>
-      </c>
-      <c r="AD48" s="172"/>
+        <v>1.5880849414669714E-2</v>
+      </c>
+      <c r="AD48" s="158"/>
     </row>
     <row r="49" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="58" t="s">
@@ -6362,30 +6373,30 @@
       </c>
       <c r="C49" s="61" t="str">
         <f>_xll.qlIMMNextCode(C48,B49,Trigger)</f>
-        <v>Z7</v>
+        <v>U8</v>
       </c>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121"/>
       <c r="G49" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H49" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MZ7_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="I49" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MZ7ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J49" s="62"/>
       <c r="L49" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M49" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N49" s="143" t="str">
@@ -6414,19 +6425,19 @@
         <v>--</v>
       </c>
       <c r="V49" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W49" s="3" t="str">
-        <v>obj_005bb</v>
+        <v>obj_0055e</v>
       </c>
       <c r="X49" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W49,Trigger),"")</f>
-        <v>EURAB6E30Y_Quote</v>
+        <v>EURAB6E40Y_Quote</v>
       </c>
       <c r="Y49" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W49,Trigger),"")</f>
-        <v>1.7340000000000001E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="Z49" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W49)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W49)),_xll.qlSwapRateHelperSpread($W49))</f>
@@ -6434,16 +6445,16 @@
       </c>
       <c r="AA49" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W49,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB49" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W49,Trigger),"")</f>
-        <v>53142</v>
+        <v>56884</v>
       </c>
       <c r="AC49" s="68">
-        <v>1.7680807809388802E-2</v>
-      </c>
-      <c r="AD49" s="172"/>
+        <v>1.58295335123078E-2</v>
+      </c>
+      <c r="AD49" s="158"/>
     </row>
     <row r="50" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="s">
@@ -6454,30 +6465,30 @@
       </c>
       <c r="C50" s="61" t="str">
         <f>_xll.qlIMMNextCode(C49,B50,Trigger)</f>
-        <v>H8</v>
+        <v>Z8</v>
       </c>
       <c r="D50" s="121"/>
       <c r="E50" s="121"/>
       <c r="F50" s="121"/>
       <c r="G50" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H50" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MH8_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="I50" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MH8ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J50" s="62"/>
       <c r="L50" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>FUT</v>
       </c>
       <c r="M50" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="N50" s="143" t="str">
@@ -6506,19 +6517,19 @@
         <v>--</v>
       </c>
       <c r="V50" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W50" s="3" t="str">
-        <v>obj_005c2</v>
+        <v>obj_0055b</v>
       </c>
       <c r="X50" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W50,Trigger),"")</f>
-        <v>EURAB6E35Y_Quote</v>
+        <v>EURAB6E50Y_Quote</v>
       </c>
       <c r="Y50" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W50,Trigger),"")</f>
-        <v>1.745E-2</v>
+        <v>1.5169999999999999E-2</v>
       </c>
       <c r="Z50" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W50)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W50)),_xll.qlSwapRateHelperSpread($W50))</f>
@@ -6526,16 +6537,16 @@
       </c>
       <c r="AA50" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W50,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB50" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W50,Trigger),"")</f>
-        <v>54968</v>
+        <v>60535</v>
       </c>
       <c r="AC50" s="68">
-        <v>1.7756748979335182E-2</v>
-      </c>
-      <c r="AD50" s="172"/>
+        <v>1.5154634142301103E-2</v>
+      </c>
+      <c r="AD50" s="158"/>
     </row>
     <row r="51" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="58" t="s">
@@ -6546,71 +6557,71 @@
       </c>
       <c r="C51" s="61" t="str">
         <f>_xll.qlIMMNextCode(C50,B51,Trigger)</f>
-        <v>M8</v>
+        <v>H9</v>
       </c>
       <c r="D51" s="121"/>
       <c r="E51" s="121"/>
       <c r="F51" s="121"/>
       <c r="G51" s="60" t="str">
+        <f t="shared" si="14"/>
+        <v>Euribor3M</v>
+      </c>
+      <c r="H51" s="115" t="str">
+        <f t="shared" si="15"/>
+        <v>EURFUT3MH9_Quote</v>
+      </c>
+      <c r="I51" s="115" t="str">
+        <f t="shared" si="16"/>
+        <v>EURFUT3MH9ConvAdj_Quote</v>
+      </c>
+      <c r="J51" s="62"/>
+      <c r="L51" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>FUT</v>
+      </c>
+      <c r="M51" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="H51" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MM8_Quote</v>
-      </c>
-      <c r="I51" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MM8ConvAdj_Quote</v>
-      </c>
-      <c r="J51" s="62"/>
-      <c r="L51" s="9" t="str">
-        <f t="shared" si="11"/>
-        <v>FUT</v>
-      </c>
-      <c r="M51" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="N51" s="143" t="str">
+        <v>--</v>
+      </c>
+      <c r="N51" s="144" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M51,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="O51" s="148" t="str">
+      <c r="O51" s="149" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M51,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="P51" s="93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="90">
+      <c r="P51" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="91">
         <v>10</v>
       </c>
-      <c r="R51" s="90">
-        <v>1</v>
-      </c>
-      <c r="S51" s="95" t="str">
+      <c r="R51" s="91">
+        <v>1</v>
+      </c>
+      <c r="S51" s="98" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M51,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="T51" s="95" t="str">
+      <c r="T51" s="98" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M51,Trigger),"--")</f>
         <v>--</v>
       </c>
       <c r="V51" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>Sw</v>
       </c>
       <c r="W51" s="3" t="str">
-        <v>obj_005b3</v>
+        <v>obj_0056f</v>
       </c>
       <c r="X51" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W51,Trigger),"")</f>
-        <v>EURAB6E40Y_Quote</v>
+        <v>EURAB6E60Y_Quote</v>
       </c>
       <c r="Y51" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W51,Trigger),"")</f>
-        <v>1.745E-2</v>
+        <v>1.502E-2</v>
       </c>
       <c r="Z51" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W51)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W51)),_xll.qlSwapRateHelperSpread($W51))</f>
@@ -6618,16 +6629,16 @@
       </c>
       <c r="AA51" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W51,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB51" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W51,Trigger),"")</f>
-        <v>56794</v>
+        <v>64187</v>
       </c>
       <c r="AC51" s="68">
-        <v>1.7698310719642122E-2</v>
-      </c>
-      <c r="AD51" s="172"/>
+        <v>1.4912746718746822E-2</v>
+      </c>
+      <c r="AD51" s="158"/>
     </row>
     <row r="52" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="58" t="s">
@@ -6638,88 +6649,88 @@
       </c>
       <c r="C52" s="61" t="str">
         <f>_xll.qlIMMNextCode(C51,B52,Trigger)</f>
-        <v>U8</v>
+        <v>M9</v>
       </c>
       <c r="D52" s="121"/>
       <c r="E52" s="121"/>
       <c r="F52" s="121"/>
       <c r="G52" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H52" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MU8_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="I52" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MU8ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J52" s="62"/>
-      <c r="L52" s="9" t="str">
-        <f t="shared" si="11"/>
-        <v>FUT</v>
-      </c>
-      <c r="M52" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="N52" s="143" t="str">
+      <c r="L52" s="132" t="str">
+        <f t="shared" ref="L52:L89" si="18">A58</f>
+        <v>Sw</v>
+      </c>
+      <c r="M52" s="133" t="str">
+        <f t="shared" ref="M52:M89" si="19">IF(ISBLANK(J58),"--",J58)</f>
+        <v>--</v>
+      </c>
+      <c r="N52" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M52,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="O52" s="148" t="str">
+      <c r="O52" s="135" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M52,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="P52" s="93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="90">
-        <v>10</v>
-      </c>
-      <c r="R52" s="90">
-        <v>1</v>
-      </c>
-      <c r="S52" s="95" t="str">
+      <c r="P52" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="133">
+        <v>50</v>
+      </c>
+      <c r="R52" s="133">
+        <v>1</v>
+      </c>
+      <c r="S52" s="136" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M52,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="T52" s="95" t="str">
+      <c r="T52" s="136" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M52,Trigger),"--")</f>
         <v>--</v>
       </c>
       <c r="V52" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Sw</v>
-      </c>
-      <c r="W52" s="3" t="str">
-        <v>obj_005b9</v>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W52" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X52" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W52,Trigger),"")</f>
-        <v>EURAB6E50Y_Quote</v>
-      </c>
-      <c r="Y52" s="68">
+        <v/>
+      </c>
+      <c r="Y52" s="68" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W52,Trigger),"")</f>
-        <v>1.702E-2</v>
-      </c>
-      <c r="Z52" s="100">
+        <v/>
+      </c>
+      <c r="Z52" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W52)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W52)),_xll.qlSwapRateHelperSpread($W52))</f>
-        <v>0</v>
-      </c>
-      <c r="AA52" s="4">
+        <v/>
+      </c>
+      <c r="AA52" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W52,Trigger),"")</f>
-        <v>42184</v>
-      </c>
-      <c r="AB52" s="4">
+        <v/>
+      </c>
+      <c r="AB52" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W52,Trigger),"")</f>
-        <v>60447</v>
-      </c>
-      <c r="AC52" s="68">
-        <v>1.698732796408077E-2</v>
-      </c>
-      <c r="AD52" s="172"/>
+        <v/>
+      </c>
+      <c r="AC52" s="68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD52" s="158"/>
     </row>
     <row r="53" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="58" t="s">
@@ -6730,88 +6741,88 @@
       </c>
       <c r="C53" s="61" t="str">
         <f>_xll.qlIMMNextCode(C52,B53,Trigger)</f>
-        <v>Z8</v>
+        <v>U9</v>
       </c>
       <c r="D53" s="121"/>
       <c r="E53" s="121"/>
       <c r="F53" s="121"/>
       <c r="G53" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H53" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MZ8_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="I53" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MZ8ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J53" s="62"/>
-      <c r="L53" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>FUT</v>
-      </c>
-      <c r="M53" s="91" t="str">
-        <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="N53" s="144" t="str">
+      <c r="L53" s="69" t="str">
+        <f t="shared" si="18"/>
+        <v>Sw</v>
+      </c>
+      <c r="M53" s="137" t="str">
+        <f t="shared" si="19"/>
+        <v>--</v>
+      </c>
+      <c r="N53" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M53,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="O53" s="149" t="str">
+      <c r="O53" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M53,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="P53" s="96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="91">
-        <v>10</v>
-      </c>
-      <c r="R53" s="91">
-        <v>1</v>
-      </c>
-      <c r="S53" s="98" t="str">
+      <c r="P53" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="137">
+        <v>50</v>
+      </c>
+      <c r="R53" s="137">
+        <v>1</v>
+      </c>
+      <c r="S53" s="140" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M53,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="T53" s="98" t="str">
+      <c r="T53" s="140" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M53,Trigger),"--")</f>
         <v>--</v>
       </c>
       <c r="V53" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Sw</v>
-      </c>
-      <c r="W53" s="3" t="str">
-        <v>obj_005ad</v>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W53" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X53" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W53,Trigger),"")</f>
-        <v>EURAB6E60Y_Quote</v>
-      </c>
-      <c r="Y53" s="68">
+        <v/>
+      </c>
+      <c r="Y53" s="68" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W53,Trigger),"")</f>
-        <v>1.687E-2</v>
-      </c>
-      <c r="Z53" s="100">
+        <v/>
+      </c>
+      <c r="Z53" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W53)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W53)),_xll.qlSwapRateHelperSpread($W53))</f>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="4">
+        <v/>
+      </c>
+      <c r="AA53" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W53,Trigger),"")</f>
-        <v>42184</v>
-      </c>
-      <c r="AB53" s="4">
+        <v/>
+      </c>
+      <c r="AB53" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W53,Trigger),"")</f>
-        <v>64098</v>
-      </c>
-      <c r="AC53" s="68">
-        <v>1.6731131254736856E-2</v>
-      </c>
-      <c r="AD53" s="172"/>
+        <v/>
+      </c>
+      <c r="AC53" s="68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD53" s="158"/>
     </row>
     <row r="54" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="58" t="s">
@@ -6822,59 +6833,59 @@
       </c>
       <c r="C54" s="61" t="str">
         <f>_xll.qlIMMNextCode(C53,B54,Trigger)</f>
-        <v>H9</v>
+        <v>Z9</v>
       </c>
       <c r="D54" s="121"/>
       <c r="E54" s="121"/>
       <c r="F54" s="121"/>
       <c r="G54" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
       <c r="H54" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MH9_Quote</v>
+        <f t="shared" si="15"/>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="I54" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MH9ConvAdj_Quote</v>
+        <f t="shared" si="16"/>
+        <v>EURFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J54" s="62"/>
-      <c r="L54" s="132" t="str">
-        <f t="shared" ref="L54:L91" si="16">A60</f>
+      <c r="L54" s="69" t="str">
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
-      <c r="M54" s="133" t="str">
-        <f t="shared" ref="M54:M91" si="17">IF(ISBLANK(J60),"--",J60)</f>
-        <v>--</v>
-      </c>
-      <c r="N54" s="145" t="str">
+      <c r="M54" s="137" t="str">
+        <f t="shared" si="19"/>
+        <v>--</v>
+      </c>
+      <c r="N54" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M54,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="O54" s="135" t="str">
+      <c r="O54" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M54,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="P54" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="133">
+      <c r="P54" s="138" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="137">
         <v>50</v>
       </c>
-      <c r="R54" s="133">
-        <v>1</v>
-      </c>
-      <c r="S54" s="136" t="str">
+      <c r="R54" s="137">
+        <v>1</v>
+      </c>
+      <c r="S54" s="140" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M54,Trigger),"--")</f>
         <v>--</v>
       </c>
-      <c r="T54" s="136" t="str">
+      <c r="T54" s="140" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M54,Trigger),"--")</f>
         <v>--</v>
       </c>
       <c r="V54" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W54" s="3" t="e">
@@ -6903,41 +6914,41 @@
       <c r="AC54" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD54" s="172"/>
+      <c r="AD54" s="158"/>
     </row>
     <row r="55" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="112" t="b">
-        <v>1</v>
-      </c>
-      <c r="C55" s="61" t="str">
+      <c r="B55" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8" t="str">
         <f>_xll.qlIMMNextCode(C54,B55,Trigger)</f>
-        <v>M9</v>
-      </c>
-      <c r="D55" s="121"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="60" t="str">
-        <f t="shared" si="13"/>
+        <v>H0</v>
+      </c>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>Euribor3M</v>
       </c>
-      <c r="H55" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MM9_Quote</v>
-      </c>
-      <c r="I55" s="115" t="str">
+      <c r="H55" s="116" t="str">
         <f t="shared" si="15"/>
-        <v>EURFUT3MM9ConvAdj_Quote</v>
-      </c>
-      <c r="J55" s="62"/>
+        <v>EURFUT3MH0_Quote</v>
+      </c>
+      <c r="I55" s="116" t="str">
+        <f t="shared" si="16"/>
+        <v>EURFUT3MH0ConvAdj_Quote</v>
+      </c>
+      <c r="J55" s="2"/>
       <c r="L55" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M55" s="137" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>--</v>
       </c>
       <c r="N55" s="146" t="str">
@@ -6966,7 +6977,7 @@
         <v>--</v>
       </c>
       <c r="V55" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W55" s="3" t="e">
@@ -6995,53 +7006,33 @@
       <c r="AC55" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD55" s="172"/>
+      <c r="AD55" s="158"/>
     </row>
     <row r="56" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="112" t="b">
-        <v>1</v>
-      </c>
-      <c r="C56" s="61" t="str">
-        <f>_xll.qlIMMNextCode(C55,B56,Trigger)</f>
-        <v>U9</v>
-      </c>
-      <c r="D56" s="121"/>
-      <c r="E56" s="121"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="60" t="str">
-        <f t="shared" si="13"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="H56" s="115" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MU9_Quote</v>
-      </c>
-      <c r="I56" s="115" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MU9ConvAdj_Quote</v>
-      </c>
-      <c r="J56" s="62"/>
+      <c r="G56" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H56" s="50" t="s">
+        <v>114</v>
+      </c>
       <c r="L56" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M56" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>--</v>
+        <f t="shared" si="19"/>
+        <v>obj_00563#0001</v>
       </c>
       <c r="N56" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M56,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O56" s="139" t="str">
+        <v>EURAB6E2Y_Quote</v>
+      </c>
+      <c r="O56" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M56,Trigger),"--")</f>
-        <v>--</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="P56" s="138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="137">
         <v>50</v>
@@ -7049,16 +7040,16 @@
       <c r="R56" s="137">
         <v>1</v>
       </c>
-      <c r="S56" s="140" t="str">
+      <c r="S56" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M56,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T56" s="140" t="str">
+        <v>42272</v>
+      </c>
+      <c r="T56" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M56,Trigger),"--")</f>
-        <v>--</v>
+        <v>43003</v>
       </c>
       <c r="V56" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W56" s="3" t="e">
@@ -7087,53 +7078,57 @@
       <c r="AC56" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD56" s="172"/>
+      <c r="AD56" s="158"/>
     </row>
     <row r="57" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="C57" s="8" t="str">
-        <f>_xll.qlIMMNextCode(C56,B57,Trigger)</f>
-        <v>Z9</v>
-      </c>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="H57" s="116" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MZ9_Quote</v>
-      </c>
-      <c r="I57" s="116" t="str">
-        <f t="shared" si="15"/>
-        <v>EURFUT3MZ9ConvAdj_Quote</v>
-      </c>
-      <c r="J57" s="2"/>
+      <c r="A57" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="63" t="s">
+        <v>25</v>
+      </c>
       <c r="L57" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M57" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>--</v>
+        <f t="shared" si="19"/>
+        <v>obj_00551#0001</v>
       </c>
       <c r="N57" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M57,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O57" s="139" t="str">
+        <v>EURAB6E3Y_Quote</v>
+      </c>
+      <c r="O57" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M57,Trigger),"--")</f>
-        <v>--</v>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="P57" s="138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="137">
         <v>50</v>
@@ -7141,16 +7136,16 @@
       <c r="R57" s="137">
         <v>1</v>
       </c>
-      <c r="S57" s="140" t="str">
+      <c r="S57" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M57,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T57" s="140" t="str">
+        <v>42272</v>
+      </c>
+      <c r="T57" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M57,Trigger),"--")</f>
-        <v>--</v>
+        <v>43368</v>
       </c>
       <c r="V57" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W57" s="3" t="e">
@@ -7179,30 +7174,54 @@
       <c r="AC57" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD57" s="172"/>
+      <c r="AD57" s="158"/>
     </row>
     <row r="58" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G58" s="50" t="s">
+      <c r="A58" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H58" s="50" t="s">
-        <v>116</v>
-      </c>
+      <c r="G58" s="60" t="str">
+        <f t="shared" ref="G58:G95" si="20">PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"E","M")</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="H58" s="58" t="str">
+        <f t="shared" ref="H58:H95" si="21">Currency&amp;$G$56&amp;$H$56&amp;$B58&amp;"_Quote"</f>
+        <v>EURAB6E1Y_Quote</v>
+      </c>
+      <c r="I58" s="124">
+        <v>0</v>
+      </c>
+      <c r="J58" s="57"/>
       <c r="L58" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M58" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005c7#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00552#0001</v>
       </c>
       <c r="N58" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M58,Trigger),"--")</f>
-        <v>EURAB6E2Y_Quote</v>
+        <v>EURAB6E4Y_Quote</v>
       </c>
       <c r="O58" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M58,Trigger),"--")</f>
-        <v>1.2900000000000001E-3</v>
+        <v>2.3899999999999998E-3</v>
       </c>
       <c r="P58" s="138" t="b">
         <v>1</v>
@@ -7215,14 +7234,14 @@
       </c>
       <c r="S58" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M58,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T58" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M58,Trigger),"--")</f>
-        <v>42915</v>
+        <v>43733</v>
       </c>
       <c r="V58" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W58" s="3" t="e">
@@ -7251,54 +7270,54 @@
       <c r="AC58" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD58" s="172"/>
+      <c r="AD58" s="158"/>
     </row>
     <row r="59" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="I59" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J59" s="63" t="s">
-        <v>25</v>
-      </c>
+      <c r="A59" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="60" t="str">
+        <f t="shared" si="20"/>
+        <v>Euribor6M</v>
+      </c>
+      <c r="H59" s="58" t="str">
+        <f t="shared" si="21"/>
+        <v>EURAB6E15M_Quote</v>
+      </c>
+      <c r="I59" s="125">
+        <v>0</v>
+      </c>
+      <c r="J59" s="62"/>
       <c r="L59" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M59" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005a8#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00558#0001</v>
       </c>
       <c r="N59" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M59,Trigger),"--")</f>
-        <v>EURAB6E3Y_Quote</v>
+        <v>EURAB6E5Y_Quote</v>
       </c>
       <c r="O59" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M59,Trigger),"--")</f>
-        <v>2.32E-3</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="P59" s="138" t="b">
         <v>1</v>
@@ -7311,14 +7330,14 @@
       </c>
       <c r="S59" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M59,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T59" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M59,Trigger),"--")</f>
-        <v>43280</v>
+        <v>44099</v>
       </c>
       <c r="V59" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W59" s="3" t="e">
@@ -7347,16 +7366,16 @@
       <c r="AC59" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD59" s="172"/>
+      <c r="AD59" s="158"/>
     </row>
     <row r="60" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="55" t="s">
+      <c r="B60" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="60" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="60" t="s">
@@ -7366,35 +7385,35 @@
         <v>7</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G60" s="60" t="str">
-        <f t="shared" ref="G60:G97" si="18">PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$58,"E","M")</f>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H60" s="58" t="str">
-        <f t="shared" ref="H60:H97" si="19">Currency&amp;$G$58&amp;$H$58&amp;$B60&amp;"_Quote"</f>
-        <v>EURAB6E1Y_Quote</v>
-      </c>
-      <c r="I60" s="124">
-        <v>0</v>
-      </c>
-      <c r="J60" s="57"/>
+        <f t="shared" si="21"/>
+        <v>EURAB6E18M_Quote</v>
+      </c>
+      <c r="I60" s="125">
+        <v>0</v>
+      </c>
+      <c r="J60" s="62"/>
       <c r="L60" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M60" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005b8#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00550#0001</v>
       </c>
       <c r="N60" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M60,Trigger),"--")</f>
-        <v>EURAB6E4Y_Quote</v>
+        <v>EURAB6E6Y_Quote</v>
       </c>
       <c r="O60" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M60,Trigger),"--")</f>
-        <v>3.7399999999999998E-3</v>
+        <v>5.0200000000000002E-3</v>
       </c>
       <c r="P60" s="138" t="b">
         <v>1</v>
@@ -7407,14 +7426,14 @@
       </c>
       <c r="S60" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M60,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T60" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M60,Trigger),"--")</f>
-        <v>43644</v>
+        <v>44466</v>
       </c>
       <c r="V60" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W60" s="3" t="e">
@@ -7443,14 +7462,14 @@
       <c r="AC60" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD60" s="172"/>
+      <c r="AD60" s="158"/>
     </row>
     <row r="61" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C61" s="60" t="s">
         <v>6</v>
@@ -7462,35 +7481,35 @@
         <v>7</v>
       </c>
       <c r="F61" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G61" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H61" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E15M_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E21M_Quote</v>
       </c>
       <c r="I61" s="125">
         <v>0</v>
       </c>
       <c r="J61" s="62"/>
       <c r="L61" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M61" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005cb#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_0056d#0001</v>
       </c>
       <c r="N61" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M61,Trigger),"--")</f>
-        <v>EURAB6E5Y_Quote</v>
+        <v>EURAB6E7Y_Quote</v>
       </c>
       <c r="O61" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M61,Trigger),"--")</f>
-        <v>5.3499999999999989E-3</v>
+        <v>6.3599999999999993E-3</v>
       </c>
       <c r="P61" s="138" t="b">
         <v>1</v>
@@ -7503,14 +7522,14 @@
       </c>
       <c r="S61" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M61,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T61" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M61,Trigger),"--")</f>
-        <v>44011</v>
+        <v>44830</v>
       </c>
       <c r="V61" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W61" s="3" t="e">
@@ -7539,14 +7558,14 @@
       <c r="AC61" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD61" s="172"/>
+      <c r="AD61" s="158"/>
     </row>
     <row r="62" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B62" s="59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C62" s="60" t="s">
         <v>6</v>
@@ -7558,35 +7577,38 @@
         <v>7</v>
       </c>
       <c r="F62" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G62" s="60" t="str">
+        <f t="shared" si="20"/>
+        <v>Euribor6M</v>
+      </c>
+      <c r="H62" s="58" t="str">
+        <f t="shared" si="21"/>
+        <v>EURAB6E2Y_Quote</v>
+      </c>
+      <c r="I62" s="125">
+        <v>0</v>
+      </c>
+      <c r="J62" s="62" t="str">
+        <f>_xll.qlSwapRateHelper2(,H62,,B62,Calendar,D62,E62,F62,G62,I62,C62,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00563#0001</v>
+      </c>
+      <c r="L62" s="69" t="str">
         <f t="shared" si="18"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="H62" s="58" t="str">
+        <v>Sw</v>
+      </c>
+      <c r="M62" s="137" t="str">
         <f t="shared" si="19"/>
-        <v>EURAB6E18M_Quote</v>
-      </c>
-      <c r="I62" s="125">
-        <v>0</v>
-      </c>
-      <c r="J62" s="62"/>
-      <c r="L62" s="69" t="str">
-        <f t="shared" si="16"/>
-        <v>Sw</v>
-      </c>
-      <c r="M62" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005c0#0002</v>
+        <v>obj_0055d#0001</v>
       </c>
       <c r="N62" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M62,Trigger),"--")</f>
-        <v>EURAB6E6Y_Quote</v>
+        <v>EURAB6E8Y_Quote</v>
       </c>
       <c r="O62" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M62,Trigger),"--")</f>
-        <v>6.9500000000000004E-3</v>
+        <v>7.6499999999999988E-3</v>
       </c>
       <c r="P62" s="138" t="b">
         <v>1</v>
@@ -7599,14 +7621,14 @@
       </c>
       <c r="S62" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M62,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T62" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M62,Trigger),"--")</f>
-        <v>44376</v>
+        <v>45194</v>
       </c>
       <c r="V62" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W62" s="3" t="e">
@@ -7635,14 +7657,14 @@
       <c r="AC62" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD62" s="172"/>
+      <c r="AD62" s="158"/>
     </row>
     <row r="63" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C63" s="60" t="s">
         <v>6</v>
@@ -7654,35 +7676,38 @@
         <v>7</v>
       </c>
       <c r="F63" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G63" s="60" t="str">
+        <f t="shared" si="20"/>
+        <v>Euribor6M</v>
+      </c>
+      <c r="H63" s="58" t="str">
+        <f t="shared" si="21"/>
+        <v>EURAB6E3Y_Quote</v>
+      </c>
+      <c r="I63" s="125">
+        <v>0</v>
+      </c>
+      <c r="J63" s="62" t="str">
+        <f>_xll.qlSwapRateHelper2(,H63,,B63,Calendar,D63,E63,F63,G63,I63,C63,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00551#0001</v>
+      </c>
+      <c r="L63" s="69" t="str">
         <f t="shared" si="18"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="H63" s="58" t="str">
+        <v>Sw</v>
+      </c>
+      <c r="M63" s="137" t="str">
         <f t="shared" si="19"/>
-        <v>EURAB6E21M_Quote</v>
-      </c>
-      <c r="I63" s="125">
-        <v>0</v>
-      </c>
-      <c r="J63" s="62"/>
-      <c r="L63" s="69" t="str">
-        <f t="shared" si="16"/>
-        <v>Sw</v>
-      </c>
-      <c r="M63" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005b4#0002</v>
+        <v>obj_00567#0001</v>
       </c>
       <c r="N63" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M63,Trigger),"--")</f>
-        <v>EURAB6E7Y_Quote</v>
+        <v>EURAB6E9Y_Quote</v>
       </c>
       <c r="O63" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M63,Trigger),"--")</f>
-        <v>8.4600000000000005E-3</v>
+        <v>8.8400000000000006E-3</v>
       </c>
       <c r="P63" s="138" t="b">
         <v>1</v>
@@ -7695,14 +7720,14 @@
       </c>
       <c r="S63" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M63,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T63" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M63,Trigger),"--")</f>
-        <v>44741</v>
+        <v>45560</v>
       </c>
       <c r="V63" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W63" s="3" t="e">
@@ -7731,14 +7756,14 @@
       <c r="AC63" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD63" s="172"/>
+      <c r="AD63" s="158"/>
     </row>
     <row r="64" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C64" s="60" t="s">
         <v>6</v>
@@ -7750,38 +7775,38 @@
         <v>7</v>
       </c>
       <c r="F64" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G64" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H64" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E2Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E4Y_Quote</v>
       </c>
       <c r="I64" s="125">
         <v>0</v>
       </c>
       <c r="J64" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H64,,B64,Calendar,D64,E64,F64,G64,I64,C64,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c7#0002</v>
+        <v>obj_00552#0001</v>
       </c>
       <c r="L64" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M64" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005bd#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_0055c#0001</v>
       </c>
       <c r="N64" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M64,Trigger),"--")</f>
-        <v>EURAB6E8Y_Quote</v>
+        <v>EURAB6E10Y_Quote</v>
       </c>
       <c r="O64" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M64,Trigger),"--")</f>
-        <v>9.8399999999999998E-3</v>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="P64" s="138" t="b">
         <v>1</v>
@@ -7794,14 +7819,14 @@
       </c>
       <c r="S64" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M64,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T64" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M64,Trigger),"--")</f>
-        <v>45106</v>
+        <v>45925</v>
       </c>
       <c r="V64" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W64" s="3" t="e">
@@ -7830,14 +7855,14 @@
       <c r="AC64" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD64" s="172"/>
+      <c r="AD64" s="158"/>
     </row>
     <row r="65" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C65" s="60" t="s">
         <v>6</v>
@@ -7849,58 +7874,58 @@
         <v>7</v>
       </c>
       <c r="F65" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G65" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H65" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E3Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E5Y_Quote</v>
       </c>
       <c r="I65" s="125">
         <v>0</v>
       </c>
       <c r="J65" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H65,,B65,Calendar,D65,E65,F65,G65,I65,C65,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a8#0002</v>
+        <v>obj_00558#0001</v>
       </c>
       <c r="L65" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
-      <c r="M65" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005a9#0002</v>
+      <c r="M65" s="138" t="str">
+        <f t="shared" si="19"/>
+        <v>obj_00559#0001</v>
       </c>
       <c r="N65" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M65,Trigger),"--")</f>
-        <v>EURAB6E9Y_Quote</v>
+        <v>EURAB6E11Y_Quote</v>
       </c>
       <c r="O65" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M65,Trigger),"--")</f>
-        <v>1.1059999999999999E-2</v>
+        <v>1.0860000000000002E-2</v>
       </c>
       <c r="P65" s="138" t="b">
         <v>1</v>
       </c>
-      <c r="Q65" s="137">
+      <c r="Q65" s="138">
         <v>50</v>
       </c>
-      <c r="R65" s="137">
+      <c r="R65" s="138">
         <v>1</v>
       </c>
       <c r="S65" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M65,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T65" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M65,Trigger),"--")</f>
-        <v>45471</v>
+        <v>46290</v>
       </c>
       <c r="V65" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W65" s="3" t="e">
@@ -7929,14 +7954,14 @@
       <c r="AC65" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD65" s="172"/>
+      <c r="AD65" s="158"/>
     </row>
     <row r="66" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B66" s="59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C66" s="60" t="s">
         <v>6</v>
@@ -7948,58 +7973,58 @@
         <v>7</v>
       </c>
       <c r="F66" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G66" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H66" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E4Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E6Y_Quote</v>
       </c>
       <c r="I66" s="125">
         <v>0</v>
       </c>
       <c r="J66" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H66,,B66,Calendar,D66,E66,F66,G66,I66,C66,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b8#0002</v>
+        <v>obj_00550#0001</v>
       </c>
       <c r="L66" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
-      <c r="M66" s="137" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005ba#0002</v>
+      <c r="M66" s="138" t="str">
+        <f t="shared" si="19"/>
+        <v>obj_00560#0001</v>
       </c>
       <c r="N66" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M66,Trigger),"--")</f>
-        <v>EURAB6E10Y_Quote</v>
+        <v>EURAB6E12Y_Quote</v>
       </c>
       <c r="O66" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M66,Trigger),"--")</f>
-        <v>1.2110000000000001E-2</v>
+        <v>1.171E-2</v>
       </c>
       <c r="P66" s="138" t="b">
         <v>1</v>
       </c>
-      <c r="Q66" s="137">
+      <c r="Q66" s="138">
         <v>50</v>
       </c>
-      <c r="R66" s="137">
+      <c r="R66" s="138">
         <v>1</v>
       </c>
       <c r="S66" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M66,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T66" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M66,Trigger),"--")</f>
-        <v>45838</v>
+        <v>46657</v>
       </c>
       <c r="V66" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W66" s="3" t="e">
@@ -8028,14 +8053,14 @@
       <c r="AC66" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD66" s="172"/>
+      <c r="AD66" s="158"/>
     </row>
     <row r="67" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B67" s="59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C67" s="60" t="s">
         <v>6</v>
@@ -8047,38 +8072,38 @@
         <v>7</v>
       </c>
       <c r="F67" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G67" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H67" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E5Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E7Y_Quote</v>
       </c>
       <c r="I67" s="125">
         <v>0</v>
       </c>
       <c r="J67" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H67,,B67,Calendar,D67,E67,F67,G67,I67,C67,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cb#0002</v>
+        <v>obj_0056d#0001</v>
       </c>
       <c r="L67" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M67" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005c1#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00556#0001</v>
       </c>
       <c r="N67" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M67,Trigger),"--")</f>
-        <v>EURAB6E11Y_Quote</v>
+        <v>EURAB6E13Y_Quote</v>
       </c>
       <c r="O67" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M67,Trigger),"--")</f>
-        <v>1.303E-2</v>
+        <v>1.2450000000000001E-2</v>
       </c>
       <c r="P67" s="138" t="b">
         <v>1</v>
@@ -8091,14 +8116,14 @@
       </c>
       <c r="S67" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M67,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T67" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M67,Trigger),"--")</f>
-        <v>46202</v>
+        <v>47021</v>
       </c>
       <c r="V67" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V67:V89" si="22">IFERROR(INDEX($L$3:$L$89,MATCH(X67,$N$3:$N$89,0),1),"")</f>
         <v/>
       </c>
       <c r="W67" s="3" t="e">
@@ -8127,14 +8152,14 @@
       <c r="AC67" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD67" s="172"/>
+      <c r="AD67" s="158"/>
     </row>
     <row r="68" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B68" s="59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C68" s="60" t="s">
         <v>6</v>
@@ -8146,38 +8171,38 @@
         <v>7</v>
       </c>
       <c r="F68" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G68" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H68" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E6Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E8Y_Quote</v>
       </c>
       <c r="I68" s="125">
         <v>0</v>
       </c>
       <c r="J68" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H68,,B68,Calendar,D68,E68,F68,G68,I68,C68,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c0#0002</v>
+        <v>obj_0055d#0001</v>
       </c>
       <c r="L68" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M68" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005ac#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00561#0001</v>
       </c>
       <c r="N68" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M68,Trigger),"--")</f>
-        <v>EURAB6E12Y_Quote</v>
+        <v>EURAB6E14Y_Quote</v>
       </c>
       <c r="O68" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M68,Trigger),"--")</f>
-        <v>1.3839999999999998E-2</v>
+        <v>1.307E-2</v>
       </c>
       <c r="P68" s="138" t="b">
         <v>1</v>
@@ -8190,14 +8215,14 @@
       </c>
       <c r="S68" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M68,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T68" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M68,Trigger),"--")</f>
-        <v>46567</v>
+        <v>47386</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" ref="V68:V91" si="20">IFERROR(INDEX($L$3:$L$91,MATCH(X68,$N$3:$N$91,0),1),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W68" s="3" t="e">
@@ -8226,14 +8251,14 @@
       <c r="AC68" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD68" s="172"/>
+      <c r="AD68" s="158"/>
     </row>
     <row r="69" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B69" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C69" s="60" t="s">
         <v>6</v>
@@ -8245,38 +8270,38 @@
         <v>7</v>
       </c>
       <c r="F69" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G69" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H69" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E7Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E9Y_Quote</v>
       </c>
       <c r="I69" s="125">
         <v>0</v>
       </c>
       <c r="J69" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H69,,B69,Calendar,D69,E69,F69,G69,I69,C69,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b4#0002</v>
+        <v>obj_00567#0001</v>
       </c>
       <c r="L69" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M69" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005b0#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00554#0001</v>
       </c>
       <c r="N69" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M69,Trigger),"--")</f>
-        <v>EURAB6E13Y_Quote</v>
+        <v>EURAB6E15Y_Quote</v>
       </c>
       <c r="O69" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M69,Trigger),"--")</f>
-        <v>1.452E-2</v>
+        <v>1.359E-2</v>
       </c>
       <c r="P69" s="138" t="b">
         <v>1</v>
@@ -8289,14 +8314,14 @@
       </c>
       <c r="S69" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M69,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T69" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M69,Trigger),"--")</f>
-        <v>46933</v>
+        <v>47751</v>
       </c>
       <c r="V69" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W69" s="3" t="e">
@@ -8325,14 +8350,14 @@
       <c r="AC69" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD69" s="172"/>
+      <c r="AD69" s="158"/>
     </row>
     <row r="70" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B70" s="59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C70" s="60" t="s">
         <v>6</v>
@@ -8344,38 +8369,38 @@
         <v>7</v>
       </c>
       <c r="F70" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G70" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H70" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E8Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E10Y_Quote</v>
       </c>
       <c r="I70" s="125">
         <v>0</v>
       </c>
       <c r="J70" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H70,,B70,Calendar,D70,E70,F70,G70,I70,C70,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bd#0002</v>
+        <v>obj_0055c#0001</v>
       </c>
       <c r="L70" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M70" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005c6#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00570#0001</v>
       </c>
       <c r="N70" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M70,Trigger),"--")</f>
-        <v>EURAB6E14Y_Quote</v>
+        <v>EURAB6E16Y_Quote</v>
       </c>
       <c r="O70" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M70,Trigger),"--")</f>
-        <v>1.5089999999999999E-2</v>
+        <v>1.4030000000000001E-2</v>
       </c>
       <c r="P70" s="138" t="b">
         <v>1</v>
@@ -8388,14 +8413,14 @@
       </c>
       <c r="S70" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M70,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T70" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M70,Trigger),"--")</f>
-        <v>47298</v>
+        <v>48116</v>
       </c>
       <c r="V70" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W70" s="3" t="e">
@@ -8424,14 +8449,14 @@
       <c r="AC70" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD70" s="172"/>
+      <c r="AD70" s="158"/>
     </row>
     <row r="71" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B71" s="59" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C71" s="60" t="s">
         <v>6</v>
@@ -8443,38 +8468,38 @@
         <v>7</v>
       </c>
       <c r="F71" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G71" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H71" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E9Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E11Y_Quote</v>
       </c>
       <c r="I71" s="125">
         <v>0</v>
       </c>
       <c r="J71" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H71,,B71,Calendar,D71,E71,F71,G71,I71,C71,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a9#0002</v>
+        <v>obj_00559#0001</v>
       </c>
       <c r="L71" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M71" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005af#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00564#0001</v>
       </c>
       <c r="N71" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M71,Trigger),"--")</f>
-        <v>EURAB6E15Y_Quote</v>
+        <v>EURAB6E17Y_Quote</v>
       </c>
       <c r="O71" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M71,Trigger),"--")</f>
-        <v>1.555E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="P71" s="138" t="b">
         <v>1</v>
@@ -8487,14 +8512,14 @@
       </c>
       <c r="S71" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M71,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T71" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M71,Trigger),"--")</f>
-        <v>47662</v>
+        <v>48484</v>
       </c>
       <c r="V71" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W71" s="3" t="e">
@@ -8523,14 +8548,14 @@
       <c r="AC71" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD71" s="172"/>
+      <c r="AD71" s="158"/>
     </row>
     <row r="72" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B72" s="59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C72" s="60" t="s">
         <v>6</v>
@@ -8542,38 +8567,38 @@
         <v>7</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G72" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H72" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E10Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E12Y_Quote</v>
       </c>
       <c r="I72" s="125">
         <v>0</v>
       </c>
       <c r="J72" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H72,,B72,Calendar,D72,E72,F72,G72,I72,C72,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ba#0002</v>
+        <v>obj_00560#0001</v>
       </c>
       <c r="L72" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M72" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005c5#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_0055a#0001</v>
       </c>
       <c r="N72" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M72,Trigger),"--")</f>
-        <v>EURAB6E16Y_Quote</v>
+        <v>EURAB6E18Y_Quote</v>
       </c>
       <c r="O72" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M72,Trigger),"--")</f>
-        <v>1.5949999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="P72" s="138" t="b">
         <v>1</v>
@@ -8586,14 +8611,14 @@
       </c>
       <c r="S72" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M72,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T72" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M72,Trigger),"--")</f>
-        <v>48029</v>
+        <v>48848</v>
       </c>
       <c r="V72" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W72" s="3" t="e">
@@ -8622,14 +8647,14 @@
       <c r="AC72" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD72" s="172"/>
+      <c r="AD72" s="158"/>
     </row>
     <row r="73" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B73" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C73" s="60" t="s">
         <v>6</v>
@@ -8641,38 +8666,38 @@
         <v>7</v>
       </c>
       <c r="F73" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G73" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H73" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E11Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E13Y_Quote</v>
       </c>
       <c r="I73" s="125">
         <v>0</v>
       </c>
       <c r="J73" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H73,,B73,Calendar,D73,E73,F73,G73,I73,C73,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c1#0002</v>
+        <v>obj_00556#0001</v>
       </c>
       <c r="L73" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M73" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005cc#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00557#0001</v>
       </c>
       <c r="N73" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M73,Trigger),"--")</f>
-        <v>EURAB6E17Y_Quote</v>
+        <v>EURAB6E19Y_Quote</v>
       </c>
       <c r="O73" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M73,Trigger),"--")</f>
-        <v>1.627E-2</v>
+        <v>1.4929999999999999E-2</v>
       </c>
       <c r="P73" s="138" t="b">
         <v>1</v>
@@ -8685,14 +8710,14 @@
       </c>
       <c r="S73" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M73,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T73" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M73,Trigger),"--")</f>
-        <v>48394</v>
+        <v>49212</v>
       </c>
       <c r="V73" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W73" s="3" t="e">
@@ -8721,14 +8746,14 @@
       <c r="AC73" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD73" s="172"/>
+      <c r="AD73" s="158"/>
     </row>
     <row r="74" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B74" s="59" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C74" s="60" t="s">
         <v>6</v>
@@ -8740,38 +8765,38 @@
         <v>7</v>
       </c>
       <c r="F74" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G74" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H74" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E12Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E14Y_Quote</v>
       </c>
       <c r="I74" s="125">
         <v>0</v>
       </c>
       <c r="J74" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H74,,B74,Calendar,D74,E74,F74,G74,I74,C74,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ac#0002</v>
+        <v>obj_00561#0001</v>
       </c>
       <c r="L74" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M74" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005b6#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_0056e#0001</v>
       </c>
       <c r="N74" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M74,Trigger),"--")</f>
-        <v>EURAB6E18Y_Quote</v>
+        <v>EURAB6E20Y_Quote</v>
       </c>
       <c r="O74" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M74,Trigger),"--")</f>
-        <v>1.6539999999999999E-2</v>
+        <v>1.5110000000000002E-2</v>
       </c>
       <c r="P74" s="138" t="b">
         <v>1</v>
@@ -8784,14 +8809,14 @@
       </c>
       <c r="S74" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M74,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T74" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M74,Trigger),"--")</f>
-        <v>48759</v>
+        <v>49577</v>
       </c>
       <c r="V74" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W74" s="3" t="e">
@@ -8820,14 +8845,14 @@
       <c r="AC74" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD74" s="172"/>
+      <c r="AD74" s="158"/>
     </row>
     <row r="75" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B75" s="59" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C75" s="60" t="s">
         <v>6</v>
@@ -8839,38 +8864,38 @@
         <v>7</v>
       </c>
       <c r="F75" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G75" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H75" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E13Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E15Y_Quote</v>
       </c>
       <c r="I75" s="125">
         <v>0</v>
       </c>
       <c r="J75" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H75,,B75,Calendar,D75,E75,F75,G75,I75,C75,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b0#0002</v>
+        <v>obj_00554#0001</v>
       </c>
       <c r="L75" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M75" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005c9#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_0055f#0001</v>
       </c>
       <c r="N75" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M75,Trigger),"--")</f>
-        <v>EURAB6E19Y_Quote</v>
+        <v>EURAB6E21Y_Quote</v>
       </c>
       <c r="O75" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M75,Trigger),"--")</f>
-        <v>1.6739999999999998E-2</v>
+        <v>1.525E-2</v>
       </c>
       <c r="P75" s="138" t="b">
         <v>1</v>
@@ -8883,14 +8908,14 @@
       </c>
       <c r="S75" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M75,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T75" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M75,Trigger),"--")</f>
-        <v>49124</v>
+        <v>49943</v>
       </c>
       <c r="V75" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W75" s="3" t="e">
@@ -8919,14 +8944,14 @@
       <c r="AC75" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD75" s="172"/>
+      <c r="AD75" s="158"/>
     </row>
     <row r="76" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B76" s="59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76" s="60" t="s">
         <v>6</v>
@@ -8938,38 +8963,38 @@
         <v>7</v>
       </c>
       <c r="F76" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G76" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H76" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E14Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E16Y_Quote</v>
       </c>
       <c r="I76" s="125">
         <v>0</v>
       </c>
       <c r="J76" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H76,,B76,Calendar,D76,E76,F76,G76,I76,C76,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c6#0002</v>
+        <v>obj_00570#0001</v>
       </c>
       <c r="L76" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M76" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005b5#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_0056b#0001</v>
       </c>
       <c r="N76" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M76,Trigger),"--")</f>
-        <v>EURAB6E20Y_Quote</v>
+        <v>EURAB6E22Y_Quote</v>
       </c>
       <c r="O76" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M76,Trigger),"--")</f>
-        <v>1.6899999999999998E-2</v>
+        <v>1.5339999999999999E-2</v>
       </c>
       <c r="P76" s="138" t="b">
         <v>1</v>
@@ -8982,14 +9007,14 @@
       </c>
       <c r="S76" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M76,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T76" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M76,Trigger),"--")</f>
-        <v>49489</v>
+        <v>50308</v>
       </c>
       <c r="V76" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W76" s="3" t="e">
@@ -9018,14 +9043,14 @@
       <c r="AC76" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD76" s="172"/>
+      <c r="AD76" s="158"/>
     </row>
     <row r="77" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B77" s="59" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C77" s="60" t="s">
         <v>6</v>
@@ -9037,38 +9062,38 @@
         <v>7</v>
       </c>
       <c r="F77" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G77" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H77" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E15Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E17Y_Quote</v>
       </c>
       <c r="I77" s="125">
         <v>0</v>
       </c>
       <c r="J77" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H77,,B77,Calendar,D77,E77,F77,G77,I77,C77,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005af#0002</v>
+        <v>obj_00564#0001</v>
       </c>
       <c r="L77" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M77" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005be#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_0056c#0001</v>
       </c>
       <c r="N77" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M77,Trigger),"--")</f>
-        <v>EURAB6E21Y_Quote</v>
+        <v>EURAB6E23Y_Quote</v>
       </c>
       <c r="O77" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M77,Trigger),"--")</f>
-        <v>1.702E-2</v>
+        <v>1.541E-2</v>
       </c>
       <c r="P77" s="138" t="b">
         <v>1</v>
@@ -9081,14 +9106,14 @@
       </c>
       <c r="S77" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M77,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T77" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M77,Trigger),"--")</f>
-        <v>49856</v>
+        <v>50675</v>
       </c>
       <c r="V77" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W77" s="3" t="e">
@@ -9117,14 +9142,14 @@
       <c r="AC77" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD77" s="172"/>
+      <c r="AD77" s="158"/>
     </row>
     <row r="78" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C78" s="60" t="s">
         <v>6</v>
@@ -9136,38 +9161,38 @@
         <v>7</v>
       </c>
       <c r="F78" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G78" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H78" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E16Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E18Y_Quote</v>
       </c>
       <c r="I78" s="125">
         <v>0</v>
       </c>
       <c r="J78" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H78,,B78,Calendar,D78,E78,F78,G78,I78,C78,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c5#0002</v>
+        <v>obj_0055a#0001</v>
       </c>
       <c r="L78" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M78" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005c8#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00571#0001</v>
       </c>
       <c r="N78" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M78,Trigger),"--")</f>
-        <v>EURAB6E22Y_Quote</v>
+        <v>EURAB6E24Y_Quote</v>
       </c>
       <c r="O78" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M78,Trigger),"--")</f>
-        <v>1.7090000000000001E-2</v>
+        <v>1.5449999999999998E-2</v>
       </c>
       <c r="P78" s="138" t="b">
         <v>1</v>
@@ -9180,14 +9205,14 @@
       </c>
       <c r="S78" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M78,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T78" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M78,Trigger),"--")</f>
-        <v>50220</v>
+        <v>51039</v>
       </c>
       <c r="V78" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W78" s="3" t="e">
@@ -9216,14 +9241,14 @@
       <c r="AC78" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD78" s="172"/>
+      <c r="AD78" s="158"/>
     </row>
     <row r="79" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C79" s="60" t="s">
         <v>6</v>
@@ -9235,38 +9260,38 @@
         <v>7</v>
       </c>
       <c r="F79" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G79" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H79" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E17Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E19Y_Quote</v>
       </c>
       <c r="I79" s="125">
         <v>0</v>
       </c>
       <c r="J79" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H79,,B79,Calendar,D79,E79,F79,G79,I79,C79,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cc#0002</v>
+        <v>obj_00557#0001</v>
       </c>
       <c r="L79" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M79" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005aa#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_0056a#0001</v>
       </c>
       <c r="N79" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M79,Trigger),"--")</f>
-        <v>EURAB6E23Y_Quote</v>
+        <v>EURAB6E25Y_Quote</v>
       </c>
       <c r="O79" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M79,Trigger),"--")</f>
-        <v>1.7149999999999999E-2</v>
+        <v>1.5480000000000001E-2</v>
       </c>
       <c r="P79" s="138" t="b">
         <v>1</v>
@@ -9279,14 +9304,14 @@
       </c>
       <c r="S79" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M79,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T79" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M79,Trigger),"--")</f>
-        <v>50585</v>
+        <v>51404</v>
       </c>
       <c r="V79" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W79" s="3" t="e">
@@ -9315,14 +9340,14 @@
       <c r="AC79" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD79" s="172"/>
+      <c r="AD79" s="158"/>
     </row>
     <row r="80" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B80" s="59" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C80" s="60" t="s">
         <v>6</v>
@@ -9334,38 +9359,38 @@
         <v>7</v>
       </c>
       <c r="F80" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G80" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H80" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E18Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E20Y_Quote</v>
       </c>
       <c r="I80" s="125">
         <v>0</v>
       </c>
       <c r="J80" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H80,,B80,Calendar,D80,E80,F80,G80,I80,C80,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b6#0002</v>
+        <v>obj_0056e#0001</v>
       </c>
       <c r="L80" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M80" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005b7#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00553#0001</v>
       </c>
       <c r="N80" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M80,Trigger),"--")</f>
-        <v>EURAB6E24Y_Quote</v>
+        <v>EURAB6E26Y_Quote</v>
       </c>
       <c r="O80" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M80,Trigger),"--")</f>
-        <v>1.7180000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="P80" s="138" t="b">
         <v>1</v>
@@ -9378,14 +9403,14 @@
       </c>
       <c r="S80" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M80,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T80" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M80,Trigger),"--")</f>
-        <v>50950</v>
+        <v>51769</v>
       </c>
       <c r="V80" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W80" s="3" t="e">
@@ -9414,14 +9439,14 @@
       <c r="AC80" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD80" s="172"/>
+      <c r="AD80" s="158"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" s="60" t="s">
         <v>6</v>
@@ -9433,38 +9458,38 @@
         <v>7</v>
       </c>
       <c r="F81" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G81" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H81" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E19Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E21Y_Quote</v>
       </c>
       <c r="I81" s="125">
         <v>0</v>
       </c>
       <c r="J81" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H81,,B81,Calendar,D81,E81,F81,G81,I81,C81,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c9#0002</v>
+        <v>obj_0055f#0001</v>
       </c>
       <c r="L81" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M81" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005bf#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00569#0001</v>
       </c>
       <c r="N81" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M81,Trigger),"--")</f>
-        <v>EURAB6E25Y_Quote</v>
+        <v>EURAB6E27Y_Quote</v>
       </c>
       <c r="O81" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M81,Trigger),"--")</f>
-        <v>1.721E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="P81" s="138" t="b">
         <v>1</v>
@@ -9477,14 +9502,14 @@
       </c>
       <c r="S81" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M81,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T81" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M81,Trigger),"--")</f>
-        <v>51316</v>
+        <v>52134</v>
       </c>
       <c r="V81" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W81" s="3" t="e">
@@ -9513,14 +9538,14 @@
       <c r="AC81" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD81" s="172"/>
+      <c r="AD81" s="158"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B82" s="59" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C82" s="60" t="s">
         <v>6</v>
@@ -9532,38 +9557,38 @@
         <v>7</v>
       </c>
       <c r="F82" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G82" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H82" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E20Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E22Y_Quote</v>
       </c>
       <c r="I82" s="125">
         <v>0</v>
       </c>
       <c r="J82" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H82,,B82,Calendar,D82,E82,F82,G82,I82,C82,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b5#0002</v>
+        <v>obj_0056b#0001</v>
       </c>
       <c r="L82" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M82" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005b2#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00565#0001</v>
       </c>
       <c r="N82" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M82,Trigger),"--")</f>
-        <v>EURAB6E26Y_Quote</v>
+        <v>EURAB6E28Y_Quote</v>
       </c>
       <c r="O82" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M82,Trigger),"--")</f>
-        <v>1.7239999999999998E-2</v>
+        <v>1.5520000000000001E-2</v>
       </c>
       <c r="P82" s="138" t="b">
         <v>1</v>
@@ -9576,14 +9601,14 @@
       </c>
       <c r="S82" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M82,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T82" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M82,Trigger),"--")</f>
-        <v>51680</v>
+        <v>52499</v>
       </c>
       <c r="V82" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W82" s="3" t="e">
@@ -9612,14 +9637,14 @@
       <c r="AC82" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD82" s="172"/>
+      <c r="AD82" s="158"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B83" s="59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C83" s="60" t="s">
         <v>6</v>
@@ -9631,38 +9656,38 @@
         <v>7</v>
       </c>
       <c r="F83" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G83" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H83" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E21Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E23Y_Quote</v>
       </c>
       <c r="I83" s="125">
         <v>0</v>
       </c>
       <c r="J83" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H83,,B83,Calendar,D83,E83,F83,G83,I83,C83,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005be#0002</v>
+        <v>obj_0056c#0001</v>
       </c>
       <c r="L83" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M83" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005bc#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00555#0001</v>
       </c>
       <c r="N83" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M83,Trigger),"--")</f>
-        <v>EURAB6E27Y_Quote</v>
+        <v>EURAB6E29Y_Quote</v>
       </c>
       <c r="O83" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M83,Trigger),"--")</f>
-        <v>1.7260000000000001E-2</v>
+        <v>1.5529999999999999E-2</v>
       </c>
       <c r="P83" s="138" t="b">
         <v>1</v>
@@ -9675,14 +9700,14 @@
       </c>
       <c r="S83" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M83,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T83" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M83,Trigger),"--")</f>
-        <v>52047</v>
+        <v>52866</v>
       </c>
       <c r="V83" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W83" s="3" t="e">
@@ -9711,14 +9736,14 @@
       <c r="AC83" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD83" s="172"/>
+      <c r="AD83" s="158"/>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C84" s="60" t="s">
         <v>6</v>
@@ -9730,38 +9755,38 @@
         <v>7</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G84" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H84" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E22Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E24Y_Quote</v>
       </c>
       <c r="I84" s="125">
         <v>0</v>
       </c>
       <c r="J84" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H84,,B84,Calendar,D84,E84,F84,G84,I84,C84,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c8#0002</v>
+        <v>obj_00571#0001</v>
       </c>
       <c r="L84" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M84" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005c3#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00568#0001</v>
       </c>
       <c r="N84" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M84,Trigger),"--")</f>
-        <v>EURAB6E28Y_Quote</v>
+        <v>EURAB6E30Y_Quote</v>
       </c>
       <c r="O84" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M84,Trigger),"--")</f>
-        <v>1.729E-2</v>
+        <v>1.554E-2</v>
       </c>
       <c r="P84" s="138" t="b">
         <v>1</v>
@@ -9774,14 +9799,14 @@
       </c>
       <c r="S84" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M84,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T84" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M84,Trigger),"--")</f>
-        <v>52411</v>
+        <v>53230</v>
       </c>
       <c r="V84" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W84" s="3" t="e">
@@ -9810,14 +9835,14 @@
       <c r="AC84" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD84" s="172"/>
+      <c r="AD84" s="158"/>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B85" s="59" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C85" s="60" t="s">
         <v>6</v>
@@ -9829,38 +9854,38 @@
         <v>7</v>
       </c>
       <c r="F85" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G85" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H85" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E23Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E25Y_Quote</v>
       </c>
       <c r="I85" s="125">
         <v>0</v>
       </c>
       <c r="J85" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H85,,B85,Calendar,D85,E85,F85,G85,I85,C85,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005aa#0002</v>
+        <v>obj_0056a#0001</v>
       </c>
       <c r="L85" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M85" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005ab#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_00562#0001</v>
       </c>
       <c r="N85" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M85,Trigger),"--")</f>
-        <v>EURAB6E29Y_Quote</v>
+        <v>EURAB6E35Y_Quote</v>
       </c>
       <c r="O85" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M85,Trigger),"--")</f>
-        <v>1.7309999999999999E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="P85" s="138" t="b">
         <v>1</v>
@@ -9873,14 +9898,14 @@
       </c>
       <c r="S85" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M85,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T85" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M85,Trigger),"--")</f>
-        <v>52777</v>
+        <v>55057</v>
       </c>
       <c r="V85" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W85" s="3" t="e">
@@ -9909,14 +9934,14 @@
       <c r="AC85" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD85" s="172"/>
+      <c r="AD85" s="158"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B86" s="59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C86" s="60" t="s">
         <v>6</v>
@@ -9928,38 +9953,38 @@
         <v>7</v>
       </c>
       <c r="F86" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G86" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H86" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E24Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E26Y_Quote</v>
       </c>
       <c r="I86" s="125">
         <v>0</v>
       </c>
       <c r="J86" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H86,,B86,Calendar,D86,E86,F86,G86,I86,C86,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b7#0002</v>
+        <v>obj_00553#0001</v>
       </c>
       <c r="L86" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M86" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005bb#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_0055e#0001</v>
       </c>
       <c r="N86" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M86,Trigger),"--")</f>
-        <v>EURAB6E30Y_Quote</v>
+        <v>EURAB6E40Y_Quote</v>
       </c>
       <c r="O86" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M86,Trigger),"--")</f>
-        <v>1.7340000000000001E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="P86" s="138" t="b">
         <v>1</v>
@@ -9972,14 +9997,14 @@
       </c>
       <c r="S86" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M86,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T86" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M86,Trigger),"--")</f>
-        <v>53142</v>
+        <v>56884</v>
       </c>
       <c r="V86" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W86" s="3" t="e">
@@ -10008,14 +10033,14 @@
       <c r="AC86" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD86" s="172"/>
+      <c r="AD86" s="158"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B87" s="59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C87" s="60" t="s">
         <v>6</v>
@@ -10027,41 +10052,41 @@
         <v>7</v>
       </c>
       <c r="F87" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G87" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H87" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E25Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E27Y_Quote</v>
       </c>
       <c r="I87" s="125">
         <v>0</v>
       </c>
       <c r="J87" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H87,,B87,Calendar,D87,E87,F87,G87,I87,C87,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bf#0002</v>
+        <v>obj_00569#0001</v>
       </c>
       <c r="L87" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M87" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005c2#0002</v>
+        <f t="shared" si="19"/>
+        <v>--</v>
       </c>
       <c r="N87" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M87,Trigger),"--")</f>
-        <v>EURAB6E35Y_Quote</v>
-      </c>
-      <c r="O87" s="139">
+        <v>--</v>
+      </c>
+      <c r="O87" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M87,Trigger),"--")</f>
-        <v>1.745E-2</v>
+        <v>--</v>
       </c>
       <c r="P87" s="138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="138">
         <v>50</v>
@@ -10069,16 +10094,16 @@
       <c r="R87" s="138">
         <v>1</v>
       </c>
-      <c r="S87" s="140">
+      <c r="S87" s="140" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M87,Trigger),"--")</f>
-        <v>42184</v>
-      </c>
-      <c r="T87" s="140">
+        <v>--</v>
+      </c>
+      <c r="T87" s="140" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M87,Trigger),"--")</f>
-        <v>54968</v>
+        <v>--</v>
       </c>
       <c r="V87" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W87" s="3" t="e">
@@ -10107,14 +10132,14 @@
       <c r="AC87" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD87" s="172"/>
+      <c r="AD87" s="158"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B88" s="59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C88" s="60" t="s">
         <v>6</v>
@@ -10126,38 +10151,41 @@
         <v>7</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G88" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H88" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E26Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E28Y_Quote</v>
       </c>
       <c r="I88" s="125">
         <v>0</v>
       </c>
       <c r="J88" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H88,,B88,Calendar,D88,E88,F88,G88,I88,C88,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b2#0002</v>
+        <v>obj_00565#0001</v>
+      </c>
+      <c r="K88" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="L88" s="69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
       <c r="M88" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005b3#0002</v>
+        <f t="shared" si="19"/>
+        <v>obj_0055b#0001</v>
       </c>
       <c r="N88" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M88,Trigger),"--")</f>
-        <v>EURAB6E40Y_Quote</v>
+        <v>EURAB6E50Y_Quote</v>
       </c>
       <c r="O88" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M88,Trigger),"--")</f>
-        <v>1.745E-2</v>
+        <v>1.5169999999999999E-2</v>
       </c>
       <c r="P88" s="138" t="b">
         <v>1</v>
@@ -10170,14 +10198,14 @@
       </c>
       <c r="S88" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M88,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T88" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M88,Trigger),"--")</f>
-        <v>56794</v>
+        <v>60535</v>
       </c>
       <c r="V88" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W88" s="3" t="e">
@@ -10206,14 +10234,14 @@
       <c r="AC88" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD88" s="172"/>
+      <c r="AD88" s="158"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B89" s="59" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C89" s="60" t="s">
         <v>6</v>
@@ -10225,94 +10253,94 @@
         <v>7</v>
       </c>
       <c r="F89" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G89" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H89" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E27Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E29Y_Quote</v>
       </c>
       <c r="I89" s="125">
         <v>0</v>
       </c>
       <c r="J89" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H89,,B89,Calendar,D89,E89,F89,G89,I89,C89,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bc#0002</v>
-      </c>
-      <c r="L89" s="69" t="str">
-        <f t="shared" si="16"/>
+        <v>obj_00555#0001</v>
+      </c>
+      <c r="L89" s="70" t="str">
+        <f t="shared" si="18"/>
         <v>Sw</v>
       </c>
-      <c r="M89" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>--</v>
-      </c>
-      <c r="N89" s="146" t="str">
+      <c r="M89" s="141" t="str">
+        <f t="shared" si="19"/>
+        <v>obj_0056f#0001</v>
+      </c>
+      <c r="N89" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M89,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O89" s="139" t="str">
+        <v>EURAB6E60Y_Quote</v>
+      </c>
+      <c r="O89" s="152">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M89,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="P89" s="138" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="138">
+        <v>1.502E-2</v>
+      </c>
+      <c r="P89" s="141" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="141">
         <v>50</v>
       </c>
-      <c r="R89" s="138">
-        <v>1</v>
-      </c>
-      <c r="S89" s="140" t="str">
+      <c r="R89" s="141">
+        <v>1</v>
+      </c>
+      <c r="S89" s="150">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M89,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T89" s="140" t="str">
+        <v>42272</v>
+      </c>
+      <c r="T89" s="150">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M89,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="V89" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W89" s="3" t="e">
+        <v>64187</v>
+      </c>
+      <c r="V89" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="W89" s="5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X89" s="3" t="str">
+      <c r="X89" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W89,Trigger),"")</f>
         <v/>
       </c>
-      <c r="Y89" s="68" t="str">
+      <c r="Y89" s="75" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W89,Trigger),"")</f>
         <v/>
       </c>
-      <c r="Z89" s="100" t="str">
+      <c r="Z89" s="101" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W89)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W89)),_xll.qlSwapRateHelperSpread($W89))</f>
         <v/>
       </c>
-      <c r="AA89" s="4" t="str">
+      <c r="AA89" s="11" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W89,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AB89" s="4" t="str">
+      <c r="AB89" s="11" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W89,Trigger),"")</f>
         <v/>
       </c>
-      <c r="AC89" s="68" t="e">
+      <c r="AC89" s="75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD89" s="172"/>
+      <c r="AD89" s="158"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B90" s="59" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C90" s="60" t="s">
         <v>6</v>
@@ -10324,97 +10352,31 @@
         <v>7</v>
       </c>
       <c r="F90" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G90" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H90" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E28Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E30Y_Quote</v>
       </c>
       <c r="I90" s="125">
         <v>0</v>
       </c>
       <c r="J90" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H90,,B90,Calendar,D90,E90,F90,G90,I90,C90,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c3#0002</v>
-      </c>
-      <c r="K90" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="L90" s="69" t="str">
-        <f t="shared" si="16"/>
-        <v>Sw</v>
-      </c>
-      <c r="M90" s="138" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005b9#0002</v>
-      </c>
-      <c r="N90" s="146" t="str">
-        <f>IFERROR(_xll.qlRateHelperQuoteName(M90,Trigger),"--")</f>
-        <v>EURAB6E50Y_Quote</v>
-      </c>
-      <c r="O90" s="139">
-        <f>IFERROR(_xll.qlRateHelperQuoteValue($M90,Trigger),"--")</f>
-        <v>1.702E-2</v>
-      </c>
-      <c r="P90" s="138" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="138">
-        <v>50</v>
-      </c>
-      <c r="R90" s="138">
-        <v>1</v>
-      </c>
-      <c r="S90" s="140">
-        <f>IFERROR(_xll.qlRateHelperEarliestDate(M90,Trigger),"--")</f>
-        <v>42184</v>
-      </c>
-      <c r="T90" s="140">
-        <f>IFERROR(_xll.qlRateHelperPillarDate(M90,Trigger),"--")</f>
-        <v>60447</v>
-      </c>
-      <c r="V90" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W90" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X90" s="3" t="str">
-        <f>IFERROR(_xll.qlRateHelperQuoteName(W90,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y90" s="68" t="str">
-        <f>IFERROR(_xll.qlRateHelperRate(W90,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z90" s="100" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W90)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W90)),_xll.qlSwapRateHelperSpread($W90))</f>
-        <v/>
-      </c>
-      <c r="AA90" s="4" t="str">
-        <f>IFERROR(_xll.qlRateHelperEarliestDate(W90,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB90" s="4" t="str">
-        <f>IFERROR(_xll.qlRateHelperPillarDate(W90,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC90" s="68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD90" s="172"/>
+        <v>obj_00568#0001</v>
+      </c>
+      <c r="AD90" s="158"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B91" s="59" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C91" s="60" t="s">
         <v>6</v>
@@ -10426,94 +10388,31 @@
         <v>7</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G91" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H91" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E29Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E35Y_Quote</v>
       </c>
       <c r="I91" s="125">
         <v>0</v>
       </c>
       <c r="J91" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H91,,B91,Calendar,D91,E91,F91,G91,I91,C91,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ab#0002</v>
-      </c>
-      <c r="L91" s="70" t="str">
-        <f t="shared" si="16"/>
-        <v>Sw</v>
-      </c>
-      <c r="M91" s="141" t="str">
-        <f t="shared" si="17"/>
-        <v>obj_005ad#0002</v>
-      </c>
-      <c r="N91" s="151" t="str">
-        <f>IFERROR(_xll.qlRateHelperQuoteName(M91,Trigger),"--")</f>
-        <v>EURAB6E60Y_Quote</v>
-      </c>
-      <c r="O91" s="152">
-        <f>IFERROR(_xll.qlRateHelperQuoteValue($M91,Trigger),"--")</f>
-        <v>1.687E-2</v>
-      </c>
-      <c r="P91" s="141" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="141">
-        <v>50</v>
-      </c>
-      <c r="R91" s="141">
-        <v>1</v>
-      </c>
-      <c r="S91" s="150">
-        <f>IFERROR(_xll.qlRateHelperEarliestDate(M91,Trigger),"--")</f>
-        <v>42184</v>
-      </c>
-      <c r="T91" s="150">
-        <f>IFERROR(_xll.qlRateHelperPillarDate(M91,Trigger),"--")</f>
-        <v>64098</v>
-      </c>
-      <c r="V91" s="5" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W91" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X91" s="5" t="str">
-        <f>IFERROR(_xll.qlRateHelperQuoteName(W91,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y91" s="75" t="str">
-        <f>IFERROR(_xll.qlRateHelperRate(W91,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z91" s="101" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W91)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W91)),_xll.qlSwapRateHelperSpread($W91))</f>
-        <v/>
-      </c>
-      <c r="AA91" s="11" t="str">
-        <f>IFERROR(_xll.qlRateHelperEarliestDate(W91,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB91" s="11" t="str">
-        <f>IFERROR(_xll.qlRateHelperPillarDate(W91,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC91" s="75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD91" s="172"/>
+        <v>obj_00562#0001</v>
+      </c>
+      <c r="AD91" s="158"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B92" s="59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C92" s="60" t="s">
         <v>6</v>
@@ -10525,31 +10424,31 @@
         <v>7</v>
       </c>
       <c r="F92" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G92" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H92" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E30Y_Quote</v>
-      </c>
-      <c r="I92" s="125">
+        <f t="shared" si="21"/>
+        <v>EURAB6E40Y_Quote</v>
+      </c>
+      <c r="I92" s="123">
         <v>0</v>
       </c>
       <c r="J92" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H92,,B92,Calendar,D92,E92,F92,G92,I92,C92,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bb#0002</v>
-      </c>
-      <c r="AD92" s="172"/>
+        <v>obj_0055e#0001</v>
+      </c>
+      <c r="AD92" s="158"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B93" s="59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C93" s="60" t="s">
         <v>6</v>
@@ -10561,31 +10460,28 @@
         <v>7</v>
       </c>
       <c r="F93" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G93" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H93" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E35Y_Quote</v>
-      </c>
-      <c r="I93" s="125">
-        <v>0</v>
-      </c>
-      <c r="J93" s="62" t="str">
-        <f>_xll.qlSwapRateHelper2(,H93,,B93,Calendar,D93,E93,F93,G93,I93,C93,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c2#0002</v>
-      </c>
-      <c r="AD93" s="172"/>
+        <f t="shared" si="21"/>
+        <v>EURAB6E45Y_Quote</v>
+      </c>
+      <c r="I93" s="123">
+        <v>0</v>
+      </c>
+      <c r="J93" s="62"/>
+      <c r="AD93" s="158"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B94" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C94" s="60" t="s">
         <v>6</v>
@@ -10597,232 +10493,169 @@
         <v>7</v>
       </c>
       <c r="F94" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G94" s="60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
       <c r="H94" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E40Y_Quote</v>
+        <f t="shared" si="21"/>
+        <v>EURAB6E50Y_Quote</v>
       </c>
       <c r="I94" s="123">
         <v>0</v>
       </c>
       <c r="J94" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H94,,B94,Calendar,D94,E94,F94,G94,I94,C94,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b3#0002</v>
-      </c>
-      <c r="AD94" s="172"/>
+        <v>obj_0055b#0001</v>
+      </c>
+      <c r="AD94" s="158"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A95" s="58" t="s">
+      <c r="A95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C95" s="60" t="s">
+      <c r="B95" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="60" t="s">
+      <c r="D95" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="60" t="s">
+      <c r="E95" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="G95" s="60" t="str">
-        <f t="shared" si="18"/>
+      <c r="F95" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G95" s="6" t="str">
+        <f t="shared" si="20"/>
         <v>Euribor6M</v>
       </c>
-      <c r="H95" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E45Y_Quote</v>
-      </c>
-      <c r="I95" s="123">
-        <v>0</v>
-      </c>
-      <c r="J95" s="62"/>
-      <c r="AD95" s="172"/>
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>EURAB6E60Y_Quote</v>
+      </c>
+      <c r="I95" s="126">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="str">
+        <f>_xll.qlSwapRateHelper2(,H95,,B95,Calendar,D95,E95,F95,G95,I95,C95,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0056f#0001</v>
+      </c>
+      <c r="AD95" s="158"/>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A96" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="G96" s="60" t="str">
-        <f t="shared" si="18"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="H96" s="58" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E50Y_Quote</v>
-      </c>
-      <c r="I96" s="123">
-        <v>0</v>
-      </c>
-      <c r="J96" s="62" t="str">
-        <f>_xll.qlSwapRateHelper2(,H96,,B96,Calendar,D96,E96,F96,G96,I96,C96,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b9#0002</v>
-      </c>
-      <c r="AD96" s="172"/>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G97" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="H97" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>EURAB6E60Y_Quote</v>
-      </c>
-      <c r="I97" s="126">
-        <v>0</v>
-      </c>
-      <c r="J97" s="2" t="str">
-        <f>_xll.qlSwapRateHelper2(,H97,,B97,Calendar,D97,E97,F97,G97,I97,C97,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ad#0002</v>
-      </c>
-      <c r="AD97" s="172"/>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD98" s="172"/>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD99" s="172"/>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD100" s="172"/>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD101" s="172"/>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD102" s="172"/>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD103" s="172"/>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD104" s="172"/>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD105" s="172"/>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD106" s="172"/>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD107" s="172"/>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD108" s="172"/>
-    </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD109" s="172"/>
-    </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD110" s="172"/>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD111" s="172"/>
-    </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD112" s="172"/>
+      <c r="AD96" s="158"/>
+    </row>
+    <row r="97" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD97" s="158"/>
+    </row>
+    <row r="98" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD98" s="158"/>
+    </row>
+    <row r="99" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD99" s="158"/>
+    </row>
+    <row r="100" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD100" s="158"/>
+    </row>
+    <row r="101" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD101" s="158"/>
+    </row>
+    <row r="102" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD102" s="158"/>
+    </row>
+    <row r="103" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD103" s="158"/>
+    </row>
+    <row r="104" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD104" s="158"/>
+    </row>
+    <row r="105" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD105" s="158"/>
+    </row>
+    <row r="106" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD106" s="158"/>
+    </row>
+    <row r="107" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD107" s="158"/>
+    </row>
+    <row r="108" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD108" s="158"/>
+    </row>
+    <row r="109" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD109" s="158"/>
+    </row>
+    <row r="110" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD110" s="158"/>
+    </row>
+    <row r="111" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD111" s="158"/>
+    </row>
+    <row r="112" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD112" s="158"/>
     </row>
     <row r="113" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD113" s="172"/>
+      <c r="AD113" s="158"/>
     </row>
     <row r="114" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD114" s="172"/>
+      <c r="AD114" s="158"/>
     </row>
     <row r="115" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD115" s="172"/>
+      <c r="AD115" s="158"/>
     </row>
     <row r="116" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD116" s="172"/>
+      <c r="AD116" s="158"/>
     </row>
     <row r="117" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD117" s="172"/>
+      <c r="AD117" s="158"/>
     </row>
     <row r="118" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD118" s="172"/>
+      <c r="AD118" s="158"/>
     </row>
     <row r="119" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD119" s="172"/>
+      <c r="AD119" s="158"/>
     </row>
     <row r="120" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD120" s="172"/>
+      <c r="AD120" s="158"/>
     </row>
     <row r="121" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD121" s="172"/>
+      <c r="AD121" s="158"/>
     </row>
     <row r="122" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD122" s="172"/>
+      <c r="AD122" s="158"/>
     </row>
     <row r="123" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD123" s="172"/>
+      <c r="AD123" s="158"/>
     </row>
     <row r="124" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD124" s="172"/>
+      <c r="AD124" s="158"/>
     </row>
     <row r="125" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD125" s="172"/>
+      <c r="AD125" s="158"/>
     </row>
     <row r="126" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD126" s="172"/>
+      <c r="AD126" s="158"/>
     </row>
     <row r="127" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD127" s="172"/>
+      <c r="AD127" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D60:D97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D58:D95">
       <formula1>"Annual,Semiannual,EveryFourthMonth,Quarterly,Bimonthly,Monthly,Biweekly,Weekly,Daily,Once,NoFrequency"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E60:E97 E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E58:E95 E3">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted,Half-Month Modified Following"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60:F97 F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F58:F95 F3">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF6">
